--- a/陪聊数据统计.xlsx
+++ b/陪聊数据统计.xlsx
@@ -467,25 +467,25 @@
     </row>
     <row customHeight="true" ht="28" r="3">
       <c r="A3" t="str">
-        <v>chatting032</v>
+        <v>chatting033</v>
       </c>
       <c r="B3" t="str">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C3" t="str">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D3" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E3" t="str">
-        <v>302</v>
+        <v>250</v>
       </c>
       <c r="F3" t="str">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="G3" t="str">
-        <v>3151</v>
+        <v>2972</v>
       </c>
       <c r="H3" t="str">
         <v>1</v>
@@ -494,39 +494,39 @@
         <v>0.0000</v>
       </c>
       <c r="J3" t="str">
-        <v>822</v>
+        <v>664</v>
       </c>
       <c r="K3" t="str">
         <v>1.0000</v>
       </c>
       <c r="L3" t="str">
-        <v>42.9000</v>
+        <v>39.7000</v>
       </c>
       <c r="M3" t="str">
-        <v>8.5800</v>
+        <v>7.9400</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="4">
       <c r="A4" t="str">
-        <v>chatting033</v>
+        <v>chatting032</v>
       </c>
       <c r="B4" t="str">
-        <v>1690</v>
+        <v>1481</v>
       </c>
       <c r="C4" t="str">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D4" t="str">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E4" t="str">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="F4" t="str">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="G4" t="str">
-        <v>2972</v>
+        <v>2756</v>
       </c>
       <c r="H4" t="str">
         <v>2</v>
@@ -535,16 +535,16 @@
         <v>0.0000</v>
       </c>
       <c r="J4" t="str">
-        <v>664</v>
+        <v>1439</v>
       </c>
       <c r="K4" t="str">
         <v>1.0000</v>
       </c>
       <c r="L4" t="str">
-        <v>39.7000</v>
+        <v>35.0500</v>
       </c>
       <c r="M4" t="str">
-        <v>7.9400</v>
+        <v>7.0100</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="5">
@@ -552,22 +552,22 @@
         <v>chatting05</v>
       </c>
       <c r="B5" t="str">
-        <v>1286</v>
+        <v>1173</v>
       </c>
       <c r="C5" t="str">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D5" t="str">
         <v>0</v>
       </c>
       <c r="E5" t="str">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="F5" t="str">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="G5" t="str">
-        <v>2639</v>
+        <v>2443</v>
       </c>
       <c r="H5" t="str">
         <v>3</v>
@@ -576,16 +576,16 @@
         <v>0.0000</v>
       </c>
       <c r="J5" t="str">
-        <v>1298</v>
+        <v>1138</v>
       </c>
       <c r="K5" t="str">
         <v>1.0000</v>
       </c>
       <c r="L5" t="str">
-        <v>16.4500</v>
+        <v>13.3000</v>
       </c>
       <c r="M5" t="str">
-        <v>3.2900</v>
+        <v>2.6600</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="6">
@@ -672,25 +672,25 @@
     </row>
     <row customHeight="true" ht="28" r="8">
       <c r="A8" t="str">
-        <v>chatting017</v>
+        <v>chatting035</v>
       </c>
       <c r="B8" t="str">
-        <v>1327</v>
+        <v>867</v>
       </c>
       <c r="C8" t="str">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D8" t="str">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E8" t="str">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="F8" t="str">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="G8" t="str">
-        <v>1947</v>
+        <v>1572</v>
       </c>
       <c r="H8" t="str">
         <v>6</v>
@@ -699,39 +699,39 @@
         <v>0.0000</v>
       </c>
       <c r="J8" t="str">
-        <v>303</v>
+        <v>372</v>
       </c>
       <c r="K8" t="str">
         <v>1.0000</v>
       </c>
       <c r="L8" t="str">
-        <v>25.9000</v>
+        <v>24.6500</v>
       </c>
       <c r="M8" t="str">
-        <v>5.1800</v>
+        <v>4.9300</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="9">
       <c r="A9" t="str">
-        <v>chatting035</v>
+        <v>chatting017</v>
       </c>
       <c r="B9" t="str">
-        <v>867</v>
+        <v>796</v>
       </c>
       <c r="C9" t="str">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D9" t="str">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E9" t="str">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="F9" t="str">
-        <v>185</v>
+        <v>92</v>
       </c>
       <c r="G9" t="str">
-        <v>1572</v>
+        <v>1195</v>
       </c>
       <c r="H9" t="str">
         <v>7</v>
@@ -740,16 +740,16 @@
         <v>0.0000</v>
       </c>
       <c r="J9" t="str">
-        <v>372</v>
+        <v>171</v>
       </c>
       <c r="K9" t="str">
-        <v>1.0000</v>
+        <v>0.8500</v>
       </c>
       <c r="L9" t="str">
-        <v>24.6500</v>
+        <v>12.7925</v>
       </c>
       <c r="M9" t="str">
-        <v>4.9300</v>
+        <v>2.5585</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="10">
@@ -1164,22 +1164,22 @@
     </row>
     <row customHeight="true" ht="28" r="20">
       <c r="A20" t="str">
-        <v>chatting012</v>
+        <v>chatting011</v>
       </c>
       <c r="B20" t="str">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C20" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="str">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20" t="str">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G20" t="str">
         <v>52</v>
@@ -1191,36 +1191,36 @@
         <v>0.0000</v>
       </c>
       <c r="J20" t="str">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K20" t="str">
-        <v>0.1000</v>
+        <v>0.2500</v>
       </c>
       <c r="L20" t="str">
-        <v>0.0350</v>
+        <v>0.0500</v>
       </c>
       <c r="M20" t="str">
-        <v>0.0070</v>
+        <v>0.0100</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="21">
       <c r="A21" t="str">
-        <v>chatting011</v>
+        <v>chatting012</v>
       </c>
       <c r="B21" t="str">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C21" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="str">
+        <v>9</v>
+      </c>
+      <c r="F21" t="str">
         <v>10</v>
-      </c>
-      <c r="F21" t="str">
-        <v>11</v>
       </c>
       <c r="G21" t="str">
         <v>52</v>
@@ -1232,16 +1232,16 @@
         <v>0.0000</v>
       </c>
       <c r="J21" t="str">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K21" t="str">
-        <v>0.2500</v>
+        <v>0.1000</v>
       </c>
       <c r="L21" t="str">
-        <v>0.0500</v>
+        <v>0.0350</v>
       </c>
       <c r="M21" t="str">
-        <v>0.0100</v>
+        <v>0.0070</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="22">
@@ -1249,7 +1249,7 @@
         <v>chatting013</v>
       </c>
       <c r="B22" t="str">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C22" t="str">
         <v>0</v>
@@ -1258,13 +1258,13 @@
         <v>1</v>
       </c>
       <c r="E22" t="str">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F22" t="str">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G22" t="str">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H22" t="str">
         <v>20</v>
@@ -1273,16 +1273,16 @@
         <v>0.0000</v>
       </c>
       <c r="J22" t="str">
-        <v>658</v>
+        <v>56</v>
       </c>
       <c r="K22" t="str">
-        <v>1.0000</v>
+        <v>0.2500</v>
       </c>
       <c r="L22" t="str">
-        <v>0.2000</v>
+        <v>0.0500</v>
       </c>
       <c r="M22" t="str">
-        <v>0.0400</v>
+        <v>0.0100</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="23">

--- a/陪聊数据统计.xlsx
+++ b/陪聊数据统计.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="20190615 08点-20190616 08点" sheetId="1" r:id="rId1"/>
+    <sheet name="20190616 08点-20190617 08点" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -467,25 +467,25 @@
     </row>
     <row customHeight="true" ht="28" r="3">
       <c r="A3" t="str">
-        <v>chatting033</v>
+        <v>chatting017</v>
       </c>
       <c r="B3" t="str">
-        <v>1690</v>
+        <v>2052</v>
       </c>
       <c r="C3" t="str">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D3" t="str">
         <v>6</v>
       </c>
       <c r="E3" t="str">
-        <v>250</v>
+        <v>73</v>
       </c>
       <c r="F3" t="str">
-        <v>366</v>
+        <v>177</v>
       </c>
       <c r="G3" t="str">
-        <v>2972</v>
+        <v>2896</v>
       </c>
       <c r="H3" t="str">
         <v>1</v>
@@ -494,39 +494,39 @@
         <v>0.0000</v>
       </c>
       <c r="J3" t="str">
-        <v>664</v>
+        <v>1439</v>
       </c>
       <c r="K3" t="str">
         <v>1.0000</v>
       </c>
       <c r="L3" t="str">
-        <v>39.7000</v>
+        <v>35.5000</v>
       </c>
       <c r="M3" t="str">
-        <v>7.9400</v>
+        <v>7.1000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="4">
       <c r="A4" t="str">
-        <v>chatting032</v>
+        <v>chatting036</v>
       </c>
       <c r="B4" t="str">
-        <v>1481</v>
+        <v>1648</v>
       </c>
       <c r="C4" t="str">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D4" t="str">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E4" t="str">
-        <v>289</v>
+        <v>127</v>
       </c>
       <c r="F4" t="str">
-        <v>390</v>
+        <v>240</v>
       </c>
       <c r="G4" t="str">
-        <v>2756</v>
+        <v>2578</v>
       </c>
       <c r="H4" t="str">
         <v>2</v>
@@ -535,39 +535,39 @@
         <v>0.0000</v>
       </c>
       <c r="J4" t="str">
-        <v>1439</v>
+        <v>975</v>
       </c>
       <c r="K4" t="str">
         <v>1.0000</v>
       </c>
       <c r="L4" t="str">
-        <v>35.0500</v>
+        <v>36.1000</v>
       </c>
       <c r="M4" t="str">
-        <v>7.0100</v>
+        <v>7.2200</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="5">
       <c r="A5" t="str">
-        <v>chatting05</v>
+        <v>chatting033</v>
       </c>
       <c r="B5" t="str">
-        <v>1173</v>
+        <v>1390</v>
       </c>
       <c r="C5" t="str">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="D5" t="str">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E5" t="str">
-        <v>502</v>
+        <v>134</v>
       </c>
       <c r="F5" t="str">
-        <v>540</v>
+        <v>244</v>
       </c>
       <c r="G5" t="str">
-        <v>2443</v>
+        <v>2378</v>
       </c>
       <c r="H5" t="str">
         <v>3</v>
@@ -576,39 +576,39 @@
         <v>0.0000</v>
       </c>
       <c r="J5" t="str">
-        <v>1138</v>
+        <v>588</v>
       </c>
       <c r="K5" t="str">
         <v>1.0000</v>
       </c>
       <c r="L5" t="str">
-        <v>13.3000</v>
+        <v>37.0000</v>
       </c>
       <c r="M5" t="str">
-        <v>2.6600</v>
+        <v>7.4000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="6">
       <c r="A6" t="str">
-        <v>chatting031</v>
+        <v>chatting05</v>
       </c>
       <c r="B6" t="str">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="C6" t="str">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D6" t="str">
         <v>3</v>
       </c>
       <c r="E6" t="str">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="F6" t="str">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="G6" t="str">
-        <v>2012</v>
+        <v>2052</v>
       </c>
       <c r="H6" t="str">
         <v>4</v>
@@ -617,39 +617,39 @@
         <v>0.0000</v>
       </c>
       <c r="J6" t="str">
-        <v>490</v>
+        <v>1298</v>
       </c>
       <c r="K6" t="str">
         <v>1.0000</v>
       </c>
       <c r="L6" t="str">
-        <v>14.6000</v>
+        <v>20.2000</v>
       </c>
       <c r="M6" t="str">
-        <v>2.9200</v>
+        <v>4.0400</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="7">
       <c r="A7" t="str">
-        <v>chatting036</v>
+        <v>chatting032</v>
       </c>
       <c r="B7" t="str">
-        <v>1184</v>
+        <v>1155</v>
       </c>
       <c r="C7" t="str">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D7" t="str">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E7" t="str">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F7" t="str">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="G7" t="str">
-        <v>1972</v>
+        <v>2015</v>
       </c>
       <c r="H7" t="str">
         <v>5</v>
@@ -658,39 +658,39 @@
         <v>0.0000</v>
       </c>
       <c r="J7" t="str">
-        <v>690</v>
+        <v>1439</v>
       </c>
       <c r="K7" t="str">
         <v>1.0000</v>
       </c>
       <c r="L7" t="str">
-        <v>27.8000</v>
+        <v>28.6000</v>
       </c>
       <c r="M7" t="str">
-        <v>5.5600</v>
+        <v>5.7200</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="8">
       <c r="A8" t="str">
-        <v>chatting035</v>
+        <v>yaseregypt1</v>
       </c>
       <c r="B8" t="str">
-        <v>867</v>
+        <v>983</v>
       </c>
       <c r="C8" t="str">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D8" t="str">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E8" t="str">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="F8" t="str">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="G8" t="str">
-        <v>1572</v>
+        <v>1695</v>
       </c>
       <c r="H8" t="str">
         <v>6</v>
@@ -699,39 +699,39 @@
         <v>0.0000</v>
       </c>
       <c r="J8" t="str">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="K8" t="str">
         <v>1.0000</v>
       </c>
       <c r="L8" t="str">
-        <v>24.6500</v>
+        <v>29.6000</v>
       </c>
       <c r="M8" t="str">
-        <v>4.9300</v>
+        <v>5.9200</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="9">
       <c r="A9" t="str">
-        <v>chatting017</v>
+        <v>chatting031</v>
       </c>
       <c r="B9" t="str">
-        <v>796</v>
+        <v>835</v>
       </c>
       <c r="C9" t="str">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D9" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" t="str">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="F9" t="str">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="G9" t="str">
-        <v>1195</v>
+        <v>1277</v>
       </c>
       <c r="H9" t="str">
         <v>7</v>
@@ -740,16 +740,16 @@
         <v>0.0000</v>
       </c>
       <c r="J9" t="str">
-        <v>171</v>
+        <v>470</v>
       </c>
       <c r="K9" t="str">
-        <v>0.8500</v>
+        <v>1.0000</v>
       </c>
       <c r="L9" t="str">
-        <v>12.7925</v>
+        <v>14.6000</v>
       </c>
       <c r="M9" t="str">
-        <v>2.5585</v>
+        <v>2.9200</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="10">
@@ -757,22 +757,22 @@
         <v>chatting02</v>
       </c>
       <c r="B10" t="str">
-        <v>391</v>
+        <v>701</v>
       </c>
       <c r="C10" t="str">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D10" t="str">
         <v>0</v>
       </c>
       <c r="E10" t="str">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F10" t="str">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="G10" t="str">
-        <v>668</v>
+        <v>1208</v>
       </c>
       <c r="H10" t="str">
         <v>8</v>
@@ -781,39 +781,39 @@
         <v>0.0000</v>
       </c>
       <c r="J10" t="str">
-        <v>369</v>
+        <v>480</v>
       </c>
       <c r="K10" t="str">
         <v>1.0000</v>
       </c>
       <c r="L10" t="str">
-        <v>10.1500</v>
+        <v>19.9500</v>
       </c>
       <c r="M10" t="str">
-        <v>2.0300</v>
+        <v>3.9900</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="11">
       <c r="A11" t="str">
-        <v>yaseregypt1</v>
+        <v>chatting035</v>
       </c>
       <c r="B11" t="str">
-        <v>374</v>
+        <v>442</v>
       </c>
       <c r="C11" t="str">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D11" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" t="str">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" t="str">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="G11" t="str">
-        <v>630</v>
+        <v>806</v>
       </c>
       <c r="H11" t="str">
         <v>9</v>
@@ -822,39 +822,39 @@
         <v>0.0000</v>
       </c>
       <c r="J11" t="str">
-        <v>219</v>
+        <v>770</v>
       </c>
       <c r="K11" t="str">
         <v>1.0000</v>
       </c>
       <c r="L11" t="str">
-        <v>9.2000</v>
+        <v>14.6000</v>
       </c>
       <c r="M11" t="str">
-        <v>1.8400</v>
+        <v>2.9200</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="12">
       <c r="A12" t="str">
-        <v>chatting040</v>
+        <v>chatting015</v>
       </c>
       <c r="B12" t="str">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C12" t="str">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D12" t="str">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" t="str">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F12" t="str">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G12" t="str">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="H12" t="str">
         <v>10</v>
@@ -863,39 +863,39 @@
         <v>0.0000</v>
       </c>
       <c r="J12" t="str">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="K12" t="str">
-        <v>1.0000</v>
+        <v>0.8500</v>
       </c>
       <c r="L12" t="str">
-        <v>7.4000</v>
+        <v>7.0125</v>
       </c>
       <c r="M12" t="str">
-        <v>1.4800</v>
+        <v>1.4025</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="13">
       <c r="A13" t="str">
-        <v>chatting03</v>
+        <v>chatting07</v>
       </c>
       <c r="B13" t="str">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="C13" t="str">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D13" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13" t="str">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F13" t="str">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G13" t="str">
-        <v>381</v>
+        <v>323</v>
       </c>
       <c r="H13" t="str">
         <v>11</v>
@@ -904,39 +904,39 @@
         <v>0.0000</v>
       </c>
       <c r="J13" t="str">
-        <v>234</v>
+        <v>99</v>
       </c>
       <c r="K13" t="str">
-        <v>1.0000</v>
+        <v>0.5500</v>
       </c>
       <c r="L13" t="str">
-        <v>5.9500</v>
+        <v>1.4025</v>
       </c>
       <c r="M13" t="str">
-        <v>1.1900</v>
+        <v>0.2805</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="14">
       <c r="A14" t="str">
-        <v>chatting07</v>
+        <v>chatting018</v>
       </c>
       <c r="B14" t="str">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C14" t="str">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" t="str">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="F14" t="str">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="G14" t="str">
-        <v>341</v>
+        <v>259</v>
       </c>
       <c r="H14" t="str">
         <v>12</v>
@@ -945,39 +945,39 @@
         <v>0.0000</v>
       </c>
       <c r="J14" t="str">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K14" t="str">
         <v>0.7000</v>
       </c>
       <c r="L14" t="str">
-        <v>2.3800</v>
+        <v>1.7500</v>
       </c>
       <c r="M14" t="str">
-        <v>0.4760</v>
+        <v>0.3500</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="15">
       <c r="A15" t="str">
-        <v>yousefegypt1</v>
+        <v>chatting06</v>
       </c>
       <c r="B15" t="str">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="C15" t="str">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D15" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15" t="str">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F15" t="str">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G15" t="str">
-        <v>315</v>
+        <v>213</v>
       </c>
       <c r="H15" t="str">
         <v>13</v>
@@ -986,39 +986,39 @@
         <v>0.0000</v>
       </c>
       <c r="J15" t="str">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="K15" t="str">
-        <v>0.4000</v>
+        <v>0.5500</v>
       </c>
       <c r="L15" t="str">
-        <v>2.1000</v>
+        <v>0.9900</v>
       </c>
       <c r="M15" t="str">
-        <v>0.4200</v>
+        <v>0.1980</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="16">
       <c r="A16" t="str">
-        <v>chatting06</v>
+        <v>chatting039</v>
       </c>
       <c r="B16" t="str">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" t="str">
         <v>7</v>
       </c>
       <c r="D16" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="str">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F16" t="str">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G16" t="str">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H16" t="str">
         <v>14</v>
@@ -1027,39 +1027,39 @@
         <v>0.0000</v>
       </c>
       <c r="J16" t="str">
-        <v>334</v>
+        <v>67</v>
       </c>
       <c r="K16" t="str">
-        <v>1.0000</v>
+        <v>0.4000</v>
       </c>
       <c r="L16" t="str">
-        <v>2.4500</v>
+        <v>1.0600</v>
       </c>
       <c r="M16" t="str">
-        <v>0.4900</v>
+        <v>0.2120</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="17">
       <c r="A17" t="str">
-        <v>ahmedegypt1</v>
+        <v>chatting013</v>
       </c>
       <c r="B17" t="str">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="C17" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D17" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E17" t="str">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F17" t="str">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G17" t="str">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="H17" t="str">
         <v>15</v>
@@ -1068,39 +1068,39 @@
         <v>0.0000</v>
       </c>
       <c r="J17" t="str">
-        <v>198</v>
+        <v>994</v>
       </c>
       <c r="K17" t="str">
         <v>1.0000</v>
       </c>
       <c r="L17" t="str">
-        <v>0.0000</v>
+        <v>2.2000</v>
       </c>
       <c r="M17" t="str">
-        <v>0.0000</v>
+        <v>0.4400</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="18">
       <c r="A18" t="str">
-        <v>chatting014</v>
+        <v>chatting022</v>
       </c>
       <c r="B18" t="str">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="C18" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D18" t="str">
         <v>0</v>
       </c>
       <c r="E18" t="str">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F18" t="str">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G18" t="str">
-        <v>67</v>
+        <v>193</v>
       </c>
       <c r="H18" t="str">
         <v>16</v>
@@ -1109,39 +1109,39 @@
         <v>0.0000</v>
       </c>
       <c r="J18" t="str">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="K18" t="str">
-        <v>0.2500</v>
+        <v>0.5500</v>
       </c>
       <c r="L18" t="str">
-        <v>0.0875</v>
+        <v>0.9625</v>
       </c>
       <c r="M18" t="str">
-        <v>0.0175</v>
+        <v>0.1925</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="19">
       <c r="A19" t="str">
-        <v>chatting018</v>
+        <v>chatting038</v>
       </c>
       <c r="B19" t="str">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="C19" t="str">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D19" t="str">
         <v>0</v>
       </c>
       <c r="E19" t="str">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F19" t="str">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G19" t="str">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="H19" t="str">
         <v>17</v>
@@ -1150,39 +1150,39 @@
         <v>0.0000</v>
       </c>
       <c r="J19" t="str">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="K19" t="str">
-        <v>0.1000</v>
+        <v>0.4000</v>
       </c>
       <c r="L19" t="str">
-        <v>0.0000</v>
+        <v>1.1200</v>
       </c>
       <c r="M19" t="str">
-        <v>0.0000</v>
+        <v>0.2240</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="20">
       <c r="A20" t="str">
-        <v>chatting011</v>
+        <v>chatting03</v>
       </c>
       <c r="B20" t="str">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" t="str">
+        <v>2</v>
+      </c>
+      <c r="D20" t="str">
         <v>0</v>
       </c>
-      <c r="D20" t="str">
-        <v>1</v>
-      </c>
       <c r="E20" t="str">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F20" t="str">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G20" t="str">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H20" t="str">
         <v>18</v>
@@ -1191,39 +1191,39 @@
         <v>0.0000</v>
       </c>
       <c r="J20" t="str">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K20" t="str">
-        <v>0.2500</v>
+        <v>0.1000</v>
       </c>
       <c r="L20" t="str">
-        <v>0.0500</v>
+        <v>0.0700</v>
       </c>
       <c r="M20" t="str">
-        <v>0.0100</v>
+        <v>0.0140</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="21">
       <c r="A21" t="str">
-        <v>chatting012</v>
+        <v>chatting037</v>
       </c>
       <c r="B21" t="str">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C21" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="str">
         <v>0</v>
       </c>
       <c r="E21" t="str">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F21" t="str">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G21" t="str">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H21" t="str">
         <v>19</v>
@@ -1232,138 +1232,15 @@
         <v>0.0000</v>
       </c>
       <c r="J21" t="str">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="K21" t="str">
         <v>0.1000</v>
       </c>
       <c r="L21" t="str">
-        <v>0.0350</v>
+        <v>0.0000</v>
       </c>
       <c r="M21" t="str">
-        <v>0.0070</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="22">
-      <c r="A22" t="str">
-        <v>chatting013</v>
-      </c>
-      <c r="B22" t="str">
-        <v>28</v>
-      </c>
-      <c r="C22" t="str">
-        <v>0</v>
-      </c>
-      <c r="D22" t="str">
-        <v>1</v>
-      </c>
-      <c r="E22" t="str">
-        <v>3</v>
-      </c>
-      <c r="F22" t="str">
-        <v>4</v>
-      </c>
-      <c r="G22" t="str">
-        <v>36</v>
-      </c>
-      <c r="H22" t="str">
-        <v>20</v>
-      </c>
-      <c r="I22" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="J22" t="str">
-        <v>56</v>
-      </c>
-      <c r="K22" t="str">
-        <v>0.2500</v>
-      </c>
-      <c r="L22" t="str">
-        <v>0.0500</v>
-      </c>
-      <c r="M22" t="str">
-        <v>0.0100</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="23">
-      <c r="A23" t="str">
-        <v>chatting034</v>
-      </c>
-      <c r="B23" t="str">
-        <v>4</v>
-      </c>
-      <c r="C23" t="str">
-        <v>0</v>
-      </c>
-      <c r="D23" t="str">
-        <v>0</v>
-      </c>
-      <c r="E23" t="str">
-        <v>3</v>
-      </c>
-      <c r="F23" t="str">
-        <v>3</v>
-      </c>
-      <c r="G23" t="str">
-        <v>10</v>
-      </c>
-      <c r="H23" t="str">
-        <v>21</v>
-      </c>
-      <c r="I23" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="J23" t="str">
-        <v>7</v>
-      </c>
-      <c r="K23" t="str">
-        <v>0.1000</v>
-      </c>
-      <c r="L23" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="M23" t="str">
-        <v>0.0000</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="24">
-      <c r="A24" t="str">
-        <v>admin</v>
-      </c>
-      <c r="B24" t="str">
-        <v>2</v>
-      </c>
-      <c r="C24" t="str">
-        <v>0</v>
-      </c>
-      <c r="D24" t="str">
-        <v>0</v>
-      </c>
-      <c r="E24" t="str">
-        <v>2</v>
-      </c>
-      <c r="F24" t="str">
-        <v>2</v>
-      </c>
-      <c r="G24" t="str">
-        <v>6</v>
-      </c>
-      <c r="H24" t="str">
-        <v>22</v>
-      </c>
-      <c r="I24" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="J24" t="str">
-        <v>0</v>
-      </c>
-      <c r="K24" t="str">
-        <v>0.1000</v>
-      </c>
-      <c r="L24" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="M24" t="str">
         <v>0.0000</v>
       </c>
     </row>

--- a/陪聊数据统计.xlsx
+++ b/陪聊数据统计.xlsx
@@ -467,25 +467,25 @@
     </row>
     <row customHeight="true" ht="28" r="3">
       <c r="A3" t="str">
-        <v>chatting017</v>
+        <v>chatting033</v>
       </c>
       <c r="B3" t="str">
-        <v>2052</v>
+        <v>1690</v>
       </c>
       <c r="C3" t="str">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D3" t="str">
         <v>6</v>
       </c>
       <c r="E3" t="str">
-        <v>73</v>
+        <v>250</v>
       </c>
       <c r="F3" t="str">
-        <v>177</v>
+        <v>366</v>
       </c>
       <c r="G3" t="str">
-        <v>2896</v>
+        <v>2972</v>
       </c>
       <c r="H3" t="str">
         <v>1</v>
@@ -494,39 +494,39 @@
         <v>0.0000</v>
       </c>
       <c r="J3" t="str">
-        <v>1439</v>
+        <v>664</v>
       </c>
       <c r="K3" t="str">
         <v>1.0000</v>
       </c>
       <c r="L3" t="str">
-        <v>35.5000</v>
+        <v>39.7000</v>
       </c>
       <c r="M3" t="str">
-        <v>7.1000</v>
+        <v>7.9400</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="4">
       <c r="A4" t="str">
-        <v>chatting036</v>
+        <v>chatting032</v>
       </c>
       <c r="B4" t="str">
-        <v>1648</v>
+        <v>1481</v>
       </c>
       <c r="C4" t="str">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D4" t="str">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E4" t="str">
-        <v>127</v>
+        <v>289</v>
       </c>
       <c r="F4" t="str">
-        <v>240</v>
+        <v>390</v>
       </c>
       <c r="G4" t="str">
-        <v>2578</v>
+        <v>2756</v>
       </c>
       <c r="H4" t="str">
         <v>2</v>
@@ -535,39 +535,39 @@
         <v>0.0000</v>
       </c>
       <c r="J4" t="str">
-        <v>975</v>
+        <v>1439</v>
       </c>
       <c r="K4" t="str">
         <v>1.0000</v>
       </c>
       <c r="L4" t="str">
-        <v>36.1000</v>
+        <v>35.0500</v>
       </c>
       <c r="M4" t="str">
-        <v>7.2200</v>
+        <v>7.0100</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="5">
       <c r="A5" t="str">
-        <v>chatting033</v>
+        <v>chatting05</v>
       </c>
       <c r="B5" t="str">
-        <v>1390</v>
+        <v>1173</v>
       </c>
       <c r="C5" t="str">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="D5" t="str">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E5" t="str">
-        <v>134</v>
+        <v>502</v>
       </c>
       <c r="F5" t="str">
-        <v>244</v>
+        <v>540</v>
       </c>
       <c r="G5" t="str">
-        <v>2378</v>
+        <v>2443</v>
       </c>
       <c r="H5" t="str">
         <v>3</v>
@@ -576,39 +576,39 @@
         <v>0.0000</v>
       </c>
       <c r="J5" t="str">
-        <v>588</v>
+        <v>1138</v>
       </c>
       <c r="K5" t="str">
         <v>1.0000</v>
       </c>
       <c r="L5" t="str">
-        <v>37.0000</v>
+        <v>13.3000</v>
       </c>
       <c r="M5" t="str">
-        <v>7.4000</v>
+        <v>2.6600</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="6">
       <c r="A6" t="str">
-        <v>chatting05</v>
+        <v>chatting031</v>
       </c>
       <c r="B6" t="str">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="C6" t="str">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D6" t="str">
         <v>3</v>
       </c>
       <c r="E6" t="str">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="F6" t="str">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="G6" t="str">
-        <v>2052</v>
+        <v>2012</v>
       </c>
       <c r="H6" t="str">
         <v>4</v>
@@ -617,39 +617,39 @@
         <v>0.0000</v>
       </c>
       <c r="J6" t="str">
-        <v>1298</v>
+        <v>490</v>
       </c>
       <c r="K6" t="str">
         <v>1.0000</v>
       </c>
       <c r="L6" t="str">
-        <v>20.2000</v>
+        <v>14.6000</v>
       </c>
       <c r="M6" t="str">
-        <v>4.0400</v>
+        <v>2.9200</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="7">
       <c r="A7" t="str">
-        <v>chatting032</v>
+        <v>chatting036</v>
       </c>
       <c r="B7" t="str">
-        <v>1155</v>
+        <v>1184</v>
       </c>
       <c r="C7" t="str">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D7" t="str">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E7" t="str">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F7" t="str">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="G7" t="str">
-        <v>2015</v>
+        <v>1972</v>
       </c>
       <c r="H7" t="str">
         <v>5</v>
@@ -658,39 +658,39 @@
         <v>0.0000</v>
       </c>
       <c r="J7" t="str">
-        <v>1439</v>
+        <v>690</v>
       </c>
       <c r="K7" t="str">
         <v>1.0000</v>
       </c>
       <c r="L7" t="str">
-        <v>28.6000</v>
+        <v>27.8000</v>
       </c>
       <c r="M7" t="str">
-        <v>5.7200</v>
+        <v>5.5600</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="8">
       <c r="A8" t="str">
-        <v>yaseregypt1</v>
+        <v>chatting035</v>
       </c>
       <c r="B8" t="str">
-        <v>983</v>
+        <v>867</v>
       </c>
       <c r="C8" t="str">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D8" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E8" t="str">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="F8" t="str">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="G8" t="str">
-        <v>1695</v>
+        <v>1572</v>
       </c>
       <c r="H8" t="str">
         <v>6</v>
@@ -699,39 +699,39 @@
         <v>0.0000</v>
       </c>
       <c r="J8" t="str">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="K8" t="str">
         <v>1.0000</v>
       </c>
       <c r="L8" t="str">
-        <v>29.6000</v>
+        <v>24.6500</v>
       </c>
       <c r="M8" t="str">
-        <v>5.9200</v>
+        <v>4.9300</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="9">
       <c r="A9" t="str">
-        <v>chatting031</v>
+        <v>chatting017</v>
       </c>
       <c r="B9" t="str">
-        <v>835</v>
+        <v>796</v>
       </c>
       <c r="C9" t="str">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D9" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" t="str">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="F9" t="str">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="G9" t="str">
-        <v>1277</v>
+        <v>1195</v>
       </c>
       <c r="H9" t="str">
         <v>7</v>
@@ -740,16 +740,16 @@
         <v>0.0000</v>
       </c>
       <c r="J9" t="str">
-        <v>470</v>
+        <v>171</v>
       </c>
       <c r="K9" t="str">
-        <v>1.0000</v>
+        <v>0.8500</v>
       </c>
       <c r="L9" t="str">
-        <v>14.6000</v>
+        <v>12.7925</v>
       </c>
       <c r="M9" t="str">
-        <v>2.9200</v>
+        <v>2.5585</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="10">
@@ -757,22 +757,22 @@
         <v>chatting02</v>
       </c>
       <c r="B10" t="str">
-        <v>701</v>
+        <v>391</v>
       </c>
       <c r="C10" t="str">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D10" t="str">
         <v>0</v>
       </c>
       <c r="E10" t="str">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F10" t="str">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="G10" t="str">
-        <v>1208</v>
+        <v>668</v>
       </c>
       <c r="H10" t="str">
         <v>8</v>
@@ -781,39 +781,39 @@
         <v>0.0000</v>
       </c>
       <c r="J10" t="str">
-        <v>480</v>
+        <v>369</v>
       </c>
       <c r="K10" t="str">
         <v>1.0000</v>
       </c>
       <c r="L10" t="str">
-        <v>19.9500</v>
+        <v>10.1500</v>
       </c>
       <c r="M10" t="str">
-        <v>3.9900</v>
+        <v>2.0300</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="11">
       <c r="A11" t="str">
-        <v>chatting035</v>
+        <v>yaseregypt1</v>
       </c>
       <c r="B11" t="str">
-        <v>442</v>
+        <v>374</v>
       </c>
       <c r="C11" t="str">
+        <v>24</v>
+      </c>
+      <c r="D11" t="str">
+        <v>4</v>
+      </c>
+      <c r="E11" t="str">
         <v>40</v>
       </c>
-      <c r="D11" t="str">
-        <v>3</v>
-      </c>
-      <c r="E11" t="str">
-        <v>39</v>
-      </c>
       <c r="F11" t="str">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="G11" t="str">
-        <v>806</v>
+        <v>630</v>
       </c>
       <c r="H11" t="str">
         <v>9</v>
@@ -822,39 +822,39 @@
         <v>0.0000</v>
       </c>
       <c r="J11" t="str">
-        <v>770</v>
+        <v>219</v>
       </c>
       <c r="K11" t="str">
         <v>1.0000</v>
       </c>
       <c r="L11" t="str">
-        <v>14.6000</v>
+        <v>9.2000</v>
       </c>
       <c r="M11" t="str">
-        <v>2.9200</v>
+        <v>1.8400</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="12">
       <c r="A12" t="str">
-        <v>chatting015</v>
+        <v>chatting040</v>
       </c>
       <c r="B12" t="str">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C12" t="str">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12" t="str">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" t="str">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F12" t="str">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G12" t="str">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="H12" t="str">
         <v>10</v>
@@ -863,39 +863,39 @@
         <v>0.0000</v>
       </c>
       <c r="J12" t="str">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="K12" t="str">
-        <v>0.8500</v>
+        <v>1.0000</v>
       </c>
       <c r="L12" t="str">
-        <v>7.0125</v>
+        <v>7.4000</v>
       </c>
       <c r="M12" t="str">
-        <v>1.4025</v>
+        <v>1.4800</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="13">
       <c r="A13" t="str">
-        <v>chatting07</v>
+        <v>chatting03</v>
       </c>
       <c r="B13" t="str">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="C13" t="str">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D13" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13" t="str">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F13" t="str">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G13" t="str">
-        <v>323</v>
+        <v>381</v>
       </c>
       <c r="H13" t="str">
         <v>11</v>
@@ -904,39 +904,39 @@
         <v>0.0000</v>
       </c>
       <c r="J13" t="str">
-        <v>99</v>
+        <v>234</v>
       </c>
       <c r="K13" t="str">
-        <v>0.5500</v>
+        <v>1.0000</v>
       </c>
       <c r="L13" t="str">
-        <v>1.4025</v>
+        <v>5.9500</v>
       </c>
       <c r="M13" t="str">
-        <v>0.2805</v>
+        <v>1.1900</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="14">
       <c r="A14" t="str">
-        <v>chatting018</v>
+        <v>chatting07</v>
       </c>
       <c r="B14" t="str">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C14" t="str">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D14" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" t="str">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F14" t="str">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="G14" t="str">
-        <v>259</v>
+        <v>341</v>
       </c>
       <c r="H14" t="str">
         <v>12</v>
@@ -945,39 +945,39 @@
         <v>0.0000</v>
       </c>
       <c r="J14" t="str">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="K14" t="str">
         <v>0.7000</v>
       </c>
       <c r="L14" t="str">
-        <v>1.7500</v>
+        <v>2.3800</v>
       </c>
       <c r="M14" t="str">
-        <v>0.3500</v>
+        <v>0.4760</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="15">
       <c r="A15" t="str">
-        <v>chatting06</v>
+        <v>yousefegypt1</v>
       </c>
       <c r="B15" t="str">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="C15" t="str">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D15" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15" t="str">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F15" t="str">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G15" t="str">
-        <v>213</v>
+        <v>315</v>
       </c>
       <c r="H15" t="str">
         <v>13</v>
@@ -986,39 +986,39 @@
         <v>0.0000</v>
       </c>
       <c r="J15" t="str">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="K15" t="str">
-        <v>0.5500</v>
+        <v>0.4000</v>
       </c>
       <c r="L15" t="str">
-        <v>0.9900</v>
+        <v>2.1000</v>
       </c>
       <c r="M15" t="str">
-        <v>0.1980</v>
+        <v>0.4200</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="16">
       <c r="A16" t="str">
-        <v>chatting039</v>
+        <v>chatting06</v>
       </c>
       <c r="B16" t="str">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C16" t="str">
         <v>7</v>
       </c>
       <c r="D16" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="str">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F16" t="str">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G16" t="str">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H16" t="str">
         <v>14</v>
@@ -1027,39 +1027,39 @@
         <v>0.0000</v>
       </c>
       <c r="J16" t="str">
-        <v>67</v>
+        <v>334</v>
       </c>
       <c r="K16" t="str">
-        <v>0.4000</v>
+        <v>1.0000</v>
       </c>
       <c r="L16" t="str">
-        <v>1.0600</v>
+        <v>2.4500</v>
       </c>
       <c r="M16" t="str">
-        <v>0.2120</v>
+        <v>0.4900</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="17">
       <c r="A17" t="str">
-        <v>chatting013</v>
+        <v>ahmedegypt1</v>
       </c>
       <c r="B17" t="str">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="C17" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D17" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E17" t="str">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F17" t="str">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G17" t="str">
-        <v>206</v>
+        <v>73</v>
       </c>
       <c r="H17" t="str">
         <v>15</v>
@@ -1068,39 +1068,39 @@
         <v>0.0000</v>
       </c>
       <c r="J17" t="str">
-        <v>994</v>
+        <v>198</v>
       </c>
       <c r="K17" t="str">
         <v>1.0000</v>
       </c>
       <c r="L17" t="str">
-        <v>2.2000</v>
+        <v>0.0000</v>
       </c>
       <c r="M17" t="str">
-        <v>0.4400</v>
+        <v>0.0000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="18">
       <c r="A18" t="str">
-        <v>chatting022</v>
+        <v>chatting014</v>
       </c>
       <c r="B18" t="str">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="C18" t="str">
+        <v>1</v>
+      </c>
+      <c r="D18" t="str">
+        <v>0</v>
+      </c>
+      <c r="E18" t="str">
         <v>5</v>
       </c>
-      <c r="D18" t="str">
-        <v>0</v>
-      </c>
-      <c r="E18" t="str">
+      <c r="F18" t="str">
         <v>6</v>
       </c>
-      <c r="F18" t="str">
-        <v>11</v>
-      </c>
       <c r="G18" t="str">
-        <v>193</v>
+        <v>67</v>
       </c>
       <c r="H18" t="str">
         <v>16</v>
@@ -1109,39 +1109,39 @@
         <v>0.0000</v>
       </c>
       <c r="J18" t="str">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="K18" t="str">
-        <v>0.5500</v>
+        <v>0.2500</v>
       </c>
       <c r="L18" t="str">
-        <v>0.9625</v>
+        <v>0.0875</v>
       </c>
       <c r="M18" t="str">
-        <v>0.1925</v>
+        <v>0.0175</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="19">
       <c r="A19" t="str">
-        <v>chatting038</v>
+        <v>chatting018</v>
       </c>
       <c r="B19" t="str">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="C19" t="str">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D19" t="str">
         <v>0</v>
       </c>
       <c r="E19" t="str">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F19" t="str">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G19" t="str">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="H19" t="str">
         <v>17</v>
@@ -1150,39 +1150,39 @@
         <v>0.0000</v>
       </c>
       <c r="J19" t="str">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="K19" t="str">
-        <v>0.4000</v>
+        <v>0.1000</v>
       </c>
       <c r="L19" t="str">
-        <v>1.1200</v>
+        <v>0.0000</v>
       </c>
       <c r="M19" t="str">
-        <v>0.2240</v>
+        <v>0.0000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="20">
       <c r="A20" t="str">
-        <v>chatting03</v>
+        <v>chatting012</v>
       </c>
       <c r="B20" t="str">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="str">
         <v>0</v>
       </c>
       <c r="E20" t="str">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F20" t="str">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G20" t="str">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H20" t="str">
         <v>18</v>
@@ -1191,39 +1191,39 @@
         <v>0.0000</v>
       </c>
       <c r="J20" t="str">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="K20" t="str">
         <v>0.1000</v>
       </c>
       <c r="L20" t="str">
-        <v>0.0700</v>
+        <v>0.0350</v>
       </c>
       <c r="M20" t="str">
-        <v>0.0140</v>
+        <v>0.0070</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="21">
       <c r="A21" t="str">
-        <v>chatting037</v>
+        <v>chatting011</v>
       </c>
       <c r="B21" t="str">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C21" t="str">
         <v>0</v>
       </c>
       <c r="D21" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F21" t="str">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G21" t="str">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H21" t="str">
         <v>19</v>
@@ -1232,15 +1232,138 @@
         <v>0.0000</v>
       </c>
       <c r="J21" t="str">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K21" t="str">
+        <v>0.2500</v>
+      </c>
+      <c r="L21" t="str">
+        <v>0.0500</v>
+      </c>
+      <c r="M21" t="str">
+        <v>0.0100</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="22">
+      <c r="A22" t="str">
+        <v>chatting013</v>
+      </c>
+      <c r="B22" t="str">
+        <v>28</v>
+      </c>
+      <c r="C22" t="str">
+        <v>0</v>
+      </c>
+      <c r="D22" t="str">
+        <v>1</v>
+      </c>
+      <c r="E22" t="str">
+        <v>3</v>
+      </c>
+      <c r="F22" t="str">
+        <v>4</v>
+      </c>
+      <c r="G22" t="str">
+        <v>36</v>
+      </c>
+      <c r="H22" t="str">
+        <v>20</v>
+      </c>
+      <c r="I22" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="J22" t="str">
+        <v>56</v>
+      </c>
+      <c r="K22" t="str">
+        <v>0.2500</v>
+      </c>
+      <c r="L22" t="str">
+        <v>0.0500</v>
+      </c>
+      <c r="M22" t="str">
+        <v>0.0100</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="23">
+      <c r="A23" t="str">
+        <v>chatting034</v>
+      </c>
+      <c r="B23" t="str">
+        <v>4</v>
+      </c>
+      <c r="C23" t="str">
+        <v>0</v>
+      </c>
+      <c r="D23" t="str">
+        <v>0</v>
+      </c>
+      <c r="E23" t="str">
+        <v>3</v>
+      </c>
+      <c r="F23" t="str">
+        <v>3</v>
+      </c>
+      <c r="G23" t="str">
+        <v>10</v>
+      </c>
+      <c r="H23" t="str">
+        <v>21</v>
+      </c>
+      <c r="I23" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="J23" t="str">
+        <v>7</v>
+      </c>
+      <c r="K23" t="str">
         <v>0.1000</v>
       </c>
-      <c r="L21" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="M21" t="str">
+      <c r="L23" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="M23" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="24">
+      <c r="A24" t="str">
+        <v>admin</v>
+      </c>
+      <c r="B24" t="str">
+        <v>2</v>
+      </c>
+      <c r="C24" t="str">
+        <v>0</v>
+      </c>
+      <c r="D24" t="str">
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
+        <v>2</v>
+      </c>
+      <c r="F24" t="str">
+        <v>2</v>
+      </c>
+      <c r="G24" t="str">
+        <v>6</v>
+      </c>
+      <c r="H24" t="str">
+        <v>22</v>
+      </c>
+      <c r="I24" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="J24" t="str">
+        <v>0</v>
+      </c>
+      <c r="K24" t="str">
+        <v>0.1000</v>
+      </c>
+      <c r="L24" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="M24" t="str">
         <v>0.0000</v>
       </c>
     </row>

--- a/陪聊数据统计.xlsx
+++ b/陪聊数据统计.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="20190616 08点-20190617 08点" sheetId="1" r:id="rId1"/>
+    <sheet name="20190617 08点-20190618 08点" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -467,25 +467,25 @@
     </row>
     <row customHeight="true" ht="28" r="3">
       <c r="A3" t="str">
-        <v>chatting033</v>
+        <v>chatting040</v>
       </c>
       <c r="B3" t="str">
-        <v>1690</v>
+        <v>682</v>
       </c>
       <c r="C3" t="str">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="D3" t="str">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E3" t="str">
-        <v>250</v>
+        <v>432</v>
       </c>
       <c r="F3" t="str">
-        <v>366</v>
+        <v>455</v>
       </c>
       <c r="G3" t="str">
-        <v>2972</v>
+        <v>1707</v>
       </c>
       <c r="H3" t="str">
         <v>1</v>
@@ -494,39 +494,39 @@
         <v>0.0000</v>
       </c>
       <c r="J3" t="str">
-        <v>664</v>
+        <v>587</v>
       </c>
       <c r="K3" t="str">
         <v>1.0000</v>
       </c>
       <c r="L3" t="str">
-        <v>39.7000</v>
+        <v>8.0500</v>
       </c>
       <c r="M3" t="str">
-        <v>7.9400</v>
+        <v>1.6100</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="4">
       <c r="A4" t="str">
-        <v>chatting032</v>
+        <v>chatting017</v>
       </c>
       <c r="B4" t="str">
-        <v>1481</v>
+        <v>1085</v>
       </c>
       <c r="C4" t="str">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="D4" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="str">
-        <v>289</v>
+        <v>142</v>
       </c>
       <c r="F4" t="str">
-        <v>390</v>
+        <v>186</v>
       </c>
       <c r="G4" t="str">
-        <v>2756</v>
+        <v>1672</v>
       </c>
       <c r="H4" t="str">
         <v>2</v>
@@ -535,24 +535,24 @@
         <v>0.0000</v>
       </c>
       <c r="J4" t="str">
-        <v>1439</v>
+        <v>944</v>
       </c>
       <c r="K4" t="str">
         <v>1.0000</v>
       </c>
       <c r="L4" t="str">
-        <v>35.0500</v>
+        <v>15.2500</v>
       </c>
       <c r="M4" t="str">
-        <v>7.0100</v>
+        <v>3.0500</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="5">
       <c r="A5" t="str">
-        <v>chatting05</v>
+        <v>chatting032</v>
       </c>
       <c r="B5" t="str">
-        <v>1173</v>
+        <v>600</v>
       </c>
       <c r="C5" t="str">
         <v>38</v>
@@ -561,13 +561,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="str">
-        <v>502</v>
+        <v>205</v>
       </c>
       <c r="F5" t="str">
-        <v>540</v>
+        <v>243</v>
       </c>
       <c r="G5" t="str">
-        <v>2443</v>
+        <v>1276</v>
       </c>
       <c r="H5" t="str">
         <v>3</v>
@@ -576,7 +576,7 @@
         <v>0.0000</v>
       </c>
       <c r="J5" t="str">
-        <v>1138</v>
+        <v>1084</v>
       </c>
       <c r="K5" t="str">
         <v>1.0000</v>
@@ -590,25 +590,25 @@
     </row>
     <row customHeight="true" ht="28" r="6">
       <c r="A6" t="str">
-        <v>chatting031</v>
+        <v>chatting036</v>
       </c>
       <c r="B6" t="str">
-        <v>1146</v>
+        <v>452</v>
       </c>
       <c r="C6" t="str">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D6" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" t="str">
-        <v>290</v>
+        <v>355</v>
       </c>
       <c r="F6" t="str">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="G6" t="str">
-        <v>2012</v>
+        <v>1190</v>
       </c>
       <c r="H6" t="str">
         <v>4</v>
@@ -617,39 +617,39 @@
         <v>0.0000</v>
       </c>
       <c r="J6" t="str">
-        <v>490</v>
+        <v>577</v>
       </c>
       <c r="K6" t="str">
         <v>1.0000</v>
       </c>
       <c r="L6" t="str">
-        <v>14.6000</v>
+        <v>1.4000</v>
       </c>
       <c r="M6" t="str">
-        <v>2.9200</v>
+        <v>0.2800</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="7">
       <c r="A7" t="str">
-        <v>chatting036</v>
+        <v>chatting031</v>
       </c>
       <c r="B7" t="str">
-        <v>1184</v>
+        <v>315</v>
       </c>
       <c r="C7" t="str">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D7" t="str">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E7" t="str">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="F7" t="str">
-        <v>214</v>
+        <v>59</v>
       </c>
       <c r="G7" t="str">
-        <v>1972</v>
+        <v>478</v>
       </c>
       <c r="H7" t="str">
         <v>5</v>
@@ -658,39 +658,39 @@
         <v>0.0000</v>
       </c>
       <c r="J7" t="str">
-        <v>690</v>
+        <v>759</v>
       </c>
       <c r="K7" t="str">
         <v>1.0000</v>
       </c>
       <c r="L7" t="str">
-        <v>27.8000</v>
+        <v>4.1500</v>
       </c>
       <c r="M7" t="str">
-        <v>5.5600</v>
+        <v>0.8300</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="8">
       <c r="A8" t="str">
-        <v>chatting035</v>
+        <v>yaseregypt1</v>
       </c>
       <c r="B8" t="str">
-        <v>867</v>
+        <v>98</v>
       </c>
       <c r="C8" t="str">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="D8" t="str">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E8" t="str">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="F8" t="str">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="G8" t="str">
-        <v>1572</v>
+        <v>271</v>
       </c>
       <c r="H8" t="str">
         <v>6</v>
@@ -699,39 +699,39 @@
         <v>0.0000</v>
       </c>
       <c r="J8" t="str">
-        <v>372</v>
+        <v>295</v>
       </c>
       <c r="K8" t="str">
         <v>1.0000</v>
       </c>
       <c r="L8" t="str">
-        <v>24.6500</v>
+        <v>0.3500</v>
       </c>
       <c r="M8" t="str">
-        <v>4.9300</v>
+        <v>0.0700</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="9">
       <c r="A9" t="str">
-        <v>chatting017</v>
+        <v>chatting033</v>
       </c>
       <c r="B9" t="str">
-        <v>796</v>
+        <v>93</v>
       </c>
       <c r="C9" t="str">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="D9" t="str">
         <v>0</v>
       </c>
       <c r="E9" t="str">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="F9" t="str">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G9" t="str">
-        <v>1195</v>
+        <v>267</v>
       </c>
       <c r="H9" t="str">
         <v>7</v>
@@ -740,39 +740,39 @@
         <v>0.0000</v>
       </c>
       <c r="J9" t="str">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="K9" t="str">
-        <v>0.8500</v>
+        <v>1.0000</v>
       </c>
       <c r="L9" t="str">
-        <v>12.7925</v>
+        <v>0.0000</v>
       </c>
       <c r="M9" t="str">
-        <v>2.5585</v>
+        <v>0.0000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="10">
       <c r="A10" t="str">
-        <v>chatting02</v>
+        <v>chatting035</v>
       </c>
       <c r="B10" t="str">
-        <v>391</v>
+        <v>87</v>
       </c>
       <c r="C10" t="str">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D10" t="str">
         <v>0</v>
       </c>
       <c r="E10" t="str">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="F10" t="str">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="G10" t="str">
-        <v>668</v>
+        <v>255</v>
       </c>
       <c r="H10" t="str">
         <v>8</v>
@@ -781,39 +781,39 @@
         <v>0.0000</v>
       </c>
       <c r="J10" t="str">
-        <v>369</v>
+        <v>270</v>
       </c>
       <c r="K10" t="str">
         <v>1.0000</v>
       </c>
       <c r="L10" t="str">
-        <v>10.1500</v>
+        <v>0.0000</v>
       </c>
       <c r="M10" t="str">
-        <v>2.0300</v>
+        <v>0.0000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="11">
       <c r="A11" t="str">
-        <v>yaseregypt1</v>
+        <v>chatting018</v>
       </c>
       <c r="B11" t="str">
-        <v>374</v>
+        <v>139</v>
       </c>
       <c r="C11" t="str">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D11" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E11" t="str">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F11" t="str">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="G11" t="str">
-        <v>630</v>
+        <v>224</v>
       </c>
       <c r="H11" t="str">
         <v>9</v>
@@ -822,39 +822,39 @@
         <v>0.0000</v>
       </c>
       <c r="J11" t="str">
-        <v>219</v>
+        <v>62</v>
       </c>
       <c r="K11" t="str">
-        <v>1.0000</v>
+        <v>0.4000</v>
       </c>
       <c r="L11" t="str">
-        <v>9.2000</v>
+        <v>1.2600</v>
       </c>
       <c r="M11" t="str">
-        <v>1.8400</v>
+        <v>0.2520</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="12">
       <c r="A12" t="str">
-        <v>chatting040</v>
+        <v>chatting05</v>
       </c>
       <c r="B12" t="str">
-        <v>356</v>
+        <v>74</v>
       </c>
       <c r="C12" t="str">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D12" t="str">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E12" t="str">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="F12" t="str">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G12" t="str">
-        <v>566</v>
+        <v>218</v>
       </c>
       <c r="H12" t="str">
         <v>10</v>
@@ -863,39 +863,39 @@
         <v>0.0000</v>
       </c>
       <c r="J12" t="str">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="K12" t="str">
         <v>1.0000</v>
       </c>
       <c r="L12" t="str">
-        <v>7.4000</v>
+        <v>0.0000</v>
       </c>
       <c r="M12" t="str">
-        <v>1.4800</v>
+        <v>0.0000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="13">
       <c r="A13" t="str">
-        <v>chatting03</v>
+        <v>chatting06</v>
       </c>
       <c r="B13" t="str">
-        <v>222</v>
+        <v>51</v>
       </c>
       <c r="C13" t="str">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D13" t="str">
         <v>0</v>
       </c>
       <c r="E13" t="str">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="F13" t="str">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G13" t="str">
-        <v>381</v>
+        <v>149</v>
       </c>
       <c r="H13" t="str">
         <v>11</v>
@@ -904,39 +904,39 @@
         <v>0.0000</v>
       </c>
       <c r="J13" t="str">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K13" t="str">
         <v>1.0000</v>
       </c>
       <c r="L13" t="str">
-        <v>5.9500</v>
+        <v>0.0000</v>
       </c>
       <c r="M13" t="str">
-        <v>1.1900</v>
+        <v>0.0000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="14">
       <c r="A14" t="str">
-        <v>chatting07</v>
+        <v>chatting022</v>
       </c>
       <c r="B14" t="str">
-        <v>185</v>
+        <v>42</v>
       </c>
       <c r="C14" t="str">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D14" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14" t="str">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F14" t="str">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="G14" t="str">
-        <v>341</v>
+        <v>120</v>
       </c>
       <c r="H14" t="str">
         <v>12</v>
@@ -945,39 +945,39 @@
         <v>0.0000</v>
       </c>
       <c r="J14" t="str">
-        <v>132</v>
+        <v>566</v>
       </c>
       <c r="K14" t="str">
-        <v>0.7000</v>
+        <v>1.0000</v>
       </c>
       <c r="L14" t="str">
-        <v>2.3800</v>
+        <v>0.0000</v>
       </c>
       <c r="M14" t="str">
-        <v>0.4760</v>
+        <v>0.0000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="15">
       <c r="A15" t="str">
-        <v>yousefegypt1</v>
+        <v>chatting04</v>
       </c>
       <c r="B15" t="str">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="C15" t="str">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D15" t="str">
         <v>0</v>
       </c>
       <c r="E15" t="str">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15" t="str">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G15" t="str">
-        <v>315</v>
+        <v>60</v>
       </c>
       <c r="H15" t="str">
         <v>13</v>
@@ -986,39 +986,39 @@
         <v>0.0000</v>
       </c>
       <c r="J15" t="str">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="K15" t="str">
-        <v>0.4000</v>
+        <v>0.1000</v>
       </c>
       <c r="L15" t="str">
-        <v>2.1000</v>
+        <v>0.0000</v>
       </c>
       <c r="M15" t="str">
-        <v>0.4200</v>
+        <v>0.0000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="16">
       <c r="A16" t="str">
-        <v>chatting06</v>
+        <v>chatting07</v>
       </c>
       <c r="B16" t="str">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="C16" t="str">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D16" t="str">
         <v>0</v>
       </c>
       <c r="E16" t="str">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F16" t="str">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G16" t="str">
-        <v>215</v>
+        <v>58</v>
       </c>
       <c r="H16" t="str">
         <v>14</v>
@@ -1027,24 +1027,24 @@
         <v>0.0000</v>
       </c>
       <c r="J16" t="str">
-        <v>334</v>
+        <v>5</v>
       </c>
       <c r="K16" t="str">
-        <v>1.0000</v>
+        <v>0.1000</v>
       </c>
       <c r="L16" t="str">
-        <v>2.4500</v>
+        <v>0.0000</v>
       </c>
       <c r="M16" t="str">
-        <v>0.4900</v>
+        <v>0.0000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="17">
       <c r="A17" t="str">
-        <v>ahmedegypt1</v>
+        <v>chatting021</v>
       </c>
       <c r="B17" t="str">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C17" t="str">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="str">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F17" t="str">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G17" t="str">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="H17" t="str">
         <v>15</v>
@@ -1068,10 +1068,10 @@
         <v>0.0000</v>
       </c>
       <c r="J17" t="str">
-        <v>198</v>
+        <v>68</v>
       </c>
       <c r="K17" t="str">
-        <v>1.0000</v>
+        <v>0.4000</v>
       </c>
       <c r="L17" t="str">
         <v>0.0000</v>
@@ -1082,25 +1082,25 @@
     </row>
     <row customHeight="true" ht="28" r="18">
       <c r="A18" t="str">
-        <v>chatting014</v>
+        <v>chatting015</v>
       </c>
       <c r="B18" t="str">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C18" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="str">
         <v>0</v>
       </c>
       <c r="E18" t="str">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F18" t="str">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G18" t="str">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="H18" t="str">
         <v>16</v>
@@ -1109,24 +1109,24 @@
         <v>0.0000</v>
       </c>
       <c r="J18" t="str">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K18" t="str">
         <v>0.2500</v>
       </c>
       <c r="L18" t="str">
-        <v>0.0875</v>
+        <v>0.0000</v>
       </c>
       <c r="M18" t="str">
-        <v>0.0175</v>
+        <v>0.0000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="19">
       <c r="A19" t="str">
-        <v>chatting018</v>
+        <v>mohammedegypt1</v>
       </c>
       <c r="B19" t="str">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C19" t="str">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="str">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F19" t="str">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G19" t="str">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="H19" t="str">
         <v>17</v>
@@ -1150,7 +1150,7 @@
         <v>0.0000</v>
       </c>
       <c r="J19" t="str">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="K19" t="str">
         <v>0.1000</v>
@@ -1164,25 +1164,25 @@
     </row>
     <row customHeight="true" ht="28" r="20">
       <c r="A20" t="str">
-        <v>chatting012</v>
+        <v>chatting02</v>
       </c>
       <c r="B20" t="str">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C20" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="str">
         <v>0</v>
       </c>
       <c r="E20" t="str">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F20" t="str">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G20" t="str">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="H20" t="str">
         <v>18</v>
@@ -1191,39 +1191,39 @@
         <v>0.0000</v>
       </c>
       <c r="J20" t="str">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="K20" t="str">
         <v>0.1000</v>
       </c>
       <c r="L20" t="str">
-        <v>0.0350</v>
+        <v>0.0000</v>
       </c>
       <c r="M20" t="str">
-        <v>0.0070</v>
+        <v>0.0000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="21">
       <c r="A21" t="str">
-        <v>chatting011</v>
+        <v>abodullaegypt1</v>
       </c>
       <c r="B21" t="str">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C21" t="str">
         <v>0</v>
       </c>
       <c r="D21" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="str">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F21" t="str">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G21" t="str">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="H21" t="str">
         <v>19</v>
@@ -1232,138 +1232,15 @@
         <v>0.0000</v>
       </c>
       <c r="J21" t="str">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="K21" t="str">
-        <v>0.2500</v>
+        <v>0.1000</v>
       </c>
       <c r="L21" t="str">
-        <v>0.0500</v>
+        <v>0.0000</v>
       </c>
       <c r="M21" t="str">
-        <v>0.0100</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="22">
-      <c r="A22" t="str">
-        <v>chatting013</v>
-      </c>
-      <c r="B22" t="str">
-        <v>28</v>
-      </c>
-      <c r="C22" t="str">
-        <v>0</v>
-      </c>
-      <c r="D22" t="str">
-        <v>1</v>
-      </c>
-      <c r="E22" t="str">
-        <v>3</v>
-      </c>
-      <c r="F22" t="str">
-        <v>4</v>
-      </c>
-      <c r="G22" t="str">
-        <v>36</v>
-      </c>
-      <c r="H22" t="str">
-        <v>20</v>
-      </c>
-      <c r="I22" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="J22" t="str">
-        <v>56</v>
-      </c>
-      <c r="K22" t="str">
-        <v>0.2500</v>
-      </c>
-      <c r="L22" t="str">
-        <v>0.0500</v>
-      </c>
-      <c r="M22" t="str">
-        <v>0.0100</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="23">
-      <c r="A23" t="str">
-        <v>chatting034</v>
-      </c>
-      <c r="B23" t="str">
-        <v>4</v>
-      </c>
-      <c r="C23" t="str">
-        <v>0</v>
-      </c>
-      <c r="D23" t="str">
-        <v>0</v>
-      </c>
-      <c r="E23" t="str">
-        <v>3</v>
-      </c>
-      <c r="F23" t="str">
-        <v>3</v>
-      </c>
-      <c r="G23" t="str">
-        <v>10</v>
-      </c>
-      <c r="H23" t="str">
-        <v>21</v>
-      </c>
-      <c r="I23" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="J23" t="str">
-        <v>7</v>
-      </c>
-      <c r="K23" t="str">
-        <v>0.1000</v>
-      </c>
-      <c r="L23" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="M23" t="str">
-        <v>0.0000</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="24">
-      <c r="A24" t="str">
-        <v>admin</v>
-      </c>
-      <c r="B24" t="str">
-        <v>2</v>
-      </c>
-      <c r="C24" t="str">
-        <v>0</v>
-      </c>
-      <c r="D24" t="str">
-        <v>0</v>
-      </c>
-      <c r="E24" t="str">
-        <v>2</v>
-      </c>
-      <c r="F24" t="str">
-        <v>2</v>
-      </c>
-      <c r="G24" t="str">
-        <v>6</v>
-      </c>
-      <c r="H24" t="str">
-        <v>22</v>
-      </c>
-      <c r="I24" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="J24" t="str">
-        <v>0</v>
-      </c>
-      <c r="K24" t="str">
-        <v>0.1000</v>
-      </c>
-      <c r="L24" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="M24" t="str">
         <v>0.0000</v>
       </c>
     </row>

--- a/陪聊数据统计.xlsx
+++ b/陪聊数据统计.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="20190617 08点-20190618 08点" sheetId="1" r:id="rId1"/>
+    <sheet name="20190617 05点-20190618 05点" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>

--- a/陪聊数据统计.xlsx
+++ b/陪聊数据统计.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="20190617 05点-20190618 05点" sheetId="1" r:id="rId1"/>
+    <sheet name="20190623 05点-20190624 05点" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -467,25 +467,25 @@
     </row>
     <row customHeight="true" ht="28" r="3">
       <c r="A3" t="str">
-        <v>chatting040</v>
+        <v>chatting017</v>
       </c>
       <c r="B3" t="str">
-        <v>682</v>
+        <v>2357</v>
       </c>
       <c r="C3" t="str">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="D3" t="str">
         <v>0</v>
       </c>
       <c r="E3" t="str">
-        <v>432</v>
+        <v>803</v>
       </c>
       <c r="F3" t="str">
-        <v>455</v>
+        <v>882</v>
       </c>
       <c r="G3" t="str">
-        <v>1707</v>
+        <v>4516</v>
       </c>
       <c r="H3" t="str">
         <v>1</v>
@@ -494,39 +494,39 @@
         <v>0.0000</v>
       </c>
       <c r="J3" t="str">
-        <v>587</v>
+        <v>551</v>
       </c>
       <c r="K3" t="str">
         <v>1.0000</v>
       </c>
       <c r="L3" t="str">
-        <v>8.0500</v>
+        <v>17.3800</v>
       </c>
       <c r="M3" t="str">
-        <v>1.6100</v>
+        <v>3.4760</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="4">
       <c r="A4" t="str">
-        <v>chatting017</v>
+        <v>chatting033</v>
       </c>
       <c r="B4" t="str">
-        <v>1085</v>
+        <v>1712</v>
       </c>
       <c r="C4" t="str">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="D4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="str">
-        <v>142</v>
+        <v>579</v>
       </c>
       <c r="F4" t="str">
-        <v>186</v>
+        <v>669</v>
       </c>
       <c r="G4" t="str">
-        <v>1672</v>
+        <v>3500</v>
       </c>
       <c r="H4" t="str">
         <v>2</v>
@@ -535,16 +535,16 @@
         <v>0.0000</v>
       </c>
       <c r="J4" t="str">
-        <v>944</v>
+        <v>591</v>
       </c>
       <c r="K4" t="str">
         <v>1.0000</v>
       </c>
       <c r="L4" t="str">
-        <v>15.2500</v>
+        <v>19.8000</v>
       </c>
       <c r="M4" t="str">
-        <v>3.0500</v>
+        <v>3.9600</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="5">
@@ -552,22 +552,22 @@
         <v>chatting032</v>
       </c>
       <c r="B5" t="str">
-        <v>600</v>
+        <v>1529</v>
       </c>
       <c r="C5" t="str">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="D5" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="str">
-        <v>205</v>
+        <v>559</v>
       </c>
       <c r="F5" t="str">
-        <v>243</v>
+        <v>642</v>
       </c>
       <c r="G5" t="str">
-        <v>1276</v>
+        <v>3223</v>
       </c>
       <c r="H5" t="str">
         <v>3</v>
@@ -576,39 +576,39 @@
         <v>0.0000</v>
       </c>
       <c r="J5" t="str">
-        <v>1084</v>
+        <v>1432</v>
       </c>
       <c r="K5" t="str">
         <v>1.0000</v>
       </c>
       <c r="L5" t="str">
-        <v>13.3000</v>
+        <v>18.2200</v>
       </c>
       <c r="M5" t="str">
-        <v>2.6600</v>
+        <v>3.6440</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="6">
       <c r="A6" t="str">
-        <v>chatting036</v>
+        <v>chatting031</v>
       </c>
       <c r="B6" t="str">
-        <v>452</v>
+        <v>1519</v>
       </c>
       <c r="C6" t="str">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="D6" t="str">
         <v>0</v>
       </c>
       <c r="E6" t="str">
-        <v>355</v>
+        <v>444</v>
       </c>
       <c r="F6" t="str">
-        <v>359</v>
+        <v>506</v>
       </c>
       <c r="G6" t="str">
-        <v>1190</v>
+        <v>2841</v>
       </c>
       <c r="H6" t="str">
         <v>4</v>
@@ -617,39 +617,39 @@
         <v>0.0000</v>
       </c>
       <c r="J6" t="str">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="K6" t="str">
         <v>1.0000</v>
       </c>
       <c r="L6" t="str">
-        <v>1.4000</v>
+        <v>13.6400</v>
       </c>
       <c r="M6" t="str">
-        <v>0.2800</v>
+        <v>2.7280</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="7">
       <c r="A7" t="str">
-        <v>chatting031</v>
+        <v>chatting034</v>
       </c>
       <c r="B7" t="str">
-        <v>315</v>
+        <v>859</v>
       </c>
       <c r="C7" t="str">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D7" t="str">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="str">
-        <v>45</v>
+        <v>342</v>
       </c>
       <c r="F7" t="str">
-        <v>59</v>
+        <v>376</v>
       </c>
       <c r="G7" t="str">
-        <v>478</v>
+        <v>1781</v>
       </c>
       <c r="H7" t="str">
         <v>5</v>
@@ -658,39 +658,39 @@
         <v>0.0000</v>
       </c>
       <c r="J7" t="str">
-        <v>759</v>
+        <v>1057</v>
       </c>
       <c r="K7" t="str">
         <v>1.0000</v>
       </c>
       <c r="L7" t="str">
-        <v>4.1500</v>
+        <v>7.4800</v>
       </c>
       <c r="M7" t="str">
-        <v>0.8300</v>
+        <v>1.4960</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="8">
       <c r="A8" t="str">
-        <v>yaseregypt1</v>
+        <v>chatting07</v>
       </c>
       <c r="B8" t="str">
-        <v>98</v>
+        <v>791</v>
       </c>
       <c r="C8" t="str">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D8" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="str">
-        <v>83</v>
+        <v>320</v>
       </c>
       <c r="F8" t="str">
-        <v>84</v>
+        <v>360</v>
       </c>
       <c r="G8" t="str">
-        <v>271</v>
+        <v>1706</v>
       </c>
       <c r="H8" t="str">
         <v>6</v>
@@ -699,39 +699,39 @@
         <v>0.0000</v>
       </c>
       <c r="J8" t="str">
-        <v>295</v>
+        <v>678</v>
       </c>
       <c r="K8" t="str">
         <v>1.0000</v>
       </c>
       <c r="L8" t="str">
-        <v>0.3500</v>
+        <v>8.7600</v>
       </c>
       <c r="M8" t="str">
-        <v>0.0700</v>
+        <v>1.7520</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="9">
       <c r="A9" t="str">
-        <v>chatting033</v>
+        <v>chatting035</v>
       </c>
       <c r="B9" t="str">
-        <v>93</v>
+        <v>907</v>
       </c>
       <c r="C9" t="str">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D9" t="str">
         <v>0</v>
       </c>
       <c r="E9" t="str">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="F9" t="str">
-        <v>87</v>
+        <v>194</v>
       </c>
       <c r="G9" t="str">
-        <v>267</v>
+        <v>1690</v>
       </c>
       <c r="H9" t="str">
         <v>7</v>
@@ -740,39 +740,39 @@
         <v>0.0000</v>
       </c>
       <c r="J9" t="str">
-        <v>200</v>
+        <v>1439</v>
       </c>
       <c r="K9" t="str">
         <v>1.0000</v>
       </c>
       <c r="L9" t="str">
-        <v>0.0000</v>
+        <v>17.3800</v>
       </c>
       <c r="M9" t="str">
-        <v>0.0000</v>
+        <v>3.4760</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="10">
       <c r="A10" t="str">
-        <v>chatting035</v>
+        <v>abodullaegypt1</v>
       </c>
       <c r="B10" t="str">
-        <v>87</v>
+        <v>752</v>
       </c>
       <c r="C10" t="str">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D10" t="str">
         <v>0</v>
       </c>
       <c r="E10" t="str">
-        <v>84</v>
+        <v>250</v>
       </c>
       <c r="F10" t="str">
-        <v>84</v>
+        <v>289</v>
       </c>
       <c r="G10" t="str">
-        <v>255</v>
+        <v>1525</v>
       </c>
       <c r="H10" t="str">
         <v>8</v>
@@ -781,39 +781,39 @@
         <v>0.0000</v>
       </c>
       <c r="J10" t="str">
-        <v>270</v>
+        <v>1165</v>
       </c>
       <c r="K10" t="str">
         <v>1.0000</v>
       </c>
       <c r="L10" t="str">
-        <v>0.0000</v>
+        <v>8.5800</v>
       </c>
       <c r="M10" t="str">
-        <v>0.0000</v>
+        <v>1.7160</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="11">
       <c r="A11" t="str">
-        <v>chatting018</v>
+        <v>chatting036</v>
       </c>
       <c r="B11" t="str">
-        <v>139</v>
+        <v>628</v>
       </c>
       <c r="C11" t="str">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D11" t="str">
         <v>0</v>
       </c>
       <c r="E11" t="str">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="F11" t="str">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="G11" t="str">
-        <v>224</v>
+        <v>1217</v>
       </c>
       <c r="H11" t="str">
         <v>9</v>
@@ -822,39 +822,39 @@
         <v>0.0000</v>
       </c>
       <c r="J11" t="str">
-        <v>62</v>
+        <v>387</v>
       </c>
       <c r="K11" t="str">
-        <v>0.4000</v>
+        <v>1.0000</v>
       </c>
       <c r="L11" t="str">
-        <v>1.2600</v>
+        <v>8.5800</v>
       </c>
       <c r="M11" t="str">
-        <v>0.2520</v>
+        <v>1.7160</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="12">
       <c r="A12" t="str">
-        <v>chatting05</v>
+        <v>yaseregypt1</v>
       </c>
       <c r="B12" t="str">
-        <v>74</v>
+        <v>423</v>
       </c>
       <c r="C12" t="str">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D12" t="str">
         <v>0</v>
       </c>
       <c r="E12" t="str">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="F12" t="str">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="G12" t="str">
-        <v>218</v>
+        <v>815</v>
       </c>
       <c r="H12" t="str">
         <v>10</v>
@@ -863,39 +863,39 @@
         <v>0.0000</v>
       </c>
       <c r="J12" t="str">
-        <v>237</v>
+        <v>802</v>
       </c>
       <c r="K12" t="str">
         <v>1.0000</v>
       </c>
       <c r="L12" t="str">
-        <v>0.0000</v>
+        <v>5.7200</v>
       </c>
       <c r="M12" t="str">
-        <v>0.0000</v>
+        <v>1.1440</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="13">
       <c r="A13" t="str">
-        <v>chatting06</v>
+        <v>chatting022</v>
       </c>
       <c r="B13" t="str">
-        <v>51</v>
+        <v>348</v>
       </c>
       <c r="C13" t="str">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D13" t="str">
         <v>0</v>
       </c>
       <c r="E13" t="str">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="F13" t="str">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="G13" t="str">
-        <v>149</v>
+        <v>740</v>
       </c>
       <c r="H13" t="str">
         <v>11</v>
@@ -904,39 +904,39 @@
         <v>0.0000</v>
       </c>
       <c r="J13" t="str">
-        <v>231</v>
+        <v>135</v>
       </c>
       <c r="K13" t="str">
-        <v>1.0000</v>
+        <v>0.7000</v>
       </c>
       <c r="L13" t="str">
-        <v>0.0000</v>
+        <v>2.4640</v>
       </c>
       <c r="M13" t="str">
-        <v>0.0000</v>
+        <v>0.4928</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="14">
       <c r="A14" t="str">
-        <v>chatting022</v>
+        <v>rashadegypt1</v>
       </c>
       <c r="B14" t="str">
-        <v>42</v>
+        <v>428</v>
       </c>
       <c r="C14" t="str">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D14" t="str">
         <v>0</v>
       </c>
       <c r="E14" t="str">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="F14" t="str">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="G14" t="str">
-        <v>120</v>
+        <v>717</v>
       </c>
       <c r="H14" t="str">
         <v>12</v>
@@ -945,39 +945,39 @@
         <v>0.0000</v>
       </c>
       <c r="J14" t="str">
-        <v>566</v>
+        <v>879</v>
       </c>
       <c r="K14" t="str">
         <v>1.0000</v>
       </c>
       <c r="L14" t="str">
-        <v>0.0000</v>
+        <v>5.0600</v>
       </c>
       <c r="M14" t="str">
-        <v>0.0000</v>
+        <v>1.0120</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="15">
       <c r="A15" t="str">
-        <v>chatting04</v>
+        <v>APP010</v>
       </c>
       <c r="B15" t="str">
-        <v>20</v>
+        <v>366</v>
       </c>
       <c r="C15" t="str">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D15" t="str">
         <v>0</v>
       </c>
       <c r="E15" t="str">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="F15" t="str">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="G15" t="str">
-        <v>60</v>
+        <v>715</v>
       </c>
       <c r="H15" t="str">
         <v>13</v>
@@ -986,39 +986,39 @@
         <v>0.0000</v>
       </c>
       <c r="J15" t="str">
-        <v>6</v>
+        <v>238</v>
       </c>
       <c r="K15" t="str">
-        <v>0.1000</v>
+        <v>1.0000</v>
       </c>
       <c r="L15" t="str">
-        <v>0.0000</v>
+        <v>1.5400</v>
       </c>
       <c r="M15" t="str">
-        <v>0.0000</v>
+        <v>0.3080</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="16">
       <c r="A16" t="str">
-        <v>chatting07</v>
+        <v>chatting013</v>
       </c>
       <c r="B16" t="str">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="C16" t="str">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D16" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="str">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="F16" t="str">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="G16" t="str">
-        <v>58</v>
+        <v>690</v>
       </c>
       <c r="H16" t="str">
         <v>14</v>
@@ -1027,39 +1027,39 @@
         <v>0.0000</v>
       </c>
       <c r="J16" t="str">
-        <v>5</v>
+        <v>704</v>
       </c>
       <c r="K16" t="str">
-        <v>0.1000</v>
+        <v>1.0000</v>
       </c>
       <c r="L16" t="str">
-        <v>0.0000</v>
+        <v>3.9200</v>
       </c>
       <c r="M16" t="str">
-        <v>0.0000</v>
+        <v>0.7840</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="17">
       <c r="A17" t="str">
-        <v>chatting021</v>
+        <v>chatting10</v>
       </c>
       <c r="B17" t="str">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="C17" t="str">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D17" t="str">
         <v>0</v>
       </c>
       <c r="E17" t="str">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="F17" t="str">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="G17" t="str">
-        <v>51</v>
+        <v>334</v>
       </c>
       <c r="H17" t="str">
         <v>15</v>
@@ -1068,39 +1068,39 @@
         <v>0.0000</v>
       </c>
       <c r="J17" t="str">
-        <v>68</v>
+        <v>716</v>
       </c>
       <c r="K17" t="str">
-        <v>0.4000</v>
+        <v>1.0000</v>
       </c>
       <c r="L17" t="str">
-        <v>0.0000</v>
+        <v>1.1000</v>
       </c>
       <c r="M17" t="str">
-        <v>0.0000</v>
+        <v>0.2200</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="18">
       <c r="A18" t="str">
-        <v>chatting015</v>
+        <v>chatting021</v>
       </c>
       <c r="B18" t="str">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="C18" t="str">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D18" t="str">
         <v>0</v>
       </c>
       <c r="E18" t="str">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="F18" t="str">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="G18" t="str">
-        <v>44</v>
+        <v>324</v>
       </c>
       <c r="H18" t="str">
         <v>16</v>
@@ -1109,39 +1109,39 @@
         <v>0.0000</v>
       </c>
       <c r="J18" t="str">
-        <v>48</v>
+        <v>722</v>
       </c>
       <c r="K18" t="str">
-        <v>0.2500</v>
+        <v>1.0000</v>
       </c>
       <c r="L18" t="str">
-        <v>0.0000</v>
+        <v>1.1000</v>
       </c>
       <c r="M18" t="str">
-        <v>0.0000</v>
+        <v>0.2200</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="19">
       <c r="A19" t="str">
-        <v>mohammedegypt1</v>
+        <v>chatting037</v>
       </c>
       <c r="B19" t="str">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="C19" t="str">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D19" t="str">
         <v>0</v>
       </c>
       <c r="E19" t="str">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F19" t="str">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="G19" t="str">
-        <v>39</v>
+        <v>315</v>
       </c>
       <c r="H19" t="str">
         <v>17</v>
@@ -1150,39 +1150,39 @@
         <v>0.0000</v>
       </c>
       <c r="J19" t="str">
-        <v>8</v>
+        <v>536</v>
       </c>
       <c r="K19" t="str">
-        <v>0.1000</v>
+        <v>1.0000</v>
       </c>
       <c r="L19" t="str">
-        <v>0.0000</v>
+        <v>1.7600</v>
       </c>
       <c r="M19" t="str">
-        <v>0.0000</v>
+        <v>0.3520</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="20">
       <c r="A20" t="str">
-        <v>chatting02</v>
+        <v>chatting05</v>
       </c>
       <c r="B20" t="str">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="C20" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20" t="str">
         <v>0</v>
       </c>
       <c r="E20" t="str">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="F20" t="str">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="G20" t="str">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c r="H20" t="str">
         <v>18</v>
@@ -1191,39 +1191,39 @@
         <v>0.0000</v>
       </c>
       <c r="J20" t="str">
-        <v>5</v>
+        <v>529</v>
       </c>
       <c r="K20" t="str">
-        <v>0.1000</v>
+        <v>1.0000</v>
       </c>
       <c r="L20" t="str">
-        <v>0.0000</v>
+        <v>0.6600</v>
       </c>
       <c r="M20" t="str">
-        <v>0.0000</v>
+        <v>0.1320</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="21">
       <c r="A21" t="str">
-        <v>abodullaegypt1</v>
+        <v>chatting015</v>
       </c>
       <c r="B21" t="str">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="C21" t="str">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D21" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="str">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="F21" t="str">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="G21" t="str">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="H21" t="str">
         <v>19</v>
@@ -1232,16 +1232,426 @@
         <v>0.0000</v>
       </c>
       <c r="J21" t="str">
+        <v>599</v>
+      </c>
+      <c r="K21" t="str">
+        <v>1.0000</v>
+      </c>
+      <c r="L21" t="str">
+        <v>1.9400</v>
+      </c>
+      <c r="M21" t="str">
+        <v>0.3880</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="22">
+      <c r="A22" t="str">
+        <v>chatting040</v>
+      </c>
+      <c r="B22" t="str">
+        <v>56</v>
+      </c>
+      <c r="C22" t="str">
+        <v>0</v>
+      </c>
+      <c r="D22" t="str">
+        <v>0</v>
+      </c>
+      <c r="E22" t="str">
+        <v>56</v>
+      </c>
+      <c r="F22" t="str">
+        <v>56</v>
+      </c>
+      <c r="G22" t="str">
+        <v>168</v>
+      </c>
+      <c r="H22" t="str">
+        <v>20</v>
+      </c>
+      <c r="I22" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="J22" t="str">
+        <v>882</v>
+      </c>
+      <c r="K22" t="str">
+        <v>1.0000</v>
+      </c>
+      <c r="L22" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="M22" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="23">
+      <c r="A23" t="str">
+        <v>chatting023</v>
+      </c>
+      <c r="B23" t="str">
+        <v>73</v>
+      </c>
+      <c r="C23" t="str">
+        <v>4</v>
+      </c>
+      <c r="D23" t="str">
+        <v>1</v>
+      </c>
+      <c r="E23" t="str">
+        <v>32</v>
+      </c>
+      <c r="F23" t="str">
+        <v>37</v>
+      </c>
+      <c r="G23" t="str">
+        <v>167</v>
+      </c>
+      <c r="H23" t="str">
+        <v>21</v>
+      </c>
+      <c r="I23" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="J23" t="str">
+        <v>326</v>
+      </c>
+      <c r="K23" t="str">
+        <v>1.0000</v>
+      </c>
+      <c r="L23" t="str">
+        <v>1.0600</v>
+      </c>
+      <c r="M23" t="str">
+        <v>0.2120</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="24">
+      <c r="A24" t="str">
+        <v>chatting02</v>
+      </c>
+      <c r="B24" t="str">
+        <v>7</v>
+      </c>
+      <c r="C24" t="str">
+        <v>0</v>
+      </c>
+      <c r="D24" t="str">
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
+        <v>5</v>
+      </c>
+      <c r="F24" t="str">
+        <v>5</v>
+      </c>
+      <c r="G24" t="str">
+        <v>17</v>
+      </c>
+      <c r="H24" t="str">
+        <v>22</v>
+      </c>
+      <c r="I24" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="J24" t="str">
+        <v>8</v>
+      </c>
+      <c r="K24" t="str">
+        <v>0.1000</v>
+      </c>
+      <c r="L24" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="M24" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="25">
+      <c r="A25" t="str">
+        <v>chatting038</v>
+      </c>
+      <c r="B25" t="str">
+        <v>3</v>
+      </c>
+      <c r="C25" t="str">
+        <v>0</v>
+      </c>
+      <c r="D25" t="str">
+        <v>0</v>
+      </c>
+      <c r="E25" t="str">
         <v>2</v>
       </c>
-      <c r="K21" t="str">
+      <c r="F25" t="str">
+        <v>2</v>
+      </c>
+      <c r="G25" t="str">
+        <v>7</v>
+      </c>
+      <c r="H25" t="str">
+        <v>23</v>
+      </c>
+      <c r="I25" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="J25" t="str">
+        <v>1</v>
+      </c>
+      <c r="K25" t="str">
         <v>0.1000</v>
       </c>
-      <c r="L21" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="M21" t="str">
-        <v>0.0000</v>
+      <c r="L25" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="M25" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="26">
+      <c r="A26" t="str">
+        <v>chatting039</v>
+      </c>
+      <c r="B26" t="str">
+        <v>3</v>
+      </c>
+      <c r="C26" t="str">
+        <v>0</v>
+      </c>
+      <c r="D26" t="str">
+        <v>0</v>
+      </c>
+      <c r="E26" t="str">
+        <v>2</v>
+      </c>
+      <c r="F26" t="str">
+        <v>2</v>
+      </c>
+      <c r="G26" t="str">
+        <v>7</v>
+      </c>
+      <c r="H26" t="str">
+        <v>24</v>
+      </c>
+      <c r="I26" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="J26" t="str">
+        <v>19</v>
+      </c>
+      <c r="K26" t="str">
+        <v>0.1000</v>
+      </c>
+      <c r="L26" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="M26" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="27">
+      <c r="A27" t="str">
+        <v>chatting014</v>
+      </c>
+      <c r="B27" t="str">
+        <v>2</v>
+      </c>
+      <c r="C27" t="str">
+        <v>0</v>
+      </c>
+      <c r="D27" t="str">
+        <v>0</v>
+      </c>
+      <c r="E27" t="str">
+        <v>2</v>
+      </c>
+      <c r="F27" t="str">
+        <v>2</v>
+      </c>
+      <c r="G27" t="str">
+        <v>6</v>
+      </c>
+      <c r="H27" t="str">
+        <v>25</v>
+      </c>
+      <c r="I27" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="J27" t="str">
+        <v>0</v>
+      </c>
+      <c r="K27" t="str">
+        <v>0.1000</v>
+      </c>
+      <c r="L27" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="M27" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="28">
+      <c r="A28" t="str">
+        <v>yousefegypt1</v>
+      </c>
+      <c r="B28" t="str">
+        <v>2</v>
+      </c>
+      <c r="C28" t="str">
+        <v>0</v>
+      </c>
+      <c r="D28" t="str">
+        <v>0</v>
+      </c>
+      <c r="E28" t="str">
+        <v>2</v>
+      </c>
+      <c r="F28" t="str">
+        <v>2</v>
+      </c>
+      <c r="G28" t="str">
+        <v>6</v>
+      </c>
+      <c r="H28" t="str">
+        <v>26</v>
+      </c>
+      <c r="I28" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="J28" t="str">
+        <v>0</v>
+      </c>
+      <c r="K28" t="str">
+        <v>0.1000</v>
+      </c>
+      <c r="L28" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="M28" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="29">
+      <c r="A29" t="str">
+        <v>chatting06</v>
+      </c>
+      <c r="B29" t="str">
+        <v>2</v>
+      </c>
+      <c r="C29" t="str">
+        <v>0</v>
+      </c>
+      <c r="D29" t="str">
+        <v>0</v>
+      </c>
+      <c r="E29" t="str">
+        <v>1</v>
+      </c>
+      <c r="F29" t="str">
+        <v>1</v>
+      </c>
+      <c r="G29" t="str">
+        <v>4</v>
+      </c>
+      <c r="H29" t="str">
+        <v>27</v>
+      </c>
+      <c r="I29" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="J29" t="str">
+        <v>0</v>
+      </c>
+      <c r="K29" t="str">
+        <v>0.1000</v>
+      </c>
+      <c r="L29" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="M29" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="30">
+      <c r="A30" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B30" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C30" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D30" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E30" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F30" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G30" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="H30" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="I30" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="J30" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="K30" t="str">
+        <v>总工资:</v>
+      </c>
+      <c r="L30" t="str">
+        <v>146.1440</v>
+      </c>
+      <c r="M30" t="str">
+        <v>29.2288</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="31">
+      <c r="A31" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B31" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C31" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D31" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E31" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F31" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G31" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="H31" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="I31" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="J31" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="K31" t="str">
+        <v>平均工资:</v>
+      </c>
+      <c r="L31" t="str">
+        <v>5.4127</v>
+      </c>
+      <c r="M31" t="str">
+        <v>1.0825</v>
       </c>
     </row>
   </sheetData>

--- a/陪聊数据统计.xlsx
+++ b/陪聊数据统计.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="20190623 05点-20190624 05点" sheetId="1" r:id="rId1"/>
+    <sheet name="20190624 05点-20190625 05点" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -470,22 +470,22 @@
         <v>chatting017</v>
       </c>
       <c r="B3" t="str">
-        <v>2357</v>
+        <v>3039</v>
       </c>
       <c r="C3" t="str">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D3" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" t="str">
-        <v>803</v>
+        <v>690</v>
       </c>
       <c r="F3" t="str">
-        <v>882</v>
+        <v>798</v>
       </c>
       <c r="G3" t="str">
-        <v>4516</v>
+        <v>5165</v>
       </c>
       <c r="H3" t="str">
         <v>1</v>
@@ -494,39 +494,39 @@
         <v>0.0000</v>
       </c>
       <c r="J3" t="str">
-        <v>551</v>
+        <v>1434</v>
       </c>
       <c r="K3" t="str">
         <v>1.0000</v>
       </c>
       <c r="L3" t="str">
-        <v>17.3800</v>
+        <v>23.6800</v>
       </c>
       <c r="M3" t="str">
-        <v>3.4760</v>
+        <v>4.7360</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="4">
       <c r="A4" t="str">
-        <v>chatting033</v>
+        <v>chatting06</v>
       </c>
       <c r="B4" t="str">
-        <v>1712</v>
+        <v>1677</v>
       </c>
       <c r="C4" t="str">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D4" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" t="str">
-        <v>579</v>
+        <v>846</v>
       </c>
       <c r="F4" t="str">
-        <v>669</v>
+        <v>911</v>
       </c>
       <c r="G4" t="str">
-        <v>3500</v>
+        <v>3814</v>
       </c>
       <c r="H4" t="str">
         <v>2</v>
@@ -535,39 +535,39 @@
         <v>0.0000</v>
       </c>
       <c r="J4" t="str">
-        <v>591</v>
+        <v>1366</v>
       </c>
       <c r="K4" t="str">
         <v>1.0000</v>
       </c>
       <c r="L4" t="str">
-        <v>19.8000</v>
+        <v>14.2200</v>
       </c>
       <c r="M4" t="str">
-        <v>3.9600</v>
+        <v>2.8440</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="5">
       <c r="A5" t="str">
-        <v>chatting032</v>
+        <v>chatting033</v>
       </c>
       <c r="B5" t="str">
-        <v>1529</v>
+        <v>1626</v>
       </c>
       <c r="C5" t="str">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D5" t="str">
         <v>1</v>
       </c>
       <c r="E5" t="str">
-        <v>559</v>
+        <v>241</v>
       </c>
       <c r="F5" t="str">
-        <v>642</v>
+        <v>339</v>
       </c>
       <c r="G5" t="str">
-        <v>3223</v>
+        <v>2789</v>
       </c>
       <c r="H5" t="str">
         <v>3</v>
@@ -576,16 +576,16 @@
         <v>0.0000</v>
       </c>
       <c r="J5" t="str">
-        <v>1432</v>
+        <v>592</v>
       </c>
       <c r="K5" t="str">
         <v>1.0000</v>
       </c>
       <c r="L5" t="str">
-        <v>18.2200</v>
+        <v>21.5200</v>
       </c>
       <c r="M5" t="str">
-        <v>3.6440</v>
+        <v>4.3040</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="6">
@@ -593,22 +593,22 @@
         <v>chatting031</v>
       </c>
       <c r="B6" t="str">
-        <v>1519</v>
+        <v>1357</v>
       </c>
       <c r="C6" t="str">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D6" t="str">
         <v>0</v>
       </c>
       <c r="E6" t="str">
-        <v>444</v>
+        <v>362</v>
       </c>
       <c r="F6" t="str">
-        <v>506</v>
+        <v>425</v>
       </c>
       <c r="G6" t="str">
-        <v>2841</v>
+        <v>2522</v>
       </c>
       <c r="H6" t="str">
         <v>4</v>
@@ -617,39 +617,39 @@
         <v>0.0000</v>
       </c>
       <c r="J6" t="str">
-        <v>570</v>
+        <v>431</v>
       </c>
       <c r="K6" t="str">
         <v>1.0000</v>
       </c>
       <c r="L6" t="str">
-        <v>13.6400</v>
+        <v>13.8600</v>
       </c>
       <c r="M6" t="str">
-        <v>2.7280</v>
+        <v>2.7720</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="7">
       <c r="A7" t="str">
-        <v>chatting034</v>
+        <v>chatting10</v>
       </c>
       <c r="B7" t="str">
-        <v>859</v>
+        <v>1159</v>
       </c>
       <c r="C7" t="str">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D7" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="str">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="F7" t="str">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="G7" t="str">
-        <v>1781</v>
+        <v>2257</v>
       </c>
       <c r="H7" t="str">
         <v>5</v>
@@ -658,39 +658,39 @@
         <v>0.0000</v>
       </c>
       <c r="J7" t="str">
-        <v>1057</v>
+        <v>1438</v>
       </c>
       <c r="K7" t="str">
         <v>1.0000</v>
       </c>
       <c r="L7" t="str">
-        <v>7.4800</v>
+        <v>11.6200</v>
       </c>
       <c r="M7" t="str">
-        <v>1.4960</v>
+        <v>2.3240</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="8">
       <c r="A8" t="str">
-        <v>chatting07</v>
+        <v>mohammedegypt1</v>
       </c>
       <c r="B8" t="str">
-        <v>791</v>
+        <v>938</v>
       </c>
       <c r="C8" t="str">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="str">
-        <v>320</v>
+        <v>472</v>
       </c>
       <c r="F8" t="str">
-        <v>360</v>
+        <v>512</v>
       </c>
       <c r="G8" t="str">
-        <v>1706</v>
+        <v>2162</v>
       </c>
       <c r="H8" t="str">
         <v>6</v>
@@ -699,39 +699,39 @@
         <v>0.0000</v>
       </c>
       <c r="J8" t="str">
-        <v>678</v>
+        <v>1192</v>
       </c>
       <c r="K8" t="str">
         <v>1.0000</v>
       </c>
       <c r="L8" t="str">
-        <v>8.7600</v>
+        <v>8.8000</v>
       </c>
       <c r="M8" t="str">
-        <v>1.7520</v>
+        <v>1.7600</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="9">
       <c r="A9" t="str">
-        <v>chatting035</v>
+        <v>chatting034</v>
       </c>
       <c r="B9" t="str">
-        <v>907</v>
+        <v>930</v>
       </c>
       <c r="C9" t="str">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D9" t="str">
         <v>0</v>
       </c>
       <c r="E9" t="str">
-        <v>115</v>
+        <v>293</v>
       </c>
       <c r="F9" t="str">
-        <v>194</v>
+        <v>347</v>
       </c>
       <c r="G9" t="str">
-        <v>1690</v>
+        <v>1894</v>
       </c>
       <c r="H9" t="str">
         <v>7</v>
@@ -740,39 +740,39 @@
         <v>0.0000</v>
       </c>
       <c r="J9" t="str">
-        <v>1439</v>
+        <v>683</v>
       </c>
       <c r="K9" t="str">
         <v>1.0000</v>
       </c>
       <c r="L9" t="str">
-        <v>17.3800</v>
+        <v>11.8800</v>
       </c>
       <c r="M9" t="str">
-        <v>3.4760</v>
+        <v>2.3760</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="10">
       <c r="A10" t="str">
-        <v>abodullaegypt1</v>
+        <v>chatting07</v>
       </c>
       <c r="B10" t="str">
-        <v>752</v>
+        <v>652</v>
       </c>
       <c r="C10" t="str">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D10" t="str">
         <v>0</v>
       </c>
       <c r="E10" t="str">
-        <v>250</v>
+        <v>348</v>
       </c>
       <c r="F10" t="str">
-        <v>289</v>
+        <v>374</v>
       </c>
       <c r="G10" t="str">
-        <v>1525</v>
+        <v>1530</v>
       </c>
       <c r="H10" t="str">
         <v>8</v>
@@ -781,39 +781,39 @@
         <v>0.0000</v>
       </c>
       <c r="J10" t="str">
-        <v>1165</v>
+        <v>212</v>
       </c>
       <c r="K10" t="str">
         <v>1.0000</v>
       </c>
       <c r="L10" t="str">
-        <v>8.5800</v>
+        <v>5.7200</v>
       </c>
       <c r="M10" t="str">
-        <v>1.7160</v>
+        <v>1.1440</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="11">
       <c r="A11" t="str">
-        <v>chatting036</v>
+        <v>chatting032</v>
       </c>
       <c r="B11" t="str">
-        <v>628</v>
+        <v>553</v>
       </c>
       <c r="C11" t="str">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D11" t="str">
         <v>0</v>
       </c>
       <c r="E11" t="str">
-        <v>158</v>
+        <v>262</v>
       </c>
       <c r="F11" t="str">
-        <v>197</v>
+        <v>288</v>
       </c>
       <c r="G11" t="str">
-        <v>1217</v>
+        <v>1259</v>
       </c>
       <c r="H11" t="str">
         <v>9</v>
@@ -822,39 +822,39 @@
         <v>0.0000</v>
       </c>
       <c r="J11" t="str">
-        <v>387</v>
+        <v>894</v>
       </c>
       <c r="K11" t="str">
         <v>1.0000</v>
       </c>
       <c r="L11" t="str">
-        <v>8.5800</v>
+        <v>5.7200</v>
       </c>
       <c r="M11" t="str">
-        <v>1.7160</v>
+        <v>1.1440</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="12">
       <c r="A12" t="str">
-        <v>yaseregypt1</v>
+        <v>abodullaegypt1</v>
       </c>
       <c r="B12" t="str">
-        <v>423</v>
+        <v>645</v>
       </c>
       <c r="C12" t="str">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D12" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="str">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F12" t="str">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G12" t="str">
-        <v>815</v>
+        <v>1103</v>
       </c>
       <c r="H12" t="str">
         <v>10</v>
@@ -863,39 +863,39 @@
         <v>0.0000</v>
       </c>
       <c r="J12" t="str">
-        <v>802</v>
+        <v>1387</v>
       </c>
       <c r="K12" t="str">
         <v>1.0000</v>
       </c>
       <c r="L12" t="str">
-        <v>5.7200</v>
+        <v>8.5400</v>
       </c>
       <c r="M12" t="str">
-        <v>1.1440</v>
+        <v>1.7080</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="13">
       <c r="A13" t="str">
-        <v>chatting022</v>
+        <v>chatting021</v>
       </c>
       <c r="B13" t="str">
-        <v>348</v>
+        <v>498</v>
       </c>
       <c r="C13" t="str">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D13" t="str">
         <v>0</v>
       </c>
       <c r="E13" t="str">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="F13" t="str">
-        <v>156</v>
+        <v>219</v>
       </c>
       <c r="G13" t="str">
-        <v>740</v>
+        <v>1076</v>
       </c>
       <c r="H13" t="str">
         <v>11</v>
@@ -904,39 +904,39 @@
         <v>0.0000</v>
       </c>
       <c r="J13" t="str">
-        <v>135</v>
+        <v>1438</v>
       </c>
       <c r="K13" t="str">
-        <v>0.7000</v>
+        <v>1.0000</v>
       </c>
       <c r="L13" t="str">
-        <v>2.4640</v>
+        <v>6.1600</v>
       </c>
       <c r="M13" t="str">
-        <v>0.4928</v>
+        <v>1.2320</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="14">
       <c r="A14" t="str">
-        <v>rashadegypt1</v>
+        <v>chatting036</v>
       </c>
       <c r="B14" t="str">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="C14" t="str">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" t="str">
         <v>0</v>
       </c>
       <c r="E14" t="str">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="F14" t="str">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="G14" t="str">
-        <v>717</v>
+        <v>970</v>
       </c>
       <c r="H14" t="str">
         <v>12</v>
@@ -945,16 +945,16 @@
         <v>0.0000</v>
       </c>
       <c r="J14" t="str">
-        <v>879</v>
+        <v>485</v>
       </c>
       <c r="K14" t="str">
         <v>1.0000</v>
       </c>
       <c r="L14" t="str">
-        <v>5.0600</v>
+        <v>5.2800</v>
       </c>
       <c r="M14" t="str">
-        <v>1.0120</v>
+        <v>1.0560</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="15">
@@ -962,22 +962,22 @@
         <v>APP010</v>
       </c>
       <c r="B15" t="str">
-        <v>366</v>
+        <v>468</v>
       </c>
       <c r="C15" t="str">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D15" t="str">
         <v>0</v>
       </c>
       <c r="E15" t="str">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="F15" t="str">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="G15" t="str">
-        <v>715</v>
+        <v>952</v>
       </c>
       <c r="H15" t="str">
         <v>13</v>
@@ -986,39 +986,39 @@
         <v>0.0000</v>
       </c>
       <c r="J15" t="str">
-        <v>238</v>
+        <v>295</v>
       </c>
       <c r="K15" t="str">
         <v>1.0000</v>
       </c>
       <c r="L15" t="str">
-        <v>1.5400</v>
+        <v>2.2000</v>
       </c>
       <c r="M15" t="str">
-        <v>0.3080</v>
+        <v>0.4400</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="16">
       <c r="A16" t="str">
-        <v>chatting013</v>
+        <v>chatting038</v>
       </c>
       <c r="B16" t="str">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="C16" t="str">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D16" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="str">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="F16" t="str">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="G16" t="str">
-        <v>690</v>
+        <v>931</v>
       </c>
       <c r="H16" t="str">
         <v>14</v>
@@ -1027,39 +1027,39 @@
         <v>0.0000</v>
       </c>
       <c r="J16" t="str">
-        <v>704</v>
+        <v>170</v>
       </c>
       <c r="K16" t="str">
-        <v>1.0000</v>
+        <v>0.8500</v>
       </c>
       <c r="L16" t="str">
-        <v>3.9200</v>
+        <v>4.1140</v>
       </c>
       <c r="M16" t="str">
-        <v>0.7840</v>
+        <v>0.8228</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="17">
       <c r="A17" t="str">
-        <v>chatting10</v>
+        <v>chatting022</v>
       </c>
       <c r="B17" t="str">
-        <v>149</v>
+        <v>354</v>
       </c>
       <c r="C17" t="str">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D17" t="str">
         <v>0</v>
       </c>
       <c r="E17" t="str">
-        <v>75</v>
+        <v>232</v>
       </c>
       <c r="F17" t="str">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="G17" t="str">
-        <v>334</v>
+        <v>888</v>
       </c>
       <c r="H17" t="str">
         <v>15</v>
@@ -1068,39 +1068,39 @@
         <v>0.0000</v>
       </c>
       <c r="J17" t="str">
-        <v>716</v>
+        <v>841</v>
       </c>
       <c r="K17" t="str">
         <v>1.0000</v>
       </c>
       <c r="L17" t="str">
-        <v>1.1000</v>
+        <v>2.2000</v>
       </c>
       <c r="M17" t="str">
-        <v>0.2200</v>
+        <v>0.4400</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="18">
       <c r="A18" t="str">
-        <v>chatting021</v>
+        <v>yaseregypt1</v>
       </c>
       <c r="B18" t="str">
-        <v>139</v>
+        <v>430</v>
       </c>
       <c r="C18" t="str">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D18" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="str">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F18" t="str">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="G18" t="str">
-        <v>324</v>
+        <v>861</v>
       </c>
       <c r="H18" t="str">
         <v>16</v>
@@ -1109,39 +1109,39 @@
         <v>0.0000</v>
       </c>
       <c r="J18" t="str">
-        <v>722</v>
+        <v>703</v>
       </c>
       <c r="K18" t="str">
         <v>1.0000</v>
       </c>
       <c r="L18" t="str">
-        <v>1.1000</v>
+        <v>6.1200</v>
       </c>
       <c r="M18" t="str">
-        <v>0.2200</v>
+        <v>1.2240</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="19">
       <c r="A19" t="str">
-        <v>chatting037</v>
+        <v>chatting02</v>
       </c>
       <c r="B19" t="str">
-        <v>153</v>
+        <v>437</v>
       </c>
       <c r="C19" t="str">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D19" t="str">
         <v>0</v>
       </c>
       <c r="E19" t="str">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F19" t="str">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G19" t="str">
-        <v>315</v>
+        <v>726</v>
       </c>
       <c r="H19" t="str">
         <v>17</v>
@@ -1150,39 +1150,39 @@
         <v>0.0000</v>
       </c>
       <c r="J19" t="str">
-        <v>536</v>
+        <v>630</v>
       </c>
       <c r="K19" t="str">
         <v>1.0000</v>
       </c>
       <c r="L19" t="str">
-        <v>1.7600</v>
+        <v>7.2600</v>
       </c>
       <c r="M19" t="str">
-        <v>0.3520</v>
+        <v>1.4520</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="20">
       <c r="A20" t="str">
-        <v>chatting05</v>
+        <v>rashadegypt1</v>
       </c>
       <c r="B20" t="str">
-        <v>107</v>
+        <v>285</v>
       </c>
       <c r="C20" t="str">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D20" t="str">
         <v>0</v>
       </c>
       <c r="E20" t="str">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="F20" t="str">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="G20" t="str">
-        <v>290</v>
+        <v>478</v>
       </c>
       <c r="H20" t="str">
         <v>18</v>
@@ -1191,16 +1191,16 @@
         <v>0.0000</v>
       </c>
       <c r="J20" t="str">
-        <v>529</v>
+        <v>343</v>
       </c>
       <c r="K20" t="str">
         <v>1.0000</v>
       </c>
       <c r="L20" t="str">
+        <v>3.3000</v>
+      </c>
+      <c r="M20" t="str">
         <v>0.6600</v>
-      </c>
-      <c r="M20" t="str">
-        <v>0.1320</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="21">
@@ -1208,22 +1208,22 @@
         <v>chatting015</v>
       </c>
       <c r="B21" t="str">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="C21" t="str">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D21" t="str">
         <v>1</v>
       </c>
       <c r="E21" t="str">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F21" t="str">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G21" t="str">
-        <v>282</v>
+        <v>386</v>
       </c>
       <c r="H21" t="str">
         <v>19</v>
@@ -1232,16 +1232,16 @@
         <v>0.0000</v>
       </c>
       <c r="J21" t="str">
-        <v>599</v>
+        <v>545</v>
       </c>
       <c r="K21" t="str">
         <v>1.0000</v>
       </c>
       <c r="L21" t="str">
-        <v>1.9400</v>
+        <v>3.7000</v>
       </c>
       <c r="M21" t="str">
-        <v>0.3880</v>
+        <v>0.7400</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="22">
@@ -1249,7 +1249,7 @@
         <v>chatting040</v>
       </c>
       <c r="B22" t="str">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C22" t="str">
         <v>0</v>
@@ -1258,13 +1258,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="str">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="F22" t="str">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="G22" t="str">
-        <v>168</v>
+        <v>304</v>
       </c>
       <c r="H22" t="str">
         <v>20</v>
@@ -1273,7 +1273,7 @@
         <v>0.0000</v>
       </c>
       <c r="J22" t="str">
-        <v>882</v>
+        <v>305</v>
       </c>
       <c r="K22" t="str">
         <v>1.0000</v>
@@ -1287,25 +1287,25 @@
     </row>
     <row customHeight="true" ht="28" r="23">
       <c r="A23" t="str">
-        <v>chatting023</v>
+        <v>ahmedegypt1</v>
       </c>
       <c r="B23" t="str">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C23" t="str">
         <v>4</v>
       </c>
       <c r="D23" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="str">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F23" t="str">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G23" t="str">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H23" t="str">
         <v>21</v>
@@ -1314,24 +1314,24 @@
         <v>0.0000</v>
       </c>
       <c r="J23" t="str">
-        <v>326</v>
+        <v>63</v>
       </c>
       <c r="K23" t="str">
-        <v>1.0000</v>
+        <v>0.4000</v>
       </c>
       <c r="L23" t="str">
-        <v>1.0600</v>
+        <v>0.3520</v>
       </c>
       <c r="M23" t="str">
-        <v>0.2120</v>
+        <v>0.0704</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="24">
       <c r="A24" t="str">
-        <v>chatting02</v>
+        <v>chatting035</v>
       </c>
       <c r="B24" t="str">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="str">
         <v>0</v>
@@ -1340,13 +1340,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="str">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F24" t="str">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G24" t="str">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H24" t="str">
         <v>22</v>
@@ -1355,7 +1355,7 @@
         <v>0.0000</v>
       </c>
       <c r="J24" t="str">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K24" t="str">
         <v>0.1000</v>
@@ -1369,25 +1369,25 @@
     </row>
     <row customHeight="true" ht="28" r="25">
       <c r="A25" t="str">
-        <v>chatting038</v>
+        <v>chatting013</v>
       </c>
       <c r="B25" t="str">
+        <v>1</v>
+      </c>
+      <c r="C25" t="str">
+        <v>0</v>
+      </c>
+      <c r="D25" t="str">
+        <v>0</v>
+      </c>
+      <c r="E25" t="str">
+        <v>1</v>
+      </c>
+      <c r="F25" t="str">
+        <v>1</v>
+      </c>
+      <c r="G25" t="str">
         <v>3</v>
-      </c>
-      <c r="C25" t="str">
-        <v>0</v>
-      </c>
-      <c r="D25" t="str">
-        <v>0</v>
-      </c>
-      <c r="E25" t="str">
-        <v>2</v>
-      </c>
-      <c r="F25" t="str">
-        <v>2</v>
-      </c>
-      <c r="G25" t="str">
-        <v>7</v>
       </c>
       <c r="H25" t="str">
         <v>23</v>
@@ -1396,7 +1396,7 @@
         <v>0.0000</v>
       </c>
       <c r="J25" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="str">
         <v>0.1000</v>
@@ -1409,249 +1409,85 @@
       </c>
     </row>
     <row customHeight="true" ht="28" r="26">
-      <c r="A26" t="str">
-        <v>chatting039</v>
-      </c>
-      <c r="B26" t="str">
-        <v>3</v>
-      </c>
-      <c r="C26" t="str">
-        <v>0</v>
-      </c>
-      <c r="D26" t="str">
-        <v>0</v>
-      </c>
-      <c r="E26" t="str">
-        <v>2</v>
-      </c>
-      <c r="F26" t="str">
-        <v>2</v>
-      </c>
-      <c r="G26" t="str">
-        <v>7</v>
-      </c>
-      <c r="H26" t="str">
-        <v>24</v>
-      </c>
-      <c r="I26" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="J26" t="str">
-        <v>19</v>
+      <c r="A26" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B26" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C26" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D26" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E26" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F26" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G26" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="H26" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="I26" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="J26" t="str" xml:space="preserve">
+        <v> </v>
       </c>
       <c r="K26" t="str">
-        <v>0.1000</v>
+        <v>总工资:</v>
       </c>
       <c r="L26" t="str">
-        <v>0.0000</v>
+        <v>166.2460</v>
       </c>
       <c r="M26" t="str">
-        <v>0.0000</v>
+        <v>33.2492</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="27">
-      <c r="A27" t="str">
-        <v>chatting014</v>
-      </c>
-      <c r="B27" t="str">
-        <v>2</v>
-      </c>
-      <c r="C27" t="str">
-        <v>0</v>
-      </c>
-      <c r="D27" t="str">
-        <v>0</v>
-      </c>
-      <c r="E27" t="str">
-        <v>2</v>
-      </c>
-      <c r="F27" t="str">
-        <v>2</v>
-      </c>
-      <c r="G27" t="str">
-        <v>6</v>
-      </c>
-      <c r="H27" t="str">
-        <v>25</v>
-      </c>
-      <c r="I27" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="J27" t="str">
-        <v>0</v>
+      <c r="A27" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B27" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C27" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D27" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E27" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F27" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G27" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="H27" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="I27" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="J27" t="str" xml:space="preserve">
+        <v> </v>
       </c>
       <c r="K27" t="str">
-        <v>0.1000</v>
+        <v>平均工资:</v>
       </c>
       <c r="L27" t="str">
-        <v>0.0000</v>
+        <v>7.2281</v>
       </c>
       <c r="M27" t="str">
-        <v>0.0000</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="28">
-      <c r="A28" t="str">
-        <v>yousefegypt1</v>
-      </c>
-      <c r="B28" t="str">
-        <v>2</v>
-      </c>
-      <c r="C28" t="str">
-        <v>0</v>
-      </c>
-      <c r="D28" t="str">
-        <v>0</v>
-      </c>
-      <c r="E28" t="str">
-        <v>2</v>
-      </c>
-      <c r="F28" t="str">
-        <v>2</v>
-      </c>
-      <c r="G28" t="str">
-        <v>6</v>
-      </c>
-      <c r="H28" t="str">
-        <v>26</v>
-      </c>
-      <c r="I28" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="J28" t="str">
-        <v>0</v>
-      </c>
-      <c r="K28" t="str">
-        <v>0.1000</v>
-      </c>
-      <c r="L28" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="M28" t="str">
-        <v>0.0000</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="29">
-      <c r="A29" t="str">
-        <v>chatting06</v>
-      </c>
-      <c r="B29" t="str">
-        <v>2</v>
-      </c>
-      <c r="C29" t="str">
-        <v>0</v>
-      </c>
-      <c r="D29" t="str">
-        <v>0</v>
-      </c>
-      <c r="E29" t="str">
-        <v>1</v>
-      </c>
-      <c r="F29" t="str">
-        <v>1</v>
-      </c>
-      <c r="G29" t="str">
-        <v>4</v>
-      </c>
-      <c r="H29" t="str">
-        <v>27</v>
-      </c>
-      <c r="I29" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="J29" t="str">
-        <v>0</v>
-      </c>
-      <c r="K29" t="str">
-        <v>0.1000</v>
-      </c>
-      <c r="L29" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="M29" t="str">
-        <v>0.0000</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="30">
-      <c r="A30" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B30" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C30" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D30" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E30" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F30" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G30" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="H30" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="I30" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="J30" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="K30" t="str">
-        <v>总工资:</v>
-      </c>
-      <c r="L30" t="str">
-        <v>146.1440</v>
-      </c>
-      <c r="M30" t="str">
-        <v>29.2288</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="31">
-      <c r="A31" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B31" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C31" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D31" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E31" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F31" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G31" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="H31" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="I31" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="J31" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="K31" t="str">
-        <v>平均工资:</v>
-      </c>
-      <c r="L31" t="str">
-        <v>5.4127</v>
-      </c>
-      <c r="M31" t="str">
-        <v>1.0825</v>
+        <v>1.4456</v>
       </c>
     </row>
   </sheetData>

--- a/陪聊数据统计.xlsx
+++ b/陪聊数据统计.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="20190625 05点-20190626 05点" sheetId="1" r:id="rId1"/>
+    <sheet name="20190710 05点-20190711 05点" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -15,17 +15,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
     <font>
@@ -49,7 +43,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -72,31 +66,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF09600B"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF09600B"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF09600B"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF09600B"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -388,81 +364,1276 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="28" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>陪聊人员</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>陪聊人员发出信息总条数</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>单个互动对话中，用户的回复数</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="str">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="str">
         <v>触及到的用户ID总数</v>
       </c>
-      <c r="G1" s="2" t="str">
-        <v>权重计算总数</v>
-      </c>
-      <c r="H1" s="2" t="str">
-        <v>权重排行榜</v>
-      </c>
-      <c r="I1" s="2" t="str">
-        <v>奖金</v>
-      </c>
-      <c r="J1" s="2" t="str" xml:space="preserve">
-        <v> 工作时常</v>
-      </c>
-      <c r="K1" s="2" t="str">
-        <v>惩罚</v>
-      </c>
-      <c r="L1" s="2" t="str">
+      <c r="G1" s="1" t="str">
+        <v>固定薪资</v>
+      </c>
+      <c r="H1" s="1" t="str">
+        <v>工作时常</v>
+      </c>
+      <c r="I1" s="1" t="str">
         <v>最终工资</v>
       </c>
-      <c r="M1" s="2" t="str">
+      <c r="J1" s="1" t="str">
         <v>经济公司工资</v>
       </c>
+      <c r="K1" s="1" t="str">
+        <v>总计</v>
+      </c>
     </row>
     <row customHeight="true" ht="28" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>小/等于5分钟且大于等于7个回复回合的对话总数</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>大于5分钟且大于等于7个回复回合的对话总数</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>小于7个回复回合的对话总数总条数</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="1" t="str">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="str">
+      <c r="I2" s="1" t="str">
         <v>1</v>
       </c>
-      <c r="J2" s="2" t="str">
+      <c r="J2" s="1" t="str">
         <v>1</v>
       </c>
-      <c r="K2" s="2" t="str">
+      <c r="K2" s="1" t="str">
         <v>1</v>
       </c>
-      <c r="L2" s="2" t="str">
+    </row>
+    <row customHeight="true" ht="28" r="3">
+      <c r="A3" t="str">
+        <v>chatting013</v>
+      </c>
+      <c r="B3" t="str">
+        <v>2314</v>
+      </c>
+      <c r="C3" t="str">
+        <v>153</v>
+      </c>
+      <c r="D3" t="str">
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <v>312</v>
+      </c>
+      <c r="F3" t="str">
+        <v>465</v>
+      </c>
+      <c r="G3" t="str">
+        <v>26.0100</v>
+      </c>
+      <c r="H3" t="str">
+        <v>1245</v>
+      </c>
+      <c r="I3" t="str">
+        <v>26.0100</v>
+      </c>
+      <c r="J3" t="str">
+        <v>5.2020</v>
+      </c>
+      <c r="K3" t="str">
+        <v>31.2120</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="4">
+      <c r="A4" t="str">
+        <v>mohammedegypt1</v>
+      </c>
+      <c r="B4" t="str">
+        <v>2361</v>
+      </c>
+      <c r="C4" t="str">
+        <v>100</v>
+      </c>
+      <c r="D4" t="str">
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
+        <v>58</v>
+      </c>
+      <c r="F4" t="str">
+        <v>158</v>
+      </c>
+      <c r="G4" t="str">
+        <v>17.0000</v>
+      </c>
+      <c r="H4" t="str">
+        <v>989</v>
+      </c>
+      <c r="I4" t="str">
+        <v>17.0000</v>
+      </c>
+      <c r="J4" t="str">
+        <v>3.4000</v>
+      </c>
+      <c r="K4" t="str">
+        <v>20.4000</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="5">
+      <c r="A5" t="str">
+        <v>chatting036</v>
+      </c>
+      <c r="B5" t="str">
+        <v>1723</v>
+      </c>
+      <c r="C5" t="str">
+        <v>136</v>
+      </c>
+      <c r="D5" t="str">
+        <v>2</v>
+      </c>
+      <c r="E5" t="str">
+        <v>188</v>
+      </c>
+      <c r="F5" t="str">
+        <v>326</v>
+      </c>
+      <c r="G5" t="str">
+        <v>23.3000</v>
+      </c>
+      <c r="H5" t="str">
+        <v>989</v>
+      </c>
+      <c r="I5" t="str">
+        <v>23.3000</v>
+      </c>
+      <c r="J5" t="str">
+        <v>4.6600</v>
+      </c>
+      <c r="K5" t="str">
+        <v>27.9600</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="6">
+      <c r="A6" t="str">
+        <v>chatting014</v>
+      </c>
+      <c r="B6" t="str">
+        <v>1564</v>
+      </c>
+      <c r="C6" t="str">
+        <v>129</v>
+      </c>
+      <c r="D6" t="str">
+        <v>5</v>
+      </c>
+      <c r="E6" t="str">
+        <v>243</v>
+      </c>
+      <c r="F6" t="str">
+        <v>377</v>
+      </c>
+      <c r="G6" t="str">
+        <v>22.3800</v>
+      </c>
+      <c r="H6" t="str">
+        <v>752</v>
+      </c>
+      <c r="I6" t="str">
+        <v>22.3800</v>
+      </c>
+      <c r="J6" t="str">
+        <v>4.4760</v>
+      </c>
+      <c r="K6" t="str">
+        <v>26.8560</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="7">
+      <c r="A7" t="str">
+        <v>chatting034</v>
+      </c>
+      <c r="B7" t="str">
+        <v>1685</v>
+      </c>
+      <c r="C7" t="str">
+        <v>134</v>
+      </c>
+      <c r="D7" t="str">
+        <v>0</v>
+      </c>
+      <c r="E7" t="str">
+        <v>167</v>
+      </c>
+      <c r="F7" t="str">
+        <v>301</v>
+      </c>
+      <c r="G7" t="str">
+        <v>22.7800</v>
+      </c>
+      <c r="H7" t="str">
+        <v>498</v>
+      </c>
+      <c r="I7" t="str">
+        <v>22.7800</v>
+      </c>
+      <c r="J7" t="str">
+        <v>4.5560</v>
+      </c>
+      <c r="K7" t="str">
+        <v>27.3360</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="8">
+      <c r="A8" t="str">
+        <v>yousefegypt1</v>
+      </c>
+      <c r="B8" t="str">
+        <v>1589</v>
+      </c>
+      <c r="C8" t="str">
+        <v>121</v>
+      </c>
+      <c r="D8" t="str">
+        <v>4</v>
+      </c>
+      <c r="E8" t="str">
+        <v>237</v>
+      </c>
+      <c r="F8" t="str">
+        <v>362</v>
+      </c>
+      <c r="G8" t="str">
+        <v>20.9300</v>
+      </c>
+      <c r="H8" t="str">
+        <v>1376</v>
+      </c>
+      <c r="I8" t="str">
+        <v>20.9300</v>
+      </c>
+      <c r="J8" t="str">
+        <v>4.1860</v>
+      </c>
+      <c r="K8" t="str">
+        <v>25.1160</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="9">
+      <c r="A9" t="str">
+        <v>yaseregypt1</v>
+      </c>
+      <c r="B9" t="str">
+        <v>1559</v>
+      </c>
+      <c r="C9" t="str">
+        <v>121</v>
+      </c>
+      <c r="D9" t="str">
+        <v>7</v>
+      </c>
+      <c r="E9" t="str">
+        <v>166</v>
+      </c>
+      <c r="F9" t="str">
+        <v>294</v>
+      </c>
+      <c r="G9" t="str">
+        <v>21.2000</v>
+      </c>
+      <c r="H9" t="str">
+        <v>871</v>
+      </c>
+      <c r="I9" t="str">
+        <v>21.2000</v>
+      </c>
+      <c r="J9" t="str">
+        <v>4.2400</v>
+      </c>
+      <c r="K9" t="str">
+        <v>25.4400</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="10">
+      <c r="A10" t="str">
+        <v>rashadegypt1</v>
+      </c>
+      <c r="B10" t="str">
+        <v>1524</v>
+      </c>
+      <c r="C10" t="str">
+        <v>124</v>
+      </c>
+      <c r="D10" t="str">
+        <v>4</v>
+      </c>
+      <c r="E10" t="str">
+        <v>147</v>
+      </c>
+      <c r="F10" t="str">
+        <v>275</v>
+      </c>
+      <c r="G10" t="str">
+        <v>21.4400</v>
+      </c>
+      <c r="H10" t="str">
+        <v>601</v>
+      </c>
+      <c r="I10" t="str">
+        <v>21.4400</v>
+      </c>
+      <c r="J10" t="str">
+        <v>4.2880</v>
+      </c>
+      <c r="K10" t="str">
+        <v>25.7280</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="11">
+      <c r="A11" t="str">
+        <v>chatting032</v>
+      </c>
+      <c r="B11" t="str">
+        <v>1208</v>
+      </c>
+      <c r="C11" t="str">
+        <v>119</v>
+      </c>
+      <c r="D11" t="str">
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <v>185</v>
+      </c>
+      <c r="F11" t="str">
+        <v>304</v>
+      </c>
+      <c r="G11" t="str">
+        <v>20.2300</v>
+      </c>
+      <c r="H11" t="str">
+        <v>1304</v>
+      </c>
+      <c r="I11" t="str">
+        <v>20.2300</v>
+      </c>
+      <c r="J11" t="str">
+        <v>4.0460</v>
+      </c>
+      <c r="K11" t="str">
+        <v>24.2760</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="12">
+      <c r="A12" t="str">
+        <v>chatting031</v>
+      </c>
+      <c r="B12" t="str">
+        <v>1440</v>
+      </c>
+      <c r="C12" t="str">
+        <v>96</v>
+      </c>
+      <c r="D12" t="str">
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <v>145</v>
+      </c>
+      <c r="F12" t="str">
+        <v>241</v>
+      </c>
+      <c r="G12" t="str">
+        <v>16.3200</v>
+      </c>
+      <c r="H12" t="str">
+        <v>1425</v>
+      </c>
+      <c r="I12" t="str">
+        <v>16.3200</v>
+      </c>
+      <c r="J12" t="str">
+        <v>3.2640</v>
+      </c>
+      <c r="K12" t="str">
+        <v>19.5840</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="13">
+      <c r="A13" t="str">
+        <v>chatting023</v>
+      </c>
+      <c r="B13" t="str">
+        <v>999</v>
+      </c>
+      <c r="C13" t="str">
+        <v>79</v>
+      </c>
+      <c r="D13" t="str">
+        <v>2</v>
+      </c>
+      <c r="E13" t="str">
+        <v>168</v>
+      </c>
+      <c r="F13" t="str">
+        <v>249</v>
+      </c>
+      <c r="G13" t="str">
+        <v>13.6100</v>
+      </c>
+      <c r="H13" t="str">
+        <v>527</v>
+      </c>
+      <c r="I13" t="str">
+        <v>13.6100</v>
+      </c>
+      <c r="J13" t="str">
+        <v>2.7220</v>
+      </c>
+      <c r="K13" t="str">
+        <v>16.3320</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="14">
+      <c r="A14" t="str">
+        <v>chatting017</v>
+      </c>
+      <c r="B14" t="str">
+        <v>949</v>
+      </c>
+      <c r="C14" t="str">
+        <v>96</v>
+      </c>
+      <c r="D14" t="str">
+        <v>0</v>
+      </c>
+      <c r="E14" t="str">
+        <v>101</v>
+      </c>
+      <c r="F14" t="str">
+        <v>197</v>
+      </c>
+      <c r="G14" t="str">
+        <v>16.3200</v>
+      </c>
+      <c r="H14" t="str">
+        <v>856</v>
+      </c>
+      <c r="I14" t="str">
+        <v>16.3200</v>
+      </c>
+      <c r="J14" t="str">
+        <v>3.2640</v>
+      </c>
+      <c r="K14" t="str">
+        <v>19.5840</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="15">
+      <c r="A15" t="str">
+        <v>chatting035</v>
+      </c>
+      <c r="B15" t="str">
+        <v>976</v>
+      </c>
+      <c r="C15" t="str">
+        <v>80</v>
+      </c>
+      <c r="D15" t="str">
         <v>1</v>
       </c>
-      <c r="M2" s="2" t="str">
+      <c r="E15" t="str">
+        <v>82</v>
+      </c>
+      <c r="F15" t="str">
+        <v>163</v>
+      </c>
+      <c r="G15" t="str">
+        <v>13.6900</v>
+      </c>
+      <c r="H15" t="str">
+        <v>1020</v>
+      </c>
+      <c r="I15" t="str">
+        <v>13.6900</v>
+      </c>
+      <c r="J15" t="str">
+        <v>2.7380</v>
+      </c>
+      <c r="K15" t="str">
+        <v>16.4280</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="16">
+      <c r="A16" t="str">
+        <v>chatting05</v>
+      </c>
+      <c r="B16" t="str">
+        <v>843</v>
+      </c>
+      <c r="C16" t="str">
+        <v>59</v>
+      </c>
+      <c r="D16" t="str">
+        <v>0</v>
+      </c>
+      <c r="E16" t="str">
+        <v>177</v>
+      </c>
+      <c r="F16" t="str">
+        <v>236</v>
+      </c>
+      <c r="G16" t="str">
+        <v>10.0300</v>
+      </c>
+      <c r="H16" t="str">
+        <v>641</v>
+      </c>
+      <c r="I16" t="str">
+        <v>10.0300</v>
+      </c>
+      <c r="J16" t="str">
+        <v>2.0060</v>
+      </c>
+      <c r="K16" t="str">
+        <v>12.0360</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="17">
+      <c r="A17" t="str">
+        <v>chatting022</v>
+      </c>
+      <c r="B17" t="str">
+        <v>886</v>
+      </c>
+      <c r="C17" t="str">
+        <v>83</v>
+      </c>
+      <c r="D17" t="str">
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
+        <v>52</v>
+      </c>
+      <c r="F17" t="str">
+        <v>135</v>
+      </c>
+      <c r="G17" t="str">
+        <v>14.1100</v>
+      </c>
+      <c r="H17" t="str">
+        <v>792</v>
+      </c>
+      <c r="I17" t="str">
+        <v>14.1100</v>
+      </c>
+      <c r="J17" t="str">
+        <v>2.8220</v>
+      </c>
+      <c r="K17" t="str">
+        <v>16.9320</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="18">
+      <c r="A18" t="str">
+        <v>ahmedegypt1</v>
+      </c>
+      <c r="B18" t="str">
+        <v>795</v>
+      </c>
+      <c r="C18" t="str">
+        <v>61</v>
+      </c>
+      <c r="D18" t="str">
+        <v>0</v>
+      </c>
+      <c r="E18" t="str">
+        <v>112</v>
+      </c>
+      <c r="F18" t="str">
+        <v>173</v>
+      </c>
+      <c r="G18" t="str">
+        <v>10.3700</v>
+      </c>
+      <c r="H18" t="str">
+        <v>1351</v>
+      </c>
+      <c r="I18" t="str">
+        <v>10.3700</v>
+      </c>
+      <c r="J18" t="str">
+        <v>2.0740</v>
+      </c>
+      <c r="K18" t="str">
+        <v>12.4440</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="19">
+      <c r="A19" t="str">
+        <v>chatting02</v>
+      </c>
+      <c r="B19" t="str">
+        <v>824</v>
+      </c>
+      <c r="C19" t="str">
+        <v>55</v>
+      </c>
+      <c r="D19" t="str">
         <v>1</v>
+      </c>
+      <c r="E19" t="str">
+        <v>67</v>
+      </c>
+      <c r="F19" t="str">
+        <v>123</v>
+      </c>
+      <c r="G19" t="str">
+        <v>9.4400</v>
+      </c>
+      <c r="H19" t="str">
+        <v>971</v>
+      </c>
+      <c r="I19" t="str">
+        <v>9.4400</v>
+      </c>
+      <c r="J19" t="str">
+        <v>1.8880</v>
+      </c>
+      <c r="K19" t="str">
+        <v>11.3280</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="20">
+      <c r="A20" t="str">
+        <v>chatting03</v>
+      </c>
+      <c r="B20" t="str">
+        <v>697</v>
+      </c>
+      <c r="C20" t="str">
+        <v>41</v>
+      </c>
+      <c r="D20" t="str">
+        <v>1</v>
+      </c>
+      <c r="E20" t="str">
+        <v>125</v>
+      </c>
+      <c r="F20" t="str">
+        <v>167</v>
+      </c>
+      <c r="G20" t="str">
+        <v>7.0600</v>
+      </c>
+      <c r="H20" t="str">
+        <v>855</v>
+      </c>
+      <c r="I20" t="str">
+        <v>7.0600</v>
+      </c>
+      <c r="J20" t="str">
+        <v>1.4120</v>
+      </c>
+      <c r="K20" t="str">
+        <v>8.4720</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="21">
+      <c r="A21" t="str">
+        <v>chatting015</v>
+      </c>
+      <c r="B21" t="str">
+        <v>555</v>
+      </c>
+      <c r="C21" t="str">
+        <v>51</v>
+      </c>
+      <c r="D21" t="str">
+        <v>0</v>
+      </c>
+      <c r="E21" t="str">
+        <v>104</v>
+      </c>
+      <c r="F21" t="str">
+        <v>155</v>
+      </c>
+      <c r="G21" t="str">
+        <v>8.6700</v>
+      </c>
+      <c r="H21" t="str">
+        <v>1406</v>
+      </c>
+      <c r="I21" t="str">
+        <v>8.6700</v>
+      </c>
+      <c r="J21" t="str">
+        <v>1.7340</v>
+      </c>
+      <c r="K21" t="str">
+        <v>10.4040</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="22">
+      <c r="A22" t="str">
+        <v>chatting033</v>
+      </c>
+      <c r="B22" t="str">
+        <v>668</v>
+      </c>
+      <c r="C22" t="str">
+        <v>38</v>
+      </c>
+      <c r="D22" t="str">
+        <v>4</v>
+      </c>
+      <c r="E22" t="str">
+        <v>62</v>
+      </c>
+      <c r="F22" t="str">
+        <v>104</v>
+      </c>
+      <c r="G22" t="str">
+        <v>6.8200</v>
+      </c>
+      <c r="H22" t="str">
+        <v>219</v>
+      </c>
+      <c r="I22" t="str">
+        <v>6.8200</v>
+      </c>
+      <c r="J22" t="str">
+        <v>1.3640</v>
+      </c>
+      <c r="K22" t="str">
+        <v>8.1840</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="23">
+      <c r="A23" t="str">
+        <v>chatting037</v>
+      </c>
+      <c r="B23" t="str">
+        <v>341</v>
+      </c>
+      <c r="C23" t="str">
+        <v>13</v>
+      </c>
+      <c r="D23" t="str">
+        <v>6</v>
+      </c>
+      <c r="E23" t="str">
+        <v>85</v>
+      </c>
+      <c r="F23" t="str">
+        <v>104</v>
+      </c>
+      <c r="G23" t="str">
+        <v>2.7500</v>
+      </c>
+      <c r="H23" t="str">
+        <v>1433</v>
+      </c>
+      <c r="I23" t="str">
+        <v>2.7500</v>
+      </c>
+      <c r="J23" t="str">
+        <v>0.5500</v>
+      </c>
+      <c r="K23" t="str">
+        <v>3.3000</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="24">
+      <c r="A24" t="str">
+        <v>chatting038</v>
+      </c>
+      <c r="B24" t="str">
+        <v>207</v>
+      </c>
+      <c r="C24" t="str">
+        <v>4</v>
+      </c>
+      <c r="D24" t="str">
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
+        <v>79</v>
+      </c>
+      <c r="F24" t="str">
+        <v>83</v>
+      </c>
+      <c r="G24" t="str">
+        <v>0.6800</v>
+      </c>
+      <c r="H24" t="str">
+        <v>911</v>
+      </c>
+      <c r="I24" t="str">
+        <v>0.6800</v>
+      </c>
+      <c r="J24" t="str">
+        <v>0.1360</v>
+      </c>
+      <c r="K24" t="str">
+        <v>0.8160</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="25">
+      <c r="A25" t="str">
+        <v>APP009</v>
+      </c>
+      <c r="B25" t="str">
+        <v>166</v>
+      </c>
+      <c r="C25" t="str">
+        <v>5</v>
+      </c>
+      <c r="D25" t="str">
+        <v>1</v>
+      </c>
+      <c r="E25" t="str">
+        <v>52</v>
+      </c>
+      <c r="F25" t="str">
+        <v>58</v>
+      </c>
+      <c r="G25" t="str">
+        <v>0.9400</v>
+      </c>
+      <c r="H25" t="str">
+        <v>114</v>
+      </c>
+      <c r="I25" t="str">
+        <v>0.9400</v>
+      </c>
+      <c r="J25" t="str">
+        <v>0.1880</v>
+      </c>
+      <c r="K25" t="str">
+        <v>1.1280</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="26">
+      <c r="A26" t="str">
+        <v>chatting039</v>
+      </c>
+      <c r="B26" t="str">
+        <v>93</v>
+      </c>
+      <c r="C26" t="str">
+        <v>2</v>
+      </c>
+      <c r="D26" t="str">
+        <v>0</v>
+      </c>
+      <c r="E26" t="str">
+        <v>53</v>
+      </c>
+      <c r="F26" t="str">
+        <v>55</v>
+      </c>
+      <c r="G26" t="str">
+        <v>0.3400</v>
+      </c>
+      <c r="H26" t="str">
+        <v>75</v>
+      </c>
+      <c r="I26" t="str">
+        <v>0.3400</v>
+      </c>
+      <c r="J26" t="str">
+        <v>0.0680</v>
+      </c>
+      <c r="K26" t="str">
+        <v>0.4080</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="27">
+      <c r="A27" t="str">
+        <v>APP001</v>
+      </c>
+      <c r="B27" t="str">
+        <v>57</v>
+      </c>
+      <c r="C27" t="str">
+        <v>0</v>
+      </c>
+      <c r="D27" t="str">
+        <v>0</v>
+      </c>
+      <c r="E27" t="str">
+        <v>56</v>
+      </c>
+      <c r="F27" t="str">
+        <v>56</v>
+      </c>
+      <c r="G27" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="H27" t="str">
+        <v>11</v>
+      </c>
+      <c r="I27" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="J27" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="K27" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="28">
+      <c r="A28" t="str">
+        <v>chatting06</v>
+      </c>
+      <c r="B28" t="str">
+        <v>62</v>
+      </c>
+      <c r="C28" t="str">
+        <v>0</v>
+      </c>
+      <c r="D28" t="str">
+        <v>0</v>
+      </c>
+      <c r="E28" t="str">
+        <v>51</v>
+      </c>
+      <c r="F28" t="str">
+        <v>51</v>
+      </c>
+      <c r="G28" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="H28" t="str">
+        <v>1305</v>
+      </c>
+      <c r="I28" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="J28" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="K28" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="29">
+      <c r="A29" t="str">
+        <v>APP010</v>
+      </c>
+      <c r="B29" t="str">
+        <v>35</v>
+      </c>
+      <c r="C29" t="str">
+        <v>0</v>
+      </c>
+      <c r="D29" t="str">
+        <v>0</v>
+      </c>
+      <c r="E29" t="str">
+        <v>20</v>
+      </c>
+      <c r="F29" t="str">
+        <v>20</v>
+      </c>
+      <c r="G29" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="H29" t="str">
+        <v>17</v>
+      </c>
+      <c r="I29" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="J29" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="K29" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="30">
+      <c r="A30" t="str">
+        <v>APP008</v>
+      </c>
+      <c r="B30" t="str">
+        <v>19</v>
+      </c>
+      <c r="C30" t="str">
+        <v>0</v>
+      </c>
+      <c r="D30" t="str">
+        <v>0</v>
+      </c>
+      <c r="E30" t="str">
+        <v>19</v>
+      </c>
+      <c r="F30" t="str">
+        <v>19</v>
+      </c>
+      <c r="G30" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="H30" t="str">
+        <v>19</v>
+      </c>
+      <c r="I30" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="J30" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="K30" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="31">
+      <c r="A31" t="str">
+        <v>chatting040</v>
+      </c>
+      <c r="B31" t="str">
+        <v>15</v>
+      </c>
+      <c r="C31" t="str">
+        <v>0</v>
+      </c>
+      <c r="D31" t="str">
+        <v>0</v>
+      </c>
+      <c r="E31" t="str">
+        <v>13</v>
+      </c>
+      <c r="F31" t="str">
+        <v>13</v>
+      </c>
+      <c r="G31" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="H31" t="str">
+        <v>16</v>
+      </c>
+      <c r="I31" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="J31" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="K31" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="32">
+      <c r="A32" t="str">
+        <v>chatting016</v>
+      </c>
+      <c r="B32" t="str">
+        <v>12</v>
+      </c>
+      <c r="C32" t="str">
+        <v>0</v>
+      </c>
+      <c r="D32" t="str">
+        <v>1</v>
+      </c>
+      <c r="E32" t="str">
+        <v>2</v>
+      </c>
+      <c r="F32" t="str">
+        <v>3</v>
+      </c>
+      <c r="G32" t="str">
+        <v>0.0900</v>
+      </c>
+      <c r="H32" t="str">
+        <v>696</v>
+      </c>
+      <c r="I32" t="str">
+        <v>0.0900</v>
+      </c>
+      <c r="J32" t="str">
+        <v>0.0180</v>
+      </c>
+      <c r="K32" t="str">
+        <v>0.1080</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="33">
+      <c r="A33" t="str">
+        <v>xiaoxiaohe</v>
+      </c>
+      <c r="B33" t="str">
+        <v>9</v>
+      </c>
+      <c r="C33" t="str">
+        <v>0</v>
+      </c>
+      <c r="D33" t="str">
+        <v>0</v>
+      </c>
+      <c r="E33" t="str">
+        <v>2</v>
+      </c>
+      <c r="F33" t="str">
+        <v>2</v>
+      </c>
+      <c r="G33" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="H33" t="str">
+        <v>269</v>
+      </c>
+      <c r="I33" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="J33" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="K33" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="34">
+      <c r="A34" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B34" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C34" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D34" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E34" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F34" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G34" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="H34" t="str">
+        <v>总工资:</v>
+      </c>
+      <c r="I34" t="str">
+        <v>326.5100</v>
+      </c>
+      <c r="J34" t="str">
+        <v>65.3020</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="35">
+      <c r="A35" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B35" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C35" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D35" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E35" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F35" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G35" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="H35" t="str">
+        <v>平均工资:</v>
+      </c>
+      <c r="I35" t="str">
+        <v>10.5326</v>
+      </c>
+      <c r="J35" t="str">
+        <v>2.1065</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="36">
+      <c r="A36" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B36" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C36" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D36" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E36" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F36" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G36" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="H36" t="str">
+        <v>大与7个数:</v>
+      </c>
+      <c r="I36" t="str">
+        <v>2215</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="37">
+      <c r="A37" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B37" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C37" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D37" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E37" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F37" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G37" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="H37" t="str">
+        <v>高于平均工资人数:</v>
+      </c>
+      <c r="I37" t="str">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -476,8 +1647,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/陪聊数据统计.xlsx
+++ b/陪聊数据统计.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="20190710 05点-20190711 05点" sheetId="1" r:id="rId1"/>
+    <sheet name="20190716 05点-20190717 05点" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -431,422 +431,422 @@
     </row>
     <row customHeight="true" ht="28" r="3">
       <c r="A3" t="str">
-        <v>chatting013</v>
+        <v>chatting034</v>
       </c>
       <c r="B3" t="str">
-        <v>2314</v>
+        <v>2722</v>
       </c>
       <c r="C3" t="str">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D3" t="str">
         <v>0</v>
       </c>
       <c r="E3" t="str">
-        <v>312</v>
+        <v>200</v>
       </c>
       <c r="F3" t="str">
-        <v>465</v>
+        <v>358</v>
       </c>
       <c r="G3" t="str">
-        <v>26.0100</v>
+        <v>26.8600</v>
       </c>
       <c r="H3" t="str">
-        <v>1245</v>
+        <v>812</v>
       </c>
       <c r="I3" t="str">
-        <v>26.0100</v>
+        <v>26.8600</v>
       </c>
       <c r="J3" t="str">
-        <v>5.2020</v>
+        <v>5.3720</v>
       </c>
       <c r="K3" t="str">
-        <v>31.2120</v>
+        <v>32.2320</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="4">
       <c r="A4" t="str">
-        <v>mohammedegypt1</v>
+        <v>yaseregypt1</v>
       </c>
       <c r="B4" t="str">
-        <v>2361</v>
+        <v>2226</v>
       </c>
       <c r="C4" t="str">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="D4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="str">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c r="F4" t="str">
-        <v>158</v>
+        <v>311</v>
       </c>
       <c r="G4" t="str">
-        <v>17.0000</v>
+        <v>26.6100</v>
       </c>
       <c r="H4" t="str">
-        <v>989</v>
+        <v>940</v>
       </c>
       <c r="I4" t="str">
-        <v>17.0000</v>
+        <v>26.6100</v>
       </c>
       <c r="J4" t="str">
-        <v>3.4000</v>
+        <v>5.3220</v>
       </c>
       <c r="K4" t="str">
-        <v>20.4000</v>
+        <v>31.9320</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="5">
       <c r="A5" t="str">
-        <v>chatting036</v>
+        <v>rashadegypt1</v>
       </c>
       <c r="B5" t="str">
-        <v>1723</v>
+        <v>2013</v>
       </c>
       <c r="C5" t="str">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="D5" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="str">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="F5" t="str">
-        <v>326</v>
+        <v>378</v>
       </c>
       <c r="G5" t="str">
-        <v>23.3000</v>
+        <v>26.3500</v>
       </c>
       <c r="H5" t="str">
-        <v>989</v>
+        <v>818</v>
       </c>
       <c r="I5" t="str">
-        <v>23.3000</v>
+        <v>26.3500</v>
       </c>
       <c r="J5" t="str">
-        <v>4.6600</v>
+        <v>5.2700</v>
       </c>
       <c r="K5" t="str">
-        <v>27.9600</v>
+        <v>31.6200</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="6">
       <c r="A6" t="str">
-        <v>chatting014</v>
+        <v>mohammedegypt1</v>
       </c>
       <c r="B6" t="str">
-        <v>1564</v>
+        <v>2083</v>
       </c>
       <c r="C6" t="str">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="D6" t="str">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="str">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="F6" t="str">
-        <v>377</v>
+        <v>177</v>
       </c>
       <c r="G6" t="str">
-        <v>22.3800</v>
+        <v>16.1500</v>
       </c>
       <c r="H6" t="str">
-        <v>752</v>
+        <v>632</v>
       </c>
       <c r="I6" t="str">
-        <v>22.3800</v>
+        <v>16.1500</v>
       </c>
       <c r="J6" t="str">
-        <v>4.4760</v>
+        <v>3.2300</v>
       </c>
       <c r="K6" t="str">
-        <v>26.8560</v>
+        <v>19.3800</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="7">
       <c r="A7" t="str">
-        <v>chatting034</v>
+        <v>chatting013</v>
       </c>
       <c r="B7" t="str">
-        <v>1685</v>
+        <v>1448</v>
       </c>
       <c r="C7" t="str">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D7" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="str">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="F7" t="str">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="G7" t="str">
-        <v>22.7800</v>
+        <v>20.8300</v>
       </c>
       <c r="H7" t="str">
-        <v>498</v>
+        <v>1394</v>
       </c>
       <c r="I7" t="str">
-        <v>22.7800</v>
+        <v>20.8300</v>
       </c>
       <c r="J7" t="str">
-        <v>4.5560</v>
+        <v>4.1660</v>
       </c>
       <c r="K7" t="str">
-        <v>27.3360</v>
+        <v>24.9960</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="8">
       <c r="A8" t="str">
-        <v>yousefegypt1</v>
+        <v>chatting022</v>
       </c>
       <c r="B8" t="str">
-        <v>1589</v>
+        <v>1240</v>
       </c>
       <c r="C8" t="str">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D8" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E8" t="str">
-        <v>237</v>
+        <v>64</v>
       </c>
       <c r="F8" t="str">
-        <v>362</v>
+        <v>191</v>
       </c>
       <c r="G8" t="str">
-        <v>20.9300</v>
+        <v>21.5900</v>
       </c>
       <c r="H8" t="str">
-        <v>1376</v>
+        <v>671</v>
       </c>
       <c r="I8" t="str">
-        <v>20.9300</v>
+        <v>21.5900</v>
       </c>
       <c r="J8" t="str">
-        <v>4.1860</v>
+        <v>4.3180</v>
       </c>
       <c r="K8" t="str">
-        <v>25.1160</v>
+        <v>25.9080</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="9">
       <c r="A9" t="str">
-        <v>yaseregypt1</v>
+        <v>chatting031</v>
       </c>
       <c r="B9" t="str">
-        <v>1559</v>
+        <v>1440</v>
       </c>
       <c r="C9" t="str">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="D9" t="str">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E9" t="str">
-        <v>166</v>
+        <v>64</v>
       </c>
       <c r="F9" t="str">
-        <v>294</v>
+        <v>157</v>
       </c>
       <c r="G9" t="str">
-        <v>21.2000</v>
+        <v>15.7300</v>
       </c>
       <c r="H9" t="str">
-        <v>871</v>
+        <v>368</v>
       </c>
       <c r="I9" t="str">
-        <v>21.2000</v>
+        <v>15.7300</v>
       </c>
       <c r="J9" t="str">
-        <v>4.2400</v>
+        <v>3.1460</v>
       </c>
       <c r="K9" t="str">
-        <v>25.4400</v>
+        <v>18.8760</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="10">
       <c r="A10" t="str">
-        <v>rashadegypt1</v>
+        <v>yousefegypt1</v>
       </c>
       <c r="B10" t="str">
-        <v>1524</v>
+        <v>1270</v>
       </c>
       <c r="C10" t="str">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="D10" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" t="str">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="F10" t="str">
-        <v>275</v>
+        <v>213</v>
       </c>
       <c r="G10" t="str">
-        <v>21.4400</v>
+        <v>15.0700</v>
       </c>
       <c r="H10" t="str">
-        <v>601</v>
+        <v>1207</v>
       </c>
       <c r="I10" t="str">
-        <v>21.4400</v>
+        <v>15.0700</v>
       </c>
       <c r="J10" t="str">
-        <v>4.2880</v>
+        <v>3.0140</v>
       </c>
       <c r="K10" t="str">
-        <v>25.7280</v>
+        <v>18.0840</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="11">
       <c r="A11" t="str">
-        <v>chatting032</v>
+        <v>chatting05</v>
       </c>
       <c r="B11" t="str">
-        <v>1208</v>
+        <v>1219</v>
       </c>
       <c r="C11" t="str">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="D11" t="str">
         <v>0</v>
       </c>
       <c r="E11" t="str">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="F11" t="str">
-        <v>304</v>
+        <v>213</v>
       </c>
       <c r="G11" t="str">
-        <v>20.2300</v>
+        <v>15.3000</v>
       </c>
       <c r="H11" t="str">
-        <v>1304</v>
+        <v>1249</v>
       </c>
       <c r="I11" t="str">
-        <v>20.2300</v>
+        <v>15.3000</v>
       </c>
       <c r="J11" t="str">
-        <v>4.0460</v>
+        <v>3.0600</v>
       </c>
       <c r="K11" t="str">
-        <v>24.2760</v>
+        <v>18.3600</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="12">
       <c r="A12" t="str">
-        <v>chatting031</v>
+        <v>chatting037</v>
       </c>
       <c r="B12" t="str">
-        <v>1440</v>
+        <v>1175</v>
       </c>
       <c r="C12" t="str">
         <v>96</v>
       </c>
       <c r="D12" t="str">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E12" t="str">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="F12" t="str">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="G12" t="str">
-        <v>16.3200</v>
+        <v>16.7700</v>
       </c>
       <c r="H12" t="str">
-        <v>1425</v>
+        <v>1360</v>
       </c>
       <c r="I12" t="str">
-        <v>16.3200</v>
+        <v>16.7700</v>
       </c>
       <c r="J12" t="str">
-        <v>3.2640</v>
+        <v>3.3540</v>
       </c>
       <c r="K12" t="str">
-        <v>19.5840</v>
+        <v>20.1240</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="13">
       <c r="A13" t="str">
-        <v>chatting023</v>
+        <v>chatting02</v>
       </c>
       <c r="B13" t="str">
-        <v>999</v>
+        <v>1215</v>
       </c>
       <c r="C13" t="str">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D13" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" t="str">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="F13" t="str">
-        <v>249</v>
+        <v>155</v>
       </c>
       <c r="G13" t="str">
-        <v>13.6100</v>
+        <v>15.4700</v>
       </c>
       <c r="H13" t="str">
-        <v>527</v>
+        <v>899</v>
       </c>
       <c r="I13" t="str">
-        <v>13.6100</v>
+        <v>15.4700</v>
       </c>
       <c r="J13" t="str">
-        <v>2.7220</v>
+        <v>3.0940</v>
       </c>
       <c r="K13" t="str">
-        <v>16.3320</v>
+        <v>18.5640</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="14">
       <c r="A14" t="str">
-        <v>chatting017</v>
+        <v>chatting014</v>
       </c>
       <c r="B14" t="str">
-        <v>949</v>
+        <v>1093</v>
       </c>
       <c r="C14" t="str">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D14" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14" t="str">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F14" t="str">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="G14" t="str">
-        <v>16.3200</v>
+        <v>16.0800</v>
       </c>
       <c r="H14" t="str">
-        <v>856</v>
+        <v>964</v>
       </c>
       <c r="I14" t="str">
-        <v>16.3200</v>
+        <v>16.0800</v>
       </c>
       <c r="J14" t="str">
-        <v>3.2640</v>
+        <v>3.2160</v>
       </c>
       <c r="K14" t="str">
-        <v>19.5840</v>
+        <v>19.2960</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="15">
@@ -854,567 +854,567 @@
         <v>chatting035</v>
       </c>
       <c r="B15" t="str">
-        <v>976</v>
+        <v>1076</v>
       </c>
       <c r="C15" t="str">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D15" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="str">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F15" t="str">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G15" t="str">
-        <v>13.6900</v>
+        <v>13.7700</v>
       </c>
       <c r="H15" t="str">
-        <v>1020</v>
+        <v>1091</v>
       </c>
       <c r="I15" t="str">
-        <v>13.6900</v>
+        <v>13.7700</v>
       </c>
       <c r="J15" t="str">
-        <v>2.7380</v>
+        <v>2.7540</v>
       </c>
       <c r="K15" t="str">
-        <v>16.4280</v>
+        <v>16.5240</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="16">
       <c r="A16" t="str">
-        <v>chatting05</v>
+        <v>ahmedegypt1</v>
       </c>
       <c r="B16" t="str">
-        <v>843</v>
+        <v>982</v>
       </c>
       <c r="C16" t="str">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="D16" t="str">
         <v>0</v>
       </c>
       <c r="E16" t="str">
-        <v>177</v>
+        <v>68</v>
       </c>
       <c r="F16" t="str">
-        <v>236</v>
+        <v>162</v>
       </c>
       <c r="G16" t="str">
-        <v>10.0300</v>
+        <v>15.9800</v>
       </c>
       <c r="H16" t="str">
-        <v>641</v>
+        <v>1420</v>
       </c>
       <c r="I16" t="str">
-        <v>10.0300</v>
+        <v>15.9800</v>
       </c>
       <c r="J16" t="str">
-        <v>2.0060</v>
+        <v>3.1960</v>
       </c>
       <c r="K16" t="str">
-        <v>12.0360</v>
+        <v>19.1760</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="17">
       <c r="A17" t="str">
-        <v>chatting022</v>
+        <v>chatting032</v>
       </c>
       <c r="B17" t="str">
-        <v>886</v>
+        <v>914</v>
       </c>
       <c r="C17" t="str">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D17" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="str">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F17" t="str">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G17" t="str">
-        <v>14.1100</v>
+        <v>16.2400</v>
       </c>
       <c r="H17" t="str">
-        <v>792</v>
+        <v>804</v>
       </c>
       <c r="I17" t="str">
-        <v>14.1100</v>
+        <v>16.2400</v>
       </c>
       <c r="J17" t="str">
-        <v>2.8220</v>
+        <v>3.2480</v>
       </c>
       <c r="K17" t="str">
-        <v>16.9320</v>
+        <v>19.4880</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="18">
       <c r="A18" t="str">
-        <v>ahmedegypt1</v>
+        <v>chatting015</v>
       </c>
       <c r="B18" t="str">
-        <v>795</v>
+        <v>978</v>
       </c>
       <c r="C18" t="str">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D18" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" t="str">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="F18" t="str">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="G18" t="str">
-        <v>10.3700</v>
+        <v>10.3000</v>
       </c>
       <c r="H18" t="str">
-        <v>1351</v>
+        <v>1025</v>
       </c>
       <c r="I18" t="str">
-        <v>10.3700</v>
+        <v>10.3000</v>
       </c>
       <c r="J18" t="str">
-        <v>2.0740</v>
+        <v>2.0600</v>
       </c>
       <c r="K18" t="str">
-        <v>12.4440</v>
+        <v>12.3600</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="19">
       <c r="A19" t="str">
-        <v>chatting02</v>
+        <v>chatting023</v>
       </c>
       <c r="B19" t="str">
-        <v>824</v>
+        <v>859</v>
       </c>
       <c r="C19" t="str">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D19" t="str">
         <v>1</v>
       </c>
       <c r="E19" t="str">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F19" t="str">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G19" t="str">
-        <v>9.4400</v>
+        <v>14.2000</v>
       </c>
       <c r="H19" t="str">
-        <v>971</v>
+        <v>1417</v>
       </c>
       <c r="I19" t="str">
-        <v>9.4400</v>
+        <v>14.2000</v>
       </c>
       <c r="J19" t="str">
-        <v>1.8880</v>
+        <v>2.8400</v>
       </c>
       <c r="K19" t="str">
-        <v>11.3280</v>
+        <v>17.0400</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="20">
       <c r="A20" t="str">
-        <v>chatting03</v>
+        <v>chatting016</v>
       </c>
       <c r="B20" t="str">
-        <v>697</v>
+        <v>926</v>
       </c>
       <c r="C20" t="str">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D20" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="str">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="F20" t="str">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="G20" t="str">
-        <v>7.0600</v>
+        <v>10.7100</v>
       </c>
       <c r="H20" t="str">
-        <v>855</v>
+        <v>991</v>
       </c>
       <c r="I20" t="str">
-        <v>7.0600</v>
+        <v>10.7100</v>
       </c>
       <c r="J20" t="str">
-        <v>1.4120</v>
+        <v>2.1420</v>
       </c>
       <c r="K20" t="str">
-        <v>8.4720</v>
+        <v>12.8520</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="21">
       <c r="A21" t="str">
-        <v>chatting015</v>
+        <v>chatting021</v>
       </c>
       <c r="B21" t="str">
-        <v>555</v>
+        <v>815</v>
       </c>
       <c r="C21" t="str">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D21" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E21" t="str">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="F21" t="str">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="G21" t="str">
-        <v>8.6700</v>
+        <v>12.6000</v>
       </c>
       <c r="H21" t="str">
-        <v>1406</v>
+        <v>1439</v>
       </c>
       <c r="I21" t="str">
-        <v>8.6700</v>
+        <v>12.6000</v>
       </c>
       <c r="J21" t="str">
-        <v>1.7340</v>
+        <v>2.5200</v>
       </c>
       <c r="K21" t="str">
-        <v>10.4040</v>
+        <v>15.1200</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="22">
       <c r="A22" t="str">
-        <v>chatting033</v>
+        <v>chatting017</v>
       </c>
       <c r="B22" t="str">
-        <v>668</v>
+        <v>747</v>
       </c>
       <c r="C22" t="str">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="D22" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E22" t="str">
         <v>62</v>
       </c>
       <c r="F22" t="str">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="G22" t="str">
-        <v>6.8200</v>
+        <v>13.6000</v>
       </c>
       <c r="H22" t="str">
-        <v>219</v>
+        <v>772</v>
       </c>
       <c r="I22" t="str">
-        <v>6.8200</v>
+        <v>13.6000</v>
       </c>
       <c r="J22" t="str">
-        <v>1.3640</v>
+        <v>2.7200</v>
       </c>
       <c r="K22" t="str">
-        <v>8.1840</v>
+        <v>16.3200</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="23">
       <c r="A23" t="str">
-        <v>chatting037</v>
+        <v>chatting10</v>
       </c>
       <c r="B23" t="str">
-        <v>341</v>
+        <v>666</v>
       </c>
       <c r="C23" t="str">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D23" t="str">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E23" t="str">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="F23" t="str">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G23" t="str">
-        <v>2.7500</v>
+        <v>8.6700</v>
       </c>
       <c r="H23" t="str">
         <v>1433</v>
       </c>
       <c r="I23" t="str">
-        <v>2.7500</v>
+        <v>8.6700</v>
       </c>
       <c r="J23" t="str">
-        <v>0.5500</v>
+        <v>1.7340</v>
       </c>
       <c r="K23" t="str">
-        <v>3.3000</v>
+        <v>10.4040</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="24">
       <c r="A24" t="str">
-        <v>chatting038</v>
+        <v>chatting036</v>
       </c>
       <c r="B24" t="str">
-        <v>207</v>
+        <v>608</v>
       </c>
       <c r="C24" t="str">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D24" t="str">
         <v>0</v>
       </c>
       <c r="E24" t="str">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="F24" t="str">
         <v>83</v>
       </c>
       <c r="G24" t="str">
-        <v>0.6800</v>
+        <v>9.1800</v>
       </c>
       <c r="H24" t="str">
-        <v>911</v>
+        <v>798</v>
       </c>
       <c r="I24" t="str">
-        <v>0.6800</v>
+        <v>9.1800</v>
       </c>
       <c r="J24" t="str">
-        <v>0.1360</v>
+        <v>1.8360</v>
       </c>
       <c r="K24" t="str">
-        <v>0.8160</v>
+        <v>11.0160</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="25">
       <c r="A25" t="str">
-        <v>APP009</v>
+        <v>chatting03</v>
       </c>
       <c r="B25" t="str">
-        <v>166</v>
+        <v>575</v>
       </c>
       <c r="C25" t="str">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D25" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="str">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F25" t="str">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="G25" t="str">
-        <v>0.9400</v>
+        <v>8.6700</v>
       </c>
       <c r="H25" t="str">
-        <v>114</v>
+        <v>504</v>
       </c>
       <c r="I25" t="str">
-        <v>0.9400</v>
+        <v>8.6700</v>
       </c>
       <c r="J25" t="str">
-        <v>0.1880</v>
+        <v>1.7340</v>
       </c>
       <c r="K25" t="str">
-        <v>1.1280</v>
+        <v>10.4040</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="26">
       <c r="A26" t="str">
-        <v>chatting039</v>
+        <v>chatting033</v>
       </c>
       <c r="B26" t="str">
-        <v>93</v>
+        <v>605</v>
       </c>
       <c r="C26" t="str">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D26" t="str">
         <v>0</v>
       </c>
       <c r="E26" t="str">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F26" t="str">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="G26" t="str">
-        <v>0.3400</v>
+        <v>7.8200</v>
       </c>
       <c r="H26" t="str">
-        <v>75</v>
+        <v>803</v>
       </c>
       <c r="I26" t="str">
-        <v>0.3400</v>
+        <v>7.8200</v>
       </c>
       <c r="J26" t="str">
-        <v>0.0680</v>
+        <v>1.5640</v>
       </c>
       <c r="K26" t="str">
-        <v>0.4080</v>
+        <v>9.3840</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="27">
       <c r="A27" t="str">
-        <v>APP001</v>
+        <v>abodullaegypt1</v>
       </c>
       <c r="B27" t="str">
-        <v>57</v>
+        <v>515</v>
       </c>
       <c r="C27" t="str">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D27" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E27" t="str">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="F27" t="str">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="G27" t="str">
-        <v>0.0000</v>
+        <v>6.7300</v>
       </c>
       <c r="H27" t="str">
-        <v>11</v>
+        <v>1153</v>
       </c>
       <c r="I27" t="str">
-        <v>0.0000</v>
+        <v>6.7300</v>
       </c>
       <c r="J27" t="str">
-        <v>0.0000</v>
+        <v>1.3460</v>
       </c>
       <c r="K27" t="str">
-        <v>0.0000</v>
+        <v>8.0760</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="28">
       <c r="A28" t="str">
-        <v>chatting06</v>
+        <v>chatting020</v>
       </c>
       <c r="B28" t="str">
-        <v>62</v>
+        <v>440</v>
       </c>
       <c r="C28" t="str">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D28" t="str">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E28" t="str">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F28" t="str">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="G28" t="str">
-        <v>0.0000</v>
+        <v>5.5700</v>
       </c>
       <c r="H28" t="str">
-        <v>1305</v>
+        <v>759</v>
       </c>
       <c r="I28" t="str">
-        <v>0.0000</v>
+        <v>5.5700</v>
       </c>
       <c r="J28" t="str">
-        <v>0.0000</v>
+        <v>1.1140</v>
       </c>
       <c r="K28" t="str">
-        <v>0.0000</v>
+        <v>6.6840</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="29">
       <c r="A29" t="str">
-        <v>APP010</v>
+        <v>chatting06</v>
       </c>
       <c r="B29" t="str">
-        <v>35</v>
+        <v>384</v>
       </c>
       <c r="C29" t="str">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D29" t="str">
         <v>0</v>
       </c>
       <c r="E29" t="str">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F29" t="str">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="G29" t="str">
-        <v>0.0000</v>
+        <v>6.4600</v>
       </c>
       <c r="H29" t="str">
-        <v>17</v>
+        <v>332</v>
       </c>
       <c r="I29" t="str">
-        <v>0.0000</v>
+        <v>6.4600</v>
       </c>
       <c r="J29" t="str">
-        <v>0.0000</v>
+        <v>1.2920</v>
       </c>
       <c r="K29" t="str">
-        <v>0.0000</v>
+        <v>7.7520</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="30">
       <c r="A30" t="str">
-        <v>APP008</v>
+        <v>chatting040</v>
       </c>
       <c r="B30" t="str">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="C30" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="str">
         <v>0</v>
       </c>
       <c r="E30" t="str">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="F30" t="str">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="G30" t="str">
-        <v>0.0000</v>
+        <v>0.1700</v>
       </c>
       <c r="H30" t="str">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="I30" t="str">
-        <v>0.0000</v>
+        <v>0.1700</v>
       </c>
       <c r="J30" t="str">
-        <v>0.0000</v>
+        <v>0.0340</v>
       </c>
       <c r="K30" t="str">
-        <v>0.0000</v>
+        <v>0.2040</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="31">
       <c r="A31" t="str">
-        <v>chatting040</v>
+        <v>aihaf</v>
       </c>
       <c r="B31" t="str">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C31" t="str">
         <v>0</v>
@@ -1423,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="str">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F31" t="str">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G31" t="str">
         <v>0.0000</v>
       </c>
       <c r="H31" t="str">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="I31" t="str">
         <v>0.0000</v>
@@ -1445,73 +1445,67 @@
       </c>
     </row>
     <row customHeight="true" ht="28" r="32">
-      <c r="A32" t="str">
-        <v>chatting016</v>
-      </c>
-      <c r="B32" t="str">
-        <v>12</v>
-      </c>
-      <c r="C32" t="str">
-        <v>0</v>
-      </c>
-      <c r="D32" t="str">
-        <v>1</v>
-      </c>
-      <c r="E32" t="str">
-        <v>2</v>
-      </c>
-      <c r="F32" t="str">
-        <v>3</v>
-      </c>
-      <c r="G32" t="str">
-        <v>0.0900</v>
+      <c r="A32" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B32" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C32" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D32" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E32" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F32" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G32" t="str" xml:space="preserve">
+        <v> </v>
       </c>
       <c r="H32" t="str">
-        <v>696</v>
+        <v>总工资:</v>
       </c>
       <c r="I32" t="str">
-        <v>0.0900</v>
+        <v>393.4800</v>
       </c>
       <c r="J32" t="str">
-        <v>0.0180</v>
-      </c>
-      <c r="K32" t="str">
-        <v>0.1080</v>
+        <v>78.6960</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="33">
-      <c r="A33" t="str">
-        <v>xiaoxiaohe</v>
-      </c>
-      <c r="B33" t="str">
-        <v>9</v>
-      </c>
-      <c r="C33" t="str">
-        <v>0</v>
-      </c>
-      <c r="D33" t="str">
-        <v>0</v>
-      </c>
-      <c r="E33" t="str">
-        <v>2</v>
-      </c>
-      <c r="F33" t="str">
-        <v>2</v>
-      </c>
-      <c r="G33" t="str">
-        <v>0.0000</v>
+      <c r="A33" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B33" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C33" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D33" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E33" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F33" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G33" t="str" xml:space="preserve">
+        <v> </v>
       </c>
       <c r="H33" t="str">
-        <v>269</v>
+        <v>平均工资:</v>
       </c>
       <c r="I33" t="str">
-        <v>0.0000</v>
+        <v>13.5683</v>
       </c>
       <c r="J33" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="K33" t="str">
-        <v>0.0000</v>
+        <v>2.7137</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="34">
@@ -1537,13 +1531,10 @@
         <v> </v>
       </c>
       <c r="H34" t="str">
-        <v>总工资:</v>
+        <v>大与7个数:</v>
       </c>
       <c r="I34" t="str">
-        <v>326.5100</v>
-      </c>
-      <c r="J34" t="str">
-        <v>65.3020</v>
+        <v>2696</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="35">
@@ -1569,71 +1560,10 @@
         <v> </v>
       </c>
       <c r="H35" t="str">
-        <v>平均工资:</v>
+        <v>高于平均工资人数:</v>
       </c>
       <c r="I35" t="str">
-        <v>10.5326</v>
-      </c>
-      <c r="J35" t="str">
-        <v>2.1065</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="36">
-      <c r="A36" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B36" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C36" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D36" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E36" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F36" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G36" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="H36" t="str">
-        <v>大与7个数:</v>
-      </c>
-      <c r="I36" t="str">
-        <v>2215</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="37">
-      <c r="A37" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B37" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C37" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D37" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E37" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F37" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G37" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="H37" t="str">
-        <v>高于平均工资人数:</v>
-      </c>
-      <c r="I37" t="str">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/陪聊数据统计.xlsx
+++ b/陪聊数据统计.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="20190729 05点-20190730 05点" sheetId="1" r:id="rId1"/>
+    <sheet name="20190730 05点-20190731 05点" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -431,37 +431,37 @@
     </row>
     <row customHeight="true" ht="28" r="3">
       <c r="A3" t="str">
-        <v>chatting015</v>
+        <v>chatting013</v>
       </c>
       <c r="B3" t="str">
-        <v>4249</v>
+        <v>2706</v>
       </c>
       <c r="C3" t="str">
-        <v>252</v>
+        <v>171</v>
       </c>
       <c r="D3" t="str">
         <v>0</v>
       </c>
       <c r="E3" t="str">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="F3" t="str">
-        <v>595</v>
+        <v>564</v>
       </c>
       <c r="G3" t="str">
-        <v>42.8400</v>
+        <v>29.0700</v>
       </c>
       <c r="H3" t="str">
-        <v>661</v>
+        <v>1379</v>
       </c>
       <c r="I3" t="str">
-        <v>42.8400</v>
+        <v>29.0700</v>
       </c>
       <c r="J3" t="str">
-        <v>8.5680</v>
+        <v>5.8140</v>
       </c>
       <c r="K3" t="str">
-        <v>51.4080</v>
+        <v>34.8840</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="4">
@@ -469,34 +469,34 @@
         <v>chatting032</v>
       </c>
       <c r="B4" t="str">
-        <v>2256</v>
+        <v>2343</v>
       </c>
       <c r="C4" t="str">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D4" t="str">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E4" t="str">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="F4" t="str">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="G4" t="str">
-        <v>26.7900</v>
+        <v>29.4700</v>
       </c>
       <c r="H4" t="str">
-        <v>1378</v>
+        <v>1286</v>
       </c>
       <c r="I4" t="str">
-        <v>26.7900</v>
+        <v>29.4700</v>
       </c>
       <c r="J4" t="str">
-        <v>5.3580</v>
+        <v>5.8940</v>
       </c>
       <c r="K4" t="str">
-        <v>32.1480</v>
+        <v>35.3640</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="5">
@@ -504,637 +504,637 @@
         <v>chatting034</v>
       </c>
       <c r="B5" t="str">
-        <v>2140</v>
+        <v>2078</v>
       </c>
       <c r="C5" t="str">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D5" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="str">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="F5" t="str">
-        <v>409</v>
+        <v>383</v>
       </c>
       <c r="G5" t="str">
-        <v>22.0200</v>
+        <v>20.9100</v>
       </c>
       <c r="H5" t="str">
-        <v>747</v>
+        <v>667</v>
       </c>
       <c r="I5" t="str">
-        <v>22.0200</v>
+        <v>20.9100</v>
       </c>
       <c r="J5" t="str">
-        <v>4.4040</v>
+        <v>4.1820</v>
       </c>
       <c r="K5" t="str">
-        <v>26.4240</v>
+        <v>25.0920</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="6">
       <c r="A6" t="str">
-        <v>chatting013</v>
+        <v>rashadegypt1</v>
       </c>
       <c r="B6" t="str">
-        <v>1946</v>
+        <v>1835</v>
       </c>
       <c r="C6" t="str">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D6" t="str">
         <v>0</v>
       </c>
       <c r="E6" t="str">
-        <v>415</v>
+        <v>208</v>
       </c>
       <c r="F6" t="str">
-        <v>532</v>
+        <v>337</v>
       </c>
       <c r="G6" t="str">
-        <v>19.8900</v>
+        <v>21.9300</v>
       </c>
       <c r="H6" t="str">
-        <v>1165</v>
+        <v>873</v>
       </c>
       <c r="I6" t="str">
-        <v>19.8900</v>
+        <v>21.9300</v>
       </c>
       <c r="J6" t="str">
-        <v>3.9780</v>
+        <v>4.3860</v>
       </c>
       <c r="K6" t="str">
-        <v>23.8680</v>
+        <v>26.3160</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="7">
       <c r="A7" t="str">
-        <v>yousefegypt1</v>
+        <v>chatting02</v>
       </c>
       <c r="B7" t="str">
-        <v>2068</v>
+        <v>1993</v>
       </c>
       <c r="C7" t="str">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D7" t="str">
         <v>3</v>
       </c>
       <c r="E7" t="str">
-        <v>223</v>
+        <v>138</v>
       </c>
       <c r="F7" t="str">
-        <v>357</v>
+        <v>259</v>
       </c>
       <c r="G7" t="str">
-        <v>22.5400</v>
+        <v>20.3300</v>
       </c>
       <c r="H7" t="str">
-        <v>1177</v>
+        <v>931</v>
       </c>
       <c r="I7" t="str">
-        <v>22.5400</v>
+        <v>20.3300</v>
       </c>
       <c r="J7" t="str">
-        <v>4.5080</v>
+        <v>4.0660</v>
       </c>
       <c r="K7" t="str">
-        <v>27.0480</v>
+        <v>24.3960</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="8">
       <c r="A8" t="str">
-        <v>chatting014</v>
+        <v>mohammedegypt1</v>
       </c>
       <c r="B8" t="str">
-        <v>1907</v>
+        <v>2435</v>
       </c>
       <c r="C8" t="str">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="D8" t="str">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E8" t="str">
-        <v>235</v>
+        <v>69</v>
       </c>
       <c r="F8" t="str">
-        <v>384</v>
+        <v>161</v>
       </c>
       <c r="G8" t="str">
-        <v>24.4500</v>
+        <v>15.6400</v>
       </c>
       <c r="H8" t="str">
-        <v>1417</v>
+        <v>657</v>
       </c>
       <c r="I8" t="str">
-        <v>24.4500</v>
+        <v>15.6400</v>
       </c>
       <c r="J8" t="str">
-        <v>4.8900</v>
+        <v>3.1280</v>
       </c>
       <c r="K8" t="str">
-        <v>29.3400</v>
+        <v>18.7680</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="9">
       <c r="A9" t="str">
-        <v>chatting02</v>
+        <v>yousefegypt1</v>
       </c>
       <c r="B9" t="str">
-        <v>1951</v>
+        <v>1748</v>
       </c>
       <c r="C9" t="str">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D9" t="str">
         <v>3</v>
       </c>
       <c r="E9" t="str">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="F9" t="str">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="G9" t="str">
-        <v>20.1600</v>
+        <v>19.3100</v>
       </c>
       <c r="H9" t="str">
-        <v>895</v>
+        <v>1014</v>
       </c>
       <c r="I9" t="str">
-        <v>20.1600</v>
+        <v>19.3100</v>
       </c>
       <c r="J9" t="str">
-        <v>4.0320</v>
+        <v>3.8620</v>
       </c>
       <c r="K9" t="str">
-        <v>24.1920</v>
+        <v>23.1720</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="10">
       <c r="A10" t="str">
-        <v>mohammedegypt1</v>
+        <v>yaseregypt1</v>
       </c>
       <c r="B10" t="str">
-        <v>2248</v>
+        <v>1730</v>
       </c>
       <c r="C10" t="str">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="D10" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" t="str">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="F10" t="str">
-        <v>143</v>
+        <v>272</v>
       </c>
       <c r="G10" t="str">
-        <v>15.4700</v>
+        <v>19.2200</v>
       </c>
       <c r="H10" t="str">
-        <v>541</v>
+        <v>877</v>
       </c>
       <c r="I10" t="str">
-        <v>15.4700</v>
+        <v>19.2200</v>
       </c>
       <c r="J10" t="str">
-        <v>3.0940</v>
+        <v>3.8440</v>
       </c>
       <c r="K10" t="str">
-        <v>18.5640</v>
+        <v>23.0640</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="11">
       <c r="A11" t="str">
-        <v>yaseregypt1</v>
+        <v>chatting014</v>
       </c>
       <c r="B11" t="str">
-        <v>1630</v>
+        <v>1276</v>
       </c>
       <c r="C11" t="str">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D11" t="str">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E11" t="str">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="F11" t="str">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="G11" t="str">
-        <v>20.0600</v>
+        <v>18.5600</v>
       </c>
       <c r="H11" t="str">
-        <v>1000</v>
+        <v>1287</v>
       </c>
       <c r="I11" t="str">
-        <v>20.0600</v>
+        <v>18.5600</v>
       </c>
       <c r="J11" t="str">
-        <v>4.0120</v>
+        <v>3.7120</v>
       </c>
       <c r="K11" t="str">
-        <v>24.0720</v>
+        <v>22.2720</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="12">
       <c r="A12" t="str">
-        <v>chatting038</v>
+        <v>chatting015</v>
       </c>
       <c r="B12" t="str">
-        <v>1352</v>
+        <v>1406</v>
       </c>
       <c r="C12" t="str">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D12" t="str">
         <v>0</v>
       </c>
       <c r="E12" t="str">
-        <v>253</v>
+        <v>101</v>
       </c>
       <c r="F12" t="str">
-        <v>336</v>
+        <v>199</v>
       </c>
       <c r="G12" t="str">
-        <v>14.1100</v>
+        <v>16.6600</v>
       </c>
       <c r="H12" t="str">
-        <v>748</v>
+        <v>970</v>
       </c>
       <c r="I12" t="str">
-        <v>14.1100</v>
+        <v>16.6600</v>
       </c>
       <c r="J12" t="str">
-        <v>2.8220</v>
+        <v>3.3320</v>
       </c>
       <c r="K12" t="str">
-        <v>16.9320</v>
+        <v>19.9920</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="13">
       <c r="A13" t="str">
-        <v>chatting036</v>
+        <v>chatting03</v>
       </c>
       <c r="B13" t="str">
-        <v>1248</v>
+        <v>1227</v>
       </c>
       <c r="C13" t="str">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D13" t="str">
         <v>0</v>
       </c>
       <c r="E13" t="str">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F13" t="str">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="G13" t="str">
-        <v>19.0400</v>
+        <v>17.5100</v>
       </c>
       <c r="H13" t="str">
-        <v>683</v>
+        <v>546</v>
       </c>
       <c r="I13" t="str">
-        <v>19.0400</v>
+        <v>17.5100</v>
       </c>
       <c r="J13" t="str">
-        <v>3.8080</v>
+        <v>3.5020</v>
       </c>
       <c r="K13" t="str">
-        <v>22.8480</v>
+        <v>21.0120</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="14">
       <c r="A14" t="str">
-        <v>chatting016</v>
+        <v>chatting023</v>
       </c>
       <c r="B14" t="str">
-        <v>1441</v>
+        <v>1185</v>
       </c>
       <c r="C14" t="str">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="D14" t="str">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E14" t="str">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="F14" t="str">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="G14" t="str">
-        <v>17.3400</v>
+        <v>12.7800</v>
       </c>
       <c r="H14" t="str">
-        <v>1035</v>
+        <v>1393</v>
       </c>
       <c r="I14" t="str">
-        <v>17.3400</v>
+        <v>12.7800</v>
       </c>
       <c r="J14" t="str">
-        <v>3.4680</v>
+        <v>2.5560</v>
       </c>
       <c r="K14" t="str">
-        <v>20.8080</v>
+        <v>15.3360</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="15">
       <c r="A15" t="str">
-        <v>rashadegypt1</v>
+        <v>chatting10</v>
       </c>
       <c r="B15" t="str">
-        <v>1319</v>
+        <v>1082</v>
       </c>
       <c r="C15" t="str">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D15" t="str">
         <v>0</v>
       </c>
       <c r="E15" t="str">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="F15" t="str">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="G15" t="str">
-        <v>18.0200</v>
+        <v>17.1700</v>
       </c>
       <c r="H15" t="str">
-        <v>970</v>
+        <v>1436</v>
       </c>
       <c r="I15" t="str">
-        <v>18.0200</v>
+        <v>17.1700</v>
       </c>
       <c r="J15" t="str">
-        <v>3.6040</v>
+        <v>3.4340</v>
       </c>
       <c r="K15" t="str">
-        <v>21.6240</v>
+        <v>20.6040</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="16">
       <c r="A16" t="str">
-        <v>chatting10</v>
+        <v>chatting039</v>
       </c>
       <c r="B16" t="str">
-        <v>1306</v>
+        <v>869</v>
       </c>
       <c r="C16" t="str">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D16" t="str">
         <v>0</v>
       </c>
       <c r="E16" t="str">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="F16" t="str">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="G16" t="str">
+        <v>13.6000</v>
+      </c>
+      <c r="H16" t="str">
+        <v>1305</v>
+      </c>
+      <c r="I16" t="str">
+        <v>13.6000</v>
+      </c>
+      <c r="J16" t="str">
+        <v>2.7200</v>
+      </c>
+      <c r="K16" t="str">
         <v>16.3200</v>
-      </c>
-      <c r="H16" t="str">
-        <v>837</v>
-      </c>
-      <c r="I16" t="str">
-        <v>16.3200</v>
-      </c>
-      <c r="J16" t="str">
-        <v>3.2640</v>
-      </c>
-      <c r="K16" t="str">
-        <v>19.5840</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="17">
       <c r="A17" t="str">
-        <v>chatting06</v>
+        <v>chatting035</v>
       </c>
       <c r="B17" t="str">
-        <v>1285</v>
+        <v>985</v>
       </c>
       <c r="C17" t="str">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D17" t="str">
         <v>0</v>
       </c>
       <c r="E17" t="str">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="F17" t="str">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="G17" t="str">
-        <v>15.4700</v>
+        <v>12.4100</v>
       </c>
       <c r="H17" t="str">
-        <v>529</v>
+        <v>305</v>
       </c>
       <c r="I17" t="str">
-        <v>15.4700</v>
+        <v>12.4100</v>
       </c>
       <c r="J17" t="str">
-        <v>3.0940</v>
+        <v>2.4820</v>
       </c>
       <c r="K17" t="str">
-        <v>18.5640</v>
+        <v>14.8920</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="18">
       <c r="A18" t="str">
-        <v>chatting020</v>
+        <v>chatting016</v>
       </c>
       <c r="B18" t="str">
-        <v>1059</v>
+        <v>923</v>
       </c>
       <c r="C18" t="str">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="D18" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="str">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F18" t="str">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="G18" t="str">
-        <v>16.5800</v>
+        <v>11.0500</v>
       </c>
       <c r="H18" t="str">
-        <v>810</v>
+        <v>753</v>
       </c>
       <c r="I18" t="str">
-        <v>16.5800</v>
+        <v>11.0500</v>
       </c>
       <c r="J18" t="str">
-        <v>3.3160</v>
+        <v>2.2100</v>
       </c>
       <c r="K18" t="str">
-        <v>19.8960</v>
+        <v>13.2600</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="19">
       <c r="A19" t="str">
-        <v>chatting05</v>
+        <v>chatting017</v>
       </c>
       <c r="B19" t="str">
-        <v>861</v>
+        <v>774</v>
       </c>
       <c r="C19" t="str">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D19" t="str">
         <v>0</v>
       </c>
       <c r="E19" t="str">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="F19" t="str">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="G19" t="str">
-        <v>9.8600</v>
+        <v>13.4300</v>
       </c>
       <c r="H19" t="str">
-        <v>952</v>
+        <v>889</v>
       </c>
       <c r="I19" t="str">
-        <v>9.8600</v>
+        <v>13.4300</v>
       </c>
       <c r="J19" t="str">
-        <v>1.9720</v>
+        <v>2.6860</v>
       </c>
       <c r="K19" t="str">
-        <v>11.8320</v>
+        <v>16.1160</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="20">
       <c r="A20" t="str">
-        <v>chatting07</v>
+        <v>ahmedegypt1</v>
       </c>
       <c r="B20" t="str">
-        <v>894</v>
+        <v>802</v>
       </c>
       <c r="C20" t="str">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D20" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="str">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F20" t="str">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" t="str">
-        <v>8.9300</v>
+        <v>12.2400</v>
       </c>
       <c r="H20" t="str">
-        <v>935</v>
+        <v>1141</v>
       </c>
       <c r="I20" t="str">
-        <v>8.9300</v>
+        <v>12.2400</v>
       </c>
       <c r="J20" t="str">
-        <v>1.7860</v>
+        <v>2.4480</v>
       </c>
       <c r="K20" t="str">
-        <v>10.7160</v>
+        <v>14.6880</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="21">
       <c r="A21" t="str">
-        <v>ahmedegypt1</v>
+        <v>chatting05</v>
       </c>
       <c r="B21" t="str">
-        <v>732</v>
+        <v>798</v>
       </c>
       <c r="C21" t="str">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D21" t="str">
         <v>0</v>
       </c>
       <c r="E21" t="str">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F21" t="str">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="G21" t="str">
-        <v>11.9000</v>
+        <v>10.3700</v>
       </c>
       <c r="H21" t="str">
-        <v>240</v>
+        <v>820</v>
       </c>
       <c r="I21" t="str">
-        <v>11.9000</v>
+        <v>10.3700</v>
       </c>
       <c r="J21" t="str">
-        <v>2.3800</v>
+        <v>2.0740</v>
       </c>
       <c r="K21" t="str">
-        <v>14.2800</v>
+        <v>12.4440</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="22">
       <c r="A22" t="str">
-        <v>chatting022</v>
+        <v>chatting040</v>
       </c>
       <c r="B22" t="str">
-        <v>727</v>
+        <v>511</v>
       </c>
       <c r="C22" t="str">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D22" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E22" t="str">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F22" t="str">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="G22" t="str">
-        <v>12.2600</v>
+        <v>8.3300</v>
       </c>
       <c r="H22" t="str">
-        <v>509</v>
+        <v>233</v>
       </c>
       <c r="I22" t="str">
-        <v>12.2600</v>
+        <v>8.3300</v>
       </c>
       <c r="J22" t="str">
-        <v>2.4520</v>
+        <v>1.6660</v>
       </c>
       <c r="K22" t="str">
-        <v>14.7120</v>
+        <v>9.9960</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="23">
       <c r="A23" t="str">
-        <v>chatting03</v>
+        <v>chatting036</v>
       </c>
       <c r="B23" t="str">
-        <v>644</v>
+        <v>481</v>
       </c>
       <c r="C23" t="str">
         <v>54</v>
@@ -1143,16 +1143,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="str">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F23" t="str">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="G23" t="str">
         <v>9.1800</v>
       </c>
       <c r="H23" t="str">
-        <v>960</v>
+        <v>732</v>
       </c>
       <c r="I23" t="str">
         <v>9.1800</v>
@@ -1166,223 +1166,223 @@
     </row>
     <row customHeight="true" ht="28" r="24">
       <c r="A24" t="str">
-        <v>chatting040</v>
+        <v>Inapp009</v>
       </c>
       <c r="B24" t="str">
-        <v>591</v>
+        <v>495</v>
       </c>
       <c r="C24" t="str">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D24" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E24" t="str">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="F24" t="str">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="G24" t="str">
-        <v>9.5200</v>
+        <v>1.8900</v>
       </c>
       <c r="H24" t="str">
-        <v>698</v>
+        <v>629</v>
       </c>
       <c r="I24" t="str">
-        <v>9.5200</v>
+        <v>1.8900</v>
       </c>
       <c r="J24" t="str">
-        <v>1.9040</v>
+        <v>0.3780</v>
       </c>
       <c r="K24" t="str">
-        <v>11.4240</v>
+        <v>2.2680</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="25">
       <c r="A25" t="str">
-        <v>chatting039</v>
+        <v>Inapp003</v>
       </c>
       <c r="B25" t="str">
-        <v>554</v>
+        <v>441</v>
       </c>
       <c r="C25" t="str">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D25" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25" t="str">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="F25" t="str">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="G25" t="str">
-        <v>7.1400</v>
+        <v>4.2600</v>
       </c>
       <c r="H25" t="str">
-        <v>1156</v>
+        <v>347</v>
       </c>
       <c r="I25" t="str">
-        <v>7.1400</v>
+        <v>4.2600</v>
       </c>
       <c r="J25" t="str">
-        <v>1.4280</v>
+        <v>0.8520</v>
       </c>
       <c r="K25" t="str">
-        <v>8.5680</v>
+        <v>5.1120</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="26">
       <c r="A26" t="str">
-        <v>Inapp003</v>
+        <v>chatting022</v>
       </c>
       <c r="B26" t="str">
-        <v>569</v>
+        <v>384</v>
       </c>
       <c r="C26" t="str">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D26" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" t="str">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="F26" t="str">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="G26" t="str">
-        <v>6.3900</v>
+        <v>5.9600</v>
       </c>
       <c r="H26" t="str">
-        <v>553</v>
+        <v>503</v>
       </c>
       <c r="I26" t="str">
-        <v>6.3900</v>
+        <v>5.9600</v>
       </c>
       <c r="J26" t="str">
-        <v>1.2780</v>
+        <v>1.1920</v>
       </c>
       <c r="K26" t="str">
-        <v>7.6680</v>
+        <v>7.1520</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="27">
       <c r="A27" t="str">
-        <v>Inapp009</v>
+        <v>Inapp006</v>
       </c>
       <c r="B27" t="str">
-        <v>509</v>
+        <v>359</v>
       </c>
       <c r="C27" t="str">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D27" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E27" t="str">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="F27" t="str">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="G27" t="str">
-        <v>2.2300</v>
+        <v>3.7400</v>
       </c>
       <c r="H27" t="str">
-        <v>578</v>
+        <v>300</v>
       </c>
       <c r="I27" t="str">
-        <v>2.2300</v>
+        <v>3.7400</v>
       </c>
       <c r="J27" t="str">
-        <v>0.4460</v>
+        <v>0.7480</v>
       </c>
       <c r="K27" t="str">
-        <v>2.6760</v>
+        <v>4.4880</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="28">
       <c r="A28" t="str">
-        <v>chatting023</v>
+        <v>chatting038</v>
       </c>
       <c r="B28" t="str">
-        <v>420</v>
+        <v>169</v>
       </c>
       <c r="C28" t="str">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D28" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E28" t="str">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F28" t="str">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="G28" t="str">
-        <v>5.1100</v>
+        <v>1.1900</v>
       </c>
       <c r="H28" t="str">
-        <v>1227</v>
+        <v>521</v>
       </c>
       <c r="I28" t="str">
-        <v>5.1100</v>
+        <v>1.1900</v>
       </c>
       <c r="J28" t="str">
-        <v>1.0220</v>
+        <v>0.2380</v>
       </c>
       <c r="K28" t="str">
-        <v>6.1320</v>
+        <v>1.4280</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="29">
       <c r="A29" t="str">
-        <v>abodullaegypt1</v>
+        <v>chatting020</v>
       </c>
       <c r="B29" t="str">
-        <v>391</v>
+        <v>146</v>
       </c>
       <c r="C29" t="str">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D29" t="str">
         <v>2</v>
       </c>
       <c r="E29" t="str">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F29" t="str">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="G29" t="str">
-        <v>5.6200</v>
+        <v>1.7100</v>
       </c>
       <c r="H29" t="str">
-        <v>92</v>
+        <v>899</v>
       </c>
       <c r="I29" t="str">
-        <v>5.6200</v>
+        <v>1.7100</v>
       </c>
       <c r="J29" t="str">
-        <v>1.1240</v>
+        <v>0.3420</v>
       </c>
       <c r="K29" t="str">
-        <v>6.7440</v>
+        <v>2.0520</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="30">
       <c r="A30" t="str">
-        <v>chatting021</v>
+        <v>aihaf</v>
       </c>
       <c r="B30" t="str">
-        <v>228</v>
+        <v>71</v>
       </c>
       <c r="C30" t="str">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D30" t="str">
         <v>0</v>
@@ -1391,124 +1391,127 @@
         <v>45</v>
       </c>
       <c r="F30" t="str">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="G30" t="str">
-        <v>3.0600</v>
+        <v>0.0000</v>
       </c>
       <c r="H30" t="str">
-        <v>161</v>
+        <v>494</v>
       </c>
       <c r="I30" t="str">
-        <v>3.0600</v>
+        <v>0.0000</v>
       </c>
       <c r="J30" t="str">
-        <v>0.6120</v>
+        <v>0.0000</v>
       </c>
       <c r="K30" t="str">
-        <v>3.6720</v>
+        <v>0.0000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="31">
       <c r="A31" t="str">
-        <v>Inapp006</v>
+        <v>chatting021</v>
       </c>
       <c r="B31" t="str">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="C31" t="str">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D31" t="str">
         <v>0</v>
       </c>
       <c r="E31" t="str">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F31" t="str">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G31" t="str">
-        <v>1.3600</v>
+        <v>0.6800</v>
       </c>
       <c r="H31" t="str">
-        <v>224</v>
+        <v>716</v>
       </c>
       <c r="I31" t="str">
-        <v>1.3600</v>
+        <v>0.6800</v>
       </c>
       <c r="J31" t="str">
-        <v>0.2720</v>
+        <v>0.1360</v>
       </c>
       <c r="K31" t="str">
-        <v>1.6320</v>
+        <v>0.8160</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="32">
       <c r="A32" t="str">
-        <v>aihaf</v>
+        <v>Yindu002</v>
       </c>
       <c r="B32" t="str">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="C32" t="str">
         <v>0</v>
       </c>
       <c r="D32" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="str">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="F32" t="str">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="G32" t="str">
-        <v>0.0000</v>
+        <v>0.0900</v>
       </c>
       <c r="H32" t="str">
-        <v>455</v>
+        <v>184</v>
       </c>
       <c r="I32" t="str">
-        <v>0.0000</v>
+        <v>0.0900</v>
       </c>
       <c r="J32" t="str">
-        <v>0.0000</v>
+        <v>0.0180</v>
       </c>
       <c r="K32" t="str">
-        <v>0.0000</v>
+        <v>0.1080</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="33">
-      <c r="A33" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B33" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C33" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D33" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E33" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F33" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G33" t="str" xml:space="preserve">
-        <v> </v>
+      <c r="A33" t="str">
+        <v>Yindu004</v>
+      </c>
+      <c r="B33" t="str">
+        <v>49</v>
+      </c>
+      <c r="C33" t="str">
+        <v>2</v>
+      </c>
+      <c r="D33" t="str">
+        <v>0</v>
+      </c>
+      <c r="E33" t="str">
+        <v>4</v>
+      </c>
+      <c r="F33" t="str">
+        <v>6</v>
+      </c>
+      <c r="G33" t="str">
+        <v>0.3400</v>
       </c>
       <c r="H33" t="str">
-        <v>总工资:</v>
+        <v>255</v>
       </c>
       <c r="I33" t="str">
-        <v>423.6600</v>
+        <v>0.3400</v>
       </c>
       <c r="J33" t="str">
-        <v>84.7320</v>
+        <v>0.0680</v>
+      </c>
+      <c r="K33" t="str">
+        <v>0.4080</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="34">
@@ -1534,13 +1537,13 @@
         <v> </v>
       </c>
       <c r="H34" t="str">
-        <v>平均工资:</v>
+        <v>总工资:</v>
       </c>
       <c r="I34" t="str">
-        <v>14.1220</v>
+        <v>369.0300</v>
       </c>
       <c r="J34" t="str">
-        <v>2.8244</v>
+        <v>73.8060</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="35">
@@ -1566,10 +1569,13 @@
         <v> </v>
       </c>
       <c r="H35" t="str">
-        <v>大与7个数:</v>
+        <v>平均工资:</v>
       </c>
       <c r="I35" t="str">
-        <v>3100</v>
+        <v>11.9042</v>
+      </c>
+      <c r="J35" t="str">
+        <v>2.3808</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="36">
@@ -1595,10 +1601,39 @@
         <v> </v>
       </c>
       <c r="H36" t="str">
+        <v>大与7个数:</v>
+      </c>
+      <c r="I36" t="str">
+        <v>2652</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="37">
+      <c r="A37" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B37" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C37" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D37" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E37" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F37" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G37" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="H37" t="str">
         <v>高于平均工资人数:</v>
       </c>
-      <c r="I36" t="str">
-        <v>15</v>
+      <c r="I37" t="str">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/陪聊数据统计.xlsx
+++ b/陪聊数据统计.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="20190730 05点-20190731 05点" sheetId="1" r:id="rId1"/>
+    <sheet name="20190805 05点-20190806 05点" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -431,1209 +431,1909 @@
     </row>
     <row customHeight="true" ht="28" r="3">
       <c r="A3" t="str">
-        <v>chatting013</v>
+        <v>Yinni003</v>
       </c>
       <c r="B3" t="str">
-        <v>2706</v>
+        <v>3489</v>
       </c>
       <c r="C3" t="str">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="D3" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" t="str">
-        <v>393</v>
+        <v>837</v>
       </c>
       <c r="F3" t="str">
-        <v>564</v>
+        <v>879</v>
       </c>
       <c r="G3" t="str">
-        <v>29.0700</v>
+        <v>6.9000</v>
       </c>
       <c r="H3" t="str">
-        <v>1379</v>
+        <v>1406</v>
       </c>
       <c r="I3" t="str">
-        <v>29.0700</v>
+        <v>6.9000</v>
       </c>
       <c r="J3" t="str">
-        <v>5.8140</v>
+        <v>1.3800</v>
       </c>
       <c r="K3" t="str">
-        <v>34.8840</v>
+        <v>8.2800</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="4">
       <c r="A4" t="str">
-        <v>chatting032</v>
+        <v>APP004</v>
       </c>
       <c r="B4" t="str">
-        <v>2343</v>
+        <v>2314</v>
       </c>
       <c r="C4" t="str">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D4" t="str">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E4" t="str">
-        <v>245</v>
+        <v>103</v>
       </c>
       <c r="F4" t="str">
-        <v>424</v>
+        <v>272</v>
       </c>
       <c r="G4" t="str">
-        <v>29.4700</v>
+        <v>28.7300</v>
       </c>
       <c r="H4" t="str">
-        <v>1286</v>
+        <v>948</v>
       </c>
       <c r="I4" t="str">
-        <v>29.4700</v>
+        <v>28.7300</v>
       </c>
       <c r="J4" t="str">
-        <v>5.8940</v>
+        <v>5.7460</v>
       </c>
       <c r="K4" t="str">
-        <v>35.3640</v>
+        <v>34.4760</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="5">
       <c r="A5" t="str">
-        <v>chatting034</v>
+        <v>chatting033</v>
       </c>
       <c r="B5" t="str">
-        <v>2078</v>
+        <v>2210</v>
       </c>
       <c r="C5" t="str">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="D5" t="str">
         <v>0</v>
       </c>
       <c r="E5" t="str">
-        <v>260</v>
+        <v>140</v>
       </c>
       <c r="F5" t="str">
-        <v>383</v>
+        <v>287</v>
       </c>
       <c r="G5" t="str">
-        <v>20.9100</v>
+        <v>24.9900</v>
       </c>
       <c r="H5" t="str">
-        <v>667</v>
+        <v>1299</v>
       </c>
       <c r="I5" t="str">
-        <v>20.9100</v>
+        <v>24.9900</v>
       </c>
       <c r="J5" t="str">
-        <v>4.1820</v>
+        <v>4.9980</v>
       </c>
       <c r="K5" t="str">
-        <v>25.0920</v>
+        <v>29.9880</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="6">
       <c r="A6" t="str">
-        <v>rashadegypt1</v>
+        <v>chatting015</v>
       </c>
       <c r="B6" t="str">
-        <v>1835</v>
+        <v>1969</v>
       </c>
       <c r="C6" t="str">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="D6" t="str">
         <v>0</v>
       </c>
       <c r="E6" t="str">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="F6" t="str">
-        <v>337</v>
+        <v>228</v>
       </c>
       <c r="G6" t="str">
-        <v>21.9300</v>
+        <v>25.5000</v>
       </c>
       <c r="H6" t="str">
-        <v>873</v>
+        <v>537</v>
       </c>
       <c r="I6" t="str">
-        <v>21.9300</v>
+        <v>25.5000</v>
       </c>
       <c r="J6" t="str">
-        <v>4.3860</v>
+        <v>5.1000</v>
       </c>
       <c r="K6" t="str">
-        <v>26.3160</v>
+        <v>30.6000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="7">
       <c r="A7" t="str">
-        <v>chatting02</v>
+        <v>chatting034</v>
       </c>
       <c r="B7" t="str">
-        <v>1993</v>
+        <v>1715</v>
       </c>
       <c r="C7" t="str">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D7" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" t="str">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="F7" t="str">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="G7" t="str">
-        <v>20.3300</v>
+        <v>18.0200</v>
       </c>
       <c r="H7" t="str">
-        <v>931</v>
+        <v>796</v>
       </c>
       <c r="I7" t="str">
-        <v>20.3300</v>
+        <v>18.0200</v>
       </c>
       <c r="J7" t="str">
-        <v>4.0660</v>
+        <v>3.6040</v>
       </c>
       <c r="K7" t="str">
-        <v>24.3960</v>
+        <v>21.6240</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="8">
       <c r="A8" t="str">
-        <v>mohammedegypt1</v>
+        <v>chatting032</v>
       </c>
       <c r="B8" t="str">
-        <v>2435</v>
+        <v>1359</v>
       </c>
       <c r="C8" t="str">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="D8" t="str">
         <v>0</v>
       </c>
       <c r="E8" t="str">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="F8" t="str">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="G8" t="str">
-        <v>15.6400</v>
+        <v>20.0600</v>
       </c>
       <c r="H8" t="str">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="I8" t="str">
-        <v>15.6400</v>
+        <v>20.0600</v>
       </c>
       <c r="J8" t="str">
-        <v>3.1280</v>
+        <v>4.0120</v>
       </c>
       <c r="K8" t="str">
-        <v>18.7680</v>
+        <v>24.0720</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="9">
       <c r="A9" t="str">
-        <v>yousefegypt1</v>
+        <v>APP003</v>
       </c>
       <c r="B9" t="str">
-        <v>1748</v>
+        <v>1293</v>
       </c>
       <c r="C9" t="str">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D9" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" t="str">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="F9" t="str">
-        <v>309</v>
+        <v>170</v>
       </c>
       <c r="G9" t="str">
-        <v>19.3100</v>
+        <v>17.0000</v>
       </c>
       <c r="H9" t="str">
-        <v>1014</v>
+        <v>1389</v>
       </c>
       <c r="I9" t="str">
-        <v>19.3100</v>
+        <v>17.0000</v>
       </c>
       <c r="J9" t="str">
-        <v>3.8620</v>
+        <v>3.4000</v>
       </c>
       <c r="K9" t="str">
-        <v>23.1720</v>
+        <v>20.4000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="10">
       <c r="A10" t="str">
-        <v>yaseregypt1</v>
+        <v>mohammedegypt1</v>
       </c>
       <c r="B10" t="str">
-        <v>1730</v>
+        <v>1473</v>
       </c>
       <c r="C10" t="str">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="D10" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" t="str">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="F10" t="str">
-        <v>272</v>
+        <v>110</v>
       </c>
       <c r="G10" t="str">
-        <v>19.2200</v>
+        <v>13.7700</v>
       </c>
       <c r="H10" t="str">
-        <v>877</v>
+        <v>591</v>
       </c>
       <c r="I10" t="str">
-        <v>19.2200</v>
+        <v>13.7700</v>
       </c>
       <c r="J10" t="str">
-        <v>3.8440</v>
+        <v>2.7540</v>
       </c>
       <c r="K10" t="str">
-        <v>23.0640</v>
+        <v>16.5240</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="11">
       <c r="A11" t="str">
-        <v>chatting014</v>
+        <v>chatting016</v>
       </c>
       <c r="B11" t="str">
-        <v>1276</v>
+        <v>1216</v>
       </c>
       <c r="C11" t="str">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D11" t="str">
         <v>6</v>
       </c>
       <c r="E11" t="str">
-        <v>171</v>
+        <v>61</v>
       </c>
       <c r="F11" t="str">
-        <v>283</v>
+        <v>157</v>
       </c>
       <c r="G11" t="str">
-        <v>18.5600</v>
+        <v>15.8400</v>
       </c>
       <c r="H11" t="str">
-        <v>1287</v>
+        <v>1365</v>
       </c>
       <c r="I11" t="str">
-        <v>18.5600</v>
+        <v>15.8400</v>
       </c>
       <c r="J11" t="str">
-        <v>3.7120</v>
+        <v>3.1680</v>
       </c>
       <c r="K11" t="str">
-        <v>22.2720</v>
+        <v>19.0080</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="12">
       <c r="A12" t="str">
-        <v>chatting015</v>
+        <v>chatting03</v>
       </c>
       <c r="B12" t="str">
-        <v>1406</v>
+        <v>1094</v>
       </c>
       <c r="C12" t="str">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D12" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" t="str">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="F12" t="str">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="G12" t="str">
-        <v>16.6600</v>
+        <v>17.5200</v>
       </c>
       <c r="H12" t="str">
-        <v>970</v>
+        <v>1439</v>
       </c>
       <c r="I12" t="str">
-        <v>16.6600</v>
+        <v>17.5200</v>
       </c>
       <c r="J12" t="str">
-        <v>3.3320</v>
+        <v>3.5040</v>
       </c>
       <c r="K12" t="str">
-        <v>19.9920</v>
+        <v>21.0240</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="13">
       <c r="A13" t="str">
-        <v>chatting03</v>
+        <v>Yindu002</v>
       </c>
       <c r="B13" t="str">
-        <v>1227</v>
+        <v>715</v>
       </c>
       <c r="C13" t="str">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="D13" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13" t="str">
-        <v>96</v>
+        <v>460</v>
       </c>
       <c r="F13" t="str">
-        <v>199</v>
+        <v>491</v>
       </c>
       <c r="G13" t="str">
-        <v>17.5100</v>
+        <v>4.9500</v>
       </c>
       <c r="H13" t="str">
-        <v>546</v>
+        <v>598</v>
       </c>
       <c r="I13" t="str">
-        <v>17.5100</v>
+        <v>4.9500</v>
       </c>
       <c r="J13" t="str">
-        <v>3.5020</v>
+        <v>0.9900</v>
       </c>
       <c r="K13" t="str">
-        <v>21.0120</v>
+        <v>5.9400</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="14">
       <c r="A14" t="str">
-        <v>chatting023</v>
+        <v>chatting014</v>
       </c>
       <c r="B14" t="str">
-        <v>1185</v>
+        <v>847</v>
       </c>
       <c r="C14" t="str">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="D14" t="str">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E14" t="str">
-        <v>167</v>
+        <v>51</v>
       </c>
       <c r="F14" t="str">
-        <v>245</v>
+        <v>150</v>
       </c>
       <c r="G14" t="str">
-        <v>12.7800</v>
+        <v>16.8300</v>
       </c>
       <c r="H14" t="str">
-        <v>1393</v>
+        <v>927</v>
       </c>
       <c r="I14" t="str">
-        <v>12.7800</v>
+        <v>16.8300</v>
       </c>
       <c r="J14" t="str">
-        <v>2.5560</v>
+        <v>3.3660</v>
       </c>
       <c r="K14" t="str">
-        <v>15.3360</v>
+        <v>20.1960</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="15">
       <c r="A15" t="str">
-        <v>chatting10</v>
+        <v>Yindu004</v>
       </c>
       <c r="B15" t="str">
-        <v>1082</v>
+        <v>832</v>
       </c>
       <c r="C15" t="str">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D15" t="str">
         <v>0</v>
       </c>
       <c r="E15" t="str">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F15" t="str">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="G15" t="str">
-        <v>17.1700</v>
+        <v>14.4500</v>
       </c>
       <c r="H15" t="str">
-        <v>1436</v>
+        <v>290</v>
       </c>
       <c r="I15" t="str">
-        <v>17.1700</v>
+        <v>14.4500</v>
       </c>
       <c r="J15" t="str">
-        <v>3.4340</v>
+        <v>2.8900</v>
       </c>
       <c r="K15" t="str">
-        <v>20.6040</v>
+        <v>17.3400</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="16">
       <c r="A16" t="str">
-        <v>chatting039</v>
+        <v>chatting022</v>
       </c>
       <c r="B16" t="str">
-        <v>869</v>
+        <v>826</v>
       </c>
       <c r="C16" t="str">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D16" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" t="str">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="F16" t="str">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="G16" t="str">
-        <v>13.6000</v>
+        <v>14.2900</v>
       </c>
       <c r="H16" t="str">
-        <v>1305</v>
+        <v>621</v>
       </c>
       <c r="I16" t="str">
-        <v>13.6000</v>
+        <v>14.2900</v>
       </c>
       <c r="J16" t="str">
-        <v>2.7200</v>
+        <v>2.8580</v>
       </c>
       <c r="K16" t="str">
-        <v>16.3200</v>
+        <v>17.1480</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="17">
       <c r="A17" t="str">
-        <v>chatting035</v>
+        <v>chatting039</v>
       </c>
       <c r="B17" t="str">
-        <v>985</v>
+        <v>724</v>
       </c>
       <c r="C17" t="str">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D17" t="str">
         <v>0</v>
       </c>
       <c r="E17" t="str">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F17" t="str">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="G17" t="str">
-        <v>12.4100</v>
+        <v>13.2600</v>
       </c>
       <c r="H17" t="str">
-        <v>305</v>
+        <v>677</v>
       </c>
       <c r="I17" t="str">
-        <v>12.4100</v>
+        <v>13.2600</v>
       </c>
       <c r="J17" t="str">
-        <v>2.4820</v>
+        <v>2.6520</v>
       </c>
       <c r="K17" t="str">
-        <v>14.8920</v>
+        <v>15.9120</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="18">
       <c r="A18" t="str">
-        <v>chatting016</v>
+        <v>chatting031</v>
       </c>
       <c r="B18" t="str">
-        <v>923</v>
+        <v>820</v>
       </c>
       <c r="C18" t="str">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D18" t="str">
         <v>0</v>
       </c>
       <c r="E18" t="str">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="F18" t="str">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="G18" t="str">
-        <v>11.0500</v>
+        <v>9.3500</v>
       </c>
       <c r="H18" t="str">
-        <v>753</v>
+        <v>465</v>
       </c>
       <c r="I18" t="str">
-        <v>11.0500</v>
+        <v>9.3500</v>
       </c>
       <c r="J18" t="str">
-        <v>2.2100</v>
+        <v>1.8700</v>
       </c>
       <c r="K18" t="str">
-        <v>13.2600</v>
+        <v>11.2200</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="19">
       <c r="A19" t="str">
-        <v>chatting017</v>
+        <v>chatting035</v>
       </c>
       <c r="B19" t="str">
-        <v>774</v>
+        <v>733</v>
       </c>
       <c r="C19" t="str">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D19" t="str">
         <v>0</v>
       </c>
       <c r="E19" t="str">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="F19" t="str">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="G19" t="str">
-        <v>13.4300</v>
+        <v>10.3700</v>
       </c>
       <c r="H19" t="str">
-        <v>889</v>
+        <v>690</v>
       </c>
       <c r="I19" t="str">
-        <v>13.4300</v>
+        <v>10.3700</v>
       </c>
       <c r="J19" t="str">
-        <v>2.6860</v>
+        <v>2.0740</v>
       </c>
       <c r="K19" t="str">
-        <v>16.1160</v>
+        <v>12.4440</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="20">
       <c r="A20" t="str">
-        <v>ahmedegypt1</v>
+        <v>Yinni002</v>
       </c>
       <c r="B20" t="str">
-        <v>802</v>
+        <v>420</v>
       </c>
       <c r="C20" t="str">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="D20" t="str">
         <v>0</v>
       </c>
       <c r="E20" t="str">
-        <v>46</v>
+        <v>397</v>
       </c>
       <c r="F20" t="str">
-        <v>118</v>
+        <v>398</v>
       </c>
       <c r="G20" t="str">
-        <v>12.2400</v>
+        <v>0.1700</v>
       </c>
       <c r="H20" t="str">
-        <v>1141</v>
+        <v>133</v>
       </c>
       <c r="I20" t="str">
-        <v>12.2400</v>
+        <v>0.1700</v>
       </c>
       <c r="J20" t="str">
-        <v>2.4480</v>
+        <v>0.0340</v>
       </c>
       <c r="K20" t="str">
-        <v>14.6880</v>
+        <v>0.2040</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="21">
       <c r="A21" t="str">
-        <v>chatting05</v>
+        <v>chatting07</v>
       </c>
       <c r="B21" t="str">
-        <v>798</v>
+        <v>767</v>
       </c>
       <c r="C21" t="str">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D21" t="str">
         <v>0</v>
       </c>
       <c r="E21" t="str">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="F21" t="str">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="G21" t="str">
-        <v>10.3700</v>
+        <v>8.6700</v>
       </c>
       <c r="H21" t="str">
-        <v>820</v>
+        <v>271</v>
       </c>
       <c r="I21" t="str">
-        <v>10.3700</v>
+        <v>8.6700</v>
       </c>
       <c r="J21" t="str">
-        <v>2.0740</v>
+        <v>1.7340</v>
       </c>
       <c r="K21" t="str">
-        <v>12.4440</v>
+        <v>10.4040</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="22">
       <c r="A22" t="str">
-        <v>chatting040</v>
+        <v>rashadegypt1</v>
       </c>
       <c r="B22" t="str">
-        <v>511</v>
+        <v>581</v>
       </c>
       <c r="C22" t="str">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D22" t="str">
         <v>0</v>
       </c>
       <c r="E22" t="str">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F22" t="str">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G22" t="str">
-        <v>8.3300</v>
+        <v>10.3700</v>
       </c>
       <c r="H22" t="str">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="I22" t="str">
-        <v>8.3300</v>
+        <v>10.3700</v>
       </c>
       <c r="J22" t="str">
-        <v>1.6660</v>
+        <v>2.0740</v>
       </c>
       <c r="K22" t="str">
-        <v>9.9960</v>
+        <v>12.4440</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="23">
       <c r="A23" t="str">
-        <v>chatting036</v>
+        <v>abodullaegypt1</v>
       </c>
       <c r="B23" t="str">
-        <v>481</v>
+        <v>620</v>
       </c>
       <c r="C23" t="str">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D23" t="str">
         <v>0</v>
       </c>
       <c r="E23" t="str">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F23" t="str">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G23" t="str">
-        <v>9.1800</v>
+        <v>7.9900</v>
       </c>
       <c r="H23" t="str">
-        <v>732</v>
+        <v>1414</v>
       </c>
       <c r="I23" t="str">
-        <v>9.1800</v>
+        <v>7.9900</v>
       </c>
       <c r="J23" t="str">
-        <v>1.8360</v>
+        <v>1.5980</v>
       </c>
       <c r="K23" t="str">
-        <v>11.0160</v>
+        <v>9.5880</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="24">
       <c r="A24" t="str">
-        <v>Inapp009</v>
+        <v>yousefegypt1</v>
       </c>
       <c r="B24" t="str">
-        <v>495</v>
+        <v>563</v>
       </c>
       <c r="C24" t="str">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D24" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24" t="str">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="F24" t="str">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="G24" t="str">
-        <v>1.8900</v>
+        <v>8.3400</v>
       </c>
       <c r="H24" t="str">
-        <v>629</v>
+        <v>936</v>
       </c>
       <c r="I24" t="str">
-        <v>1.8900</v>
+        <v>8.3400</v>
       </c>
       <c r="J24" t="str">
-        <v>0.3780</v>
+        <v>1.6680</v>
       </c>
       <c r="K24" t="str">
-        <v>2.2680</v>
+        <v>10.0080</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="25">
       <c r="A25" t="str">
-        <v>Inapp003</v>
+        <v>chatting036</v>
       </c>
       <c r="B25" t="str">
-        <v>441</v>
+        <v>505</v>
       </c>
       <c r="C25" t="str">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D25" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25" t="str">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="F25" t="str">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="G25" t="str">
-        <v>4.2600</v>
+        <v>9.3500</v>
       </c>
       <c r="H25" t="str">
-        <v>347</v>
+        <v>273</v>
       </c>
       <c r="I25" t="str">
-        <v>4.2600</v>
+        <v>9.3500</v>
       </c>
       <c r="J25" t="str">
-        <v>0.8520</v>
+        <v>1.8700</v>
       </c>
       <c r="K25" t="str">
-        <v>5.1120</v>
+        <v>11.2200</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="26">
       <c r="A26" t="str">
-        <v>chatting022</v>
+        <v>Inapp001</v>
       </c>
       <c r="B26" t="str">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="C26" t="str">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D26" t="str">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E26" t="str">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="F26" t="str">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="G26" t="str">
-        <v>5.9600</v>
+        <v>4.4500</v>
       </c>
       <c r="H26" t="str">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="I26" t="str">
-        <v>5.9600</v>
+        <v>4.4500</v>
       </c>
       <c r="J26" t="str">
-        <v>1.1920</v>
+        <v>0.8900</v>
       </c>
       <c r="K26" t="str">
-        <v>7.1520</v>
+        <v>5.3400</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="27">
       <c r="A27" t="str">
-        <v>Inapp006</v>
+        <v>chatting10</v>
       </c>
       <c r="B27" t="str">
-        <v>359</v>
+        <v>528</v>
       </c>
       <c r="C27" t="str">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D27" t="str">
         <v>0</v>
       </c>
       <c r="E27" t="str">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F27" t="str">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="G27" t="str">
-        <v>3.7400</v>
+        <v>8.5000</v>
       </c>
       <c r="H27" t="str">
-        <v>300</v>
+        <v>749</v>
       </c>
       <c r="I27" t="str">
-        <v>3.7400</v>
+        <v>8.5000</v>
       </c>
       <c r="J27" t="str">
-        <v>0.7480</v>
+        <v>1.7000</v>
       </c>
       <c r="K27" t="str">
-        <v>4.4880</v>
+        <v>10.2000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="28">
       <c r="A28" t="str">
-        <v>chatting038</v>
+        <v>Inapp006</v>
       </c>
       <c r="B28" t="str">
-        <v>169</v>
+        <v>393</v>
       </c>
       <c r="C28" t="str">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D28" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="str">
-        <v>48</v>
+        <v>189</v>
       </c>
       <c r="F28" t="str">
-        <v>55</v>
+        <v>212</v>
       </c>
       <c r="G28" t="str">
-        <v>1.1900</v>
+        <v>3.8300</v>
       </c>
       <c r="H28" t="str">
-        <v>521</v>
+        <v>918</v>
       </c>
       <c r="I28" t="str">
-        <v>1.1900</v>
+        <v>3.8300</v>
       </c>
       <c r="J28" t="str">
-        <v>0.2380</v>
+        <v>0.7660</v>
       </c>
       <c r="K28" t="str">
-        <v>1.4280</v>
+        <v>4.5960</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="29">
       <c r="A29" t="str">
-        <v>chatting020</v>
+        <v>chatting013</v>
       </c>
       <c r="B29" t="str">
-        <v>146</v>
+        <v>503</v>
       </c>
       <c r="C29" t="str">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D29" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E29" t="str">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F29" t="str">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="G29" t="str">
-        <v>1.7100</v>
+        <v>7.6500</v>
       </c>
       <c r="H29" t="str">
-        <v>899</v>
+        <v>791</v>
       </c>
       <c r="I29" t="str">
-        <v>1.7100</v>
+        <v>7.6500</v>
       </c>
       <c r="J29" t="str">
-        <v>0.3420</v>
+        <v>1.5300</v>
       </c>
       <c r="K29" t="str">
-        <v>2.0520</v>
+        <v>9.1800</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="30">
       <c r="A30" t="str">
-        <v>aihaf</v>
+        <v>yaseregypt1</v>
       </c>
       <c r="B30" t="str">
-        <v>71</v>
+        <v>470</v>
       </c>
       <c r="C30" t="str">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D30" t="str">
         <v>0</v>
       </c>
       <c r="E30" t="str">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F30" t="str">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G30" t="str">
-        <v>0.0000</v>
+        <v>7.3100</v>
       </c>
       <c r="H30" t="str">
-        <v>494</v>
+        <v>544</v>
       </c>
       <c r="I30" t="str">
-        <v>0.0000</v>
+        <v>7.3100</v>
       </c>
       <c r="J30" t="str">
-        <v>0.0000</v>
+        <v>1.4620</v>
       </c>
       <c r="K30" t="str">
-        <v>0.0000</v>
+        <v>8.7720</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="31">
       <c r="A31" t="str">
-        <v>chatting021</v>
+        <v>chatting05</v>
       </c>
       <c r="B31" t="str">
-        <v>62</v>
+        <v>413</v>
       </c>
       <c r="C31" t="str">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D31" t="str">
         <v>0</v>
       </c>
       <c r="E31" t="str">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="F31" t="str">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="G31" t="str">
-        <v>0.6800</v>
+        <v>6.1200</v>
       </c>
       <c r="H31" t="str">
-        <v>716</v>
+        <v>70</v>
       </c>
       <c r="I31" t="str">
-        <v>0.6800</v>
+        <v>6.1200</v>
       </c>
       <c r="J31" t="str">
-        <v>0.1360</v>
+        <v>1.2240</v>
       </c>
       <c r="K31" t="str">
-        <v>0.8160</v>
+        <v>7.3440</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="32">
       <c r="A32" t="str">
-        <v>Yindu002</v>
+        <v>chatting02</v>
       </c>
       <c r="B32" t="str">
-        <v>49</v>
+        <v>453</v>
       </c>
       <c r="C32" t="str">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D32" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="str">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F32" t="str">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="G32" t="str">
-        <v>0.0900</v>
+        <v>6.4600</v>
       </c>
       <c r="H32" t="str">
-        <v>184</v>
+        <v>323</v>
       </c>
       <c r="I32" t="str">
-        <v>0.0900</v>
+        <v>6.4600</v>
       </c>
       <c r="J32" t="str">
-        <v>0.0180</v>
+        <v>1.2920</v>
       </c>
       <c r="K32" t="str">
-        <v>0.1080</v>
+        <v>7.7520</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="33">
       <c r="A33" t="str">
-        <v>Yindu004</v>
+        <v>aihaf</v>
       </c>
       <c r="B33" t="str">
+        <v>282</v>
+      </c>
+      <c r="C33" t="str">
+        <v>0</v>
+      </c>
+      <c r="D33" t="str">
+        <v>1</v>
+      </c>
+      <c r="E33" t="str">
+        <v>237</v>
+      </c>
+      <c r="F33" t="str">
+        <v>238</v>
+      </c>
+      <c r="G33" t="str">
+        <v>0.0900</v>
+      </c>
+      <c r="H33" t="str">
+        <v>480</v>
+      </c>
+      <c r="I33" t="str">
+        <v>0.0900</v>
+      </c>
+      <c r="J33" t="str">
+        <v>0.0180</v>
+      </c>
+      <c r="K33" t="str">
+        <v>0.1080</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="34">
+      <c r="A34" t="str">
+        <v>chatting017</v>
+      </c>
+      <c r="B34" t="str">
+        <v>378</v>
+      </c>
+      <c r="C34" t="str">
+        <v>45</v>
+      </c>
+      <c r="D34" t="str">
+        <v>0</v>
+      </c>
+      <c r="E34" t="str">
+        <v>18</v>
+      </c>
+      <c r="F34" t="str">
+        <v>63</v>
+      </c>
+      <c r="G34" t="str">
+        <v>7.6500</v>
+      </c>
+      <c r="H34" t="str">
+        <v>589</v>
+      </c>
+      <c r="I34" t="str">
+        <v>7.6500</v>
+      </c>
+      <c r="J34" t="str">
+        <v>1.5300</v>
+      </c>
+      <c r="K34" t="str">
+        <v>9.1800</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="35">
+      <c r="A35" t="str">
+        <v>APP005</v>
+      </c>
+      <c r="B35" t="str">
+        <v>416</v>
+      </c>
+      <c r="C35" t="str">
+        <v>37</v>
+      </c>
+      <c r="D35" t="str">
+        <v>2</v>
+      </c>
+      <c r="E35" t="str">
+        <v>18</v>
+      </c>
+      <c r="F35" t="str">
+        <v>57</v>
+      </c>
+      <c r="G35" t="str">
+        <v>6.4700</v>
+      </c>
+      <c r="H35" t="str">
+        <v>654</v>
+      </c>
+      <c r="I35" t="str">
+        <v>6.4700</v>
+      </c>
+      <c r="J35" t="str">
+        <v>1.2940</v>
+      </c>
+      <c r="K35" t="str">
+        <v>7.7640</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="36">
+      <c r="A36" t="str">
+        <v>chatting040</v>
+      </c>
+      <c r="B36" t="str">
+        <v>332</v>
+      </c>
+      <c r="C36" t="str">
+        <v>29</v>
+      </c>
+      <c r="D36" t="str">
+        <v>0</v>
+      </c>
+      <c r="E36" t="str">
+        <v>76</v>
+      </c>
+      <c r="F36" t="str">
+        <v>105</v>
+      </c>
+      <c r="G36" t="str">
+        <v>4.9300</v>
+      </c>
+      <c r="H36" t="str">
+        <v>600</v>
+      </c>
+      <c r="I36" t="str">
+        <v>4.9300</v>
+      </c>
+      <c r="J36" t="str">
+        <v>0.9860</v>
+      </c>
+      <c r="K36" t="str">
+        <v>5.9160</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="37">
+      <c r="A37" t="str">
+        <v>Inapp003</v>
+      </c>
+      <c r="B37" t="str">
+        <v>308</v>
+      </c>
+      <c r="C37" t="str">
+        <v>19</v>
+      </c>
+      <c r="D37" t="str">
+        <v>4</v>
+      </c>
+      <c r="E37" t="str">
+        <v>119</v>
+      </c>
+      <c r="F37" t="str">
+        <v>142</v>
+      </c>
+      <c r="G37" t="str">
+        <v>3.5900</v>
+      </c>
+      <c r="H37" t="str">
+        <v>628</v>
+      </c>
+      <c r="I37" t="str">
+        <v>3.5900</v>
+      </c>
+      <c r="J37" t="str">
+        <v>0.7180</v>
+      </c>
+      <c r="K37" t="str">
+        <v>4.3080</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="38">
+      <c r="A38" t="str">
+        <v>Yindu003</v>
+      </c>
+      <c r="B38" t="str">
+        <v>354</v>
+      </c>
+      <c r="C38" t="str">
+        <v>21</v>
+      </c>
+      <c r="D38" t="str">
+        <v>1</v>
+      </c>
+      <c r="E38" t="str">
+        <v>75</v>
+      </c>
+      <c r="F38" t="str">
+        <v>97</v>
+      </c>
+      <c r="G38" t="str">
+        <v>3.6600</v>
+      </c>
+      <c r="H38" t="str">
+        <v>829</v>
+      </c>
+      <c r="I38" t="str">
+        <v>3.6600</v>
+      </c>
+      <c r="J38" t="str">
+        <v>0.7320</v>
+      </c>
+      <c r="K38" t="str">
+        <v>4.3920</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="39">
+      <c r="A39" t="str">
+        <v>jiefu</v>
+      </c>
+      <c r="B39" t="str">
+        <v>304</v>
+      </c>
+      <c r="C39" t="str">
+        <v>23</v>
+      </c>
+      <c r="D39" t="str">
+        <v>3</v>
+      </c>
+      <c r="E39" t="str">
+        <v>90</v>
+      </c>
+      <c r="F39" t="str">
+        <v>116</v>
+      </c>
+      <c r="G39" t="str">
+        <v>4.1800</v>
+      </c>
+      <c r="H39" t="str">
+        <v>425</v>
+      </c>
+      <c r="I39" t="str">
+        <v>4.1800</v>
+      </c>
+      <c r="J39" t="str">
+        <v>0.8360</v>
+      </c>
+      <c r="K39" t="str">
+        <v>5.0160</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="40">
+      <c r="A40" t="str">
+        <v>chatting020</v>
+      </c>
+      <c r="B40" t="str">
+        <v>325</v>
+      </c>
+      <c r="C40" t="str">
+        <v>20</v>
+      </c>
+      <c r="D40" t="str">
+        <v>0</v>
+      </c>
+      <c r="E40" t="str">
+        <v>11</v>
+      </c>
+      <c r="F40" t="str">
+        <v>31</v>
+      </c>
+      <c r="G40" t="str">
+        <v>3.4000</v>
+      </c>
+      <c r="H40" t="str">
+        <v>451</v>
+      </c>
+      <c r="I40" t="str">
+        <v>3.4000</v>
+      </c>
+      <c r="J40" t="str">
+        <v>0.6800</v>
+      </c>
+      <c r="K40" t="str">
+        <v>4.0800</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="41">
+      <c r="A41" t="str">
+        <v>ahmedegypt1</v>
+      </c>
+      <c r="B41" t="str">
+        <v>166</v>
+      </c>
+      <c r="C41" t="str">
+        <v>17</v>
+      </c>
+      <c r="D41" t="str">
+        <v>0</v>
+      </c>
+      <c r="E41" t="str">
+        <v>14</v>
+      </c>
+      <c r="F41" t="str">
+        <v>31</v>
+      </c>
+      <c r="G41" t="str">
+        <v>2.8900</v>
+      </c>
+      <c r="H41" t="str">
+        <v>727</v>
+      </c>
+      <c r="I41" t="str">
+        <v>2.8900</v>
+      </c>
+      <c r="J41" t="str">
+        <v>0.5780</v>
+      </c>
+      <c r="K41" t="str">
+        <v>3.4680</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="42">
+      <c r="A42" t="str">
+        <v>Yinni004</v>
+      </c>
+      <c r="B42" t="str">
+        <v>101</v>
+      </c>
+      <c r="C42" t="str">
+        <v>0</v>
+      </c>
+      <c r="D42" t="str">
+        <v>0</v>
+      </c>
+      <c r="E42" t="str">
+        <v>100</v>
+      </c>
+      <c r="F42" t="str">
+        <v>100</v>
+      </c>
+      <c r="G42" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="H42" t="str">
+        <v>61</v>
+      </c>
+      <c r="I42" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="J42" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="K42" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="43">
+      <c r="A43" t="str">
+        <v>APP001</v>
+      </c>
+      <c r="B43" t="str">
+        <v>161</v>
+      </c>
+      <c r="C43" t="str">
+        <v>15</v>
+      </c>
+      <c r="D43" t="str">
+        <v>0</v>
+      </c>
+      <c r="E43" t="str">
+        <v>10</v>
+      </c>
+      <c r="F43" t="str">
+        <v>25</v>
+      </c>
+      <c r="G43" t="str">
+        <v>2.5500</v>
+      </c>
+      <c r="H43" t="str">
+        <v>58</v>
+      </c>
+      <c r="I43" t="str">
+        <v>2.5500</v>
+      </c>
+      <c r="J43" t="str">
+        <v>0.5100</v>
+      </c>
+      <c r="K43" t="str">
+        <v>3.0600</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="44">
+      <c r="A44" t="str">
+        <v>jieying</v>
+      </c>
+      <c r="B44" t="str">
+        <v>141</v>
+      </c>
+      <c r="C44" t="str">
+        <v>15</v>
+      </c>
+      <c r="D44" t="str">
+        <v>0</v>
+      </c>
+      <c r="E44" t="str">
+        <v>17</v>
+      </c>
+      <c r="F44" t="str">
+        <v>32</v>
+      </c>
+      <c r="G44" t="str">
+        <v>2.5500</v>
+      </c>
+      <c r="H44" t="str">
+        <v>445</v>
+      </c>
+      <c r="I44" t="str">
+        <v>2.5500</v>
+      </c>
+      <c r="J44" t="str">
+        <v>0.5100</v>
+      </c>
+      <c r="K44" t="str">
+        <v>3.0600</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="45">
+      <c r="A45" t="str">
+        <v>Yinni001</v>
+      </c>
+      <c r="B45" t="str">
+        <v>111</v>
+      </c>
+      <c r="C45" t="str">
+        <v>2</v>
+      </c>
+      <c r="D45" t="str">
+        <v>0</v>
+      </c>
+      <c r="E45" t="str">
+        <v>79</v>
+      </c>
+      <c r="F45" t="str">
+        <v>81</v>
+      </c>
+      <c r="G45" t="str">
+        <v>0.3400</v>
+      </c>
+      <c r="H45" t="str">
+        <v>44</v>
+      </c>
+      <c r="I45" t="str">
+        <v>0.3400</v>
+      </c>
+      <c r="J45" t="str">
+        <v>0.0680</v>
+      </c>
+      <c r="K45" t="str">
+        <v>0.4080</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="46">
+      <c r="A46" t="str">
+        <v>Inapp008</v>
+      </c>
+      <c r="B46" t="str">
+        <v>113</v>
+      </c>
+      <c r="C46" t="str">
+        <v>10</v>
+      </c>
+      <c r="D46" t="str">
+        <v>0</v>
+      </c>
+      <c r="E46" t="str">
+        <v>23</v>
+      </c>
+      <c r="F46" t="str">
+        <v>33</v>
+      </c>
+      <c r="G46" t="str">
+        <v>1.7000</v>
+      </c>
+      <c r="H46" t="str">
+        <v>124</v>
+      </c>
+      <c r="I46" t="str">
+        <v>1.7000</v>
+      </c>
+      <c r="J46" t="str">
+        <v>0.3400</v>
+      </c>
+      <c r="K46" t="str">
+        <v>2.0400</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="47">
+      <c r="A47" t="str">
+        <v>ID001</v>
+      </c>
+      <c r="B47" t="str">
+        <v>100</v>
+      </c>
+      <c r="C47" t="str">
+        <v>1</v>
+      </c>
+      <c r="D47" t="str">
+        <v>3</v>
+      </c>
+      <c r="E47" t="str">
+        <v>24</v>
+      </c>
+      <c r="F47" t="str">
+        <v>28</v>
+      </c>
+      <c r="G47" t="str">
+        <v>0.4400</v>
+      </c>
+      <c r="H47" t="str">
+        <v>144</v>
+      </c>
+      <c r="I47" t="str">
+        <v>0.4400</v>
+      </c>
+      <c r="J47" t="str">
+        <v>0.0880</v>
+      </c>
+      <c r="K47" t="str">
+        <v>0.5280</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="48">
+      <c r="A48" t="str">
+        <v>Yindu001</v>
+      </c>
+      <c r="B48" t="str">
+        <v>69</v>
+      </c>
+      <c r="C48" t="str">
+        <v>1</v>
+      </c>
+      <c r="D48" t="str">
+        <v>0</v>
+      </c>
+      <c r="E48" t="str">
+        <v>40</v>
+      </c>
+      <c r="F48" t="str">
+        <v>41</v>
+      </c>
+      <c r="G48" t="str">
+        <v>0.1700</v>
+      </c>
+      <c r="H48" t="str">
+        <v>261</v>
+      </c>
+      <c r="I48" t="str">
+        <v>0.1700</v>
+      </c>
+      <c r="J48" t="str">
+        <v>0.0340</v>
+      </c>
+      <c r="K48" t="str">
+        <v>0.2040</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="49">
+      <c r="A49" t="str">
+        <v>chatting023</v>
+      </c>
+      <c r="B49" t="str">
         <v>49</v>
       </c>
-      <c r="C33" t="str">
+      <c r="C49" t="str">
+        <v>7</v>
+      </c>
+      <c r="D49" t="str">
+        <v>0</v>
+      </c>
+      <c r="E49" t="str">
+        <v>6</v>
+      </c>
+      <c r="F49" t="str">
+        <v>13</v>
+      </c>
+      <c r="G49" t="str">
+        <v>1.1900</v>
+      </c>
+      <c r="H49" t="str">
+        <v>723</v>
+      </c>
+      <c r="I49" t="str">
+        <v>1.1900</v>
+      </c>
+      <c r="J49" t="str">
+        <v>0.2380</v>
+      </c>
+      <c r="K49" t="str">
+        <v>1.4280</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="50">
+      <c r="A50" t="str">
+        <v>jinshuo</v>
+      </c>
+      <c r="B50" t="str">
+        <v>7</v>
+      </c>
+      <c r="C50" t="str">
+        <v>0</v>
+      </c>
+      <c r="D50" t="str">
+        <v>0</v>
+      </c>
+      <c r="E50" t="str">
+        <v>5</v>
+      </c>
+      <c r="F50" t="str">
+        <v>5</v>
+      </c>
+      <c r="G50" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="H50" t="str">
+        <v>3</v>
+      </c>
+      <c r="I50" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="J50" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="K50" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="51">
+      <c r="A51" t="str">
+        <v>Mazagan001</v>
+      </c>
+      <c r="B51" t="str">
+        <v>3</v>
+      </c>
+      <c r="C51" t="str">
+        <v>0</v>
+      </c>
+      <c r="D51" t="str">
+        <v>0</v>
+      </c>
+      <c r="E51" t="str">
         <v>2</v>
       </c>
-      <c r="D33" t="str">
-        <v>0</v>
-      </c>
-      <c r="E33" t="str">
-        <v>4</v>
-      </c>
-      <c r="F33" t="str">
-        <v>6</v>
-      </c>
-      <c r="G33" t="str">
-        <v>0.3400</v>
-      </c>
-      <c r="H33" t="str">
-        <v>255</v>
-      </c>
-      <c r="I33" t="str">
-        <v>0.3400</v>
-      </c>
-      <c r="J33" t="str">
-        <v>0.0680</v>
-      </c>
-      <c r="K33" t="str">
-        <v>0.4080</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="34">
-      <c r="A34" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B34" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C34" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D34" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E34" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F34" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G34" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="H34" t="str">
+      <c r="F51" t="str">
+        <v>2</v>
+      </c>
+      <c r="G51" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="H51" t="str">
+        <v>573</v>
+      </c>
+      <c r="I51" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="J51" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="K51" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="52">
+      <c r="A52" t="str">
+        <v>chatting038</v>
+      </c>
+      <c r="B52" t="str">
+        <v>3</v>
+      </c>
+      <c r="C52" t="str">
+        <v>0</v>
+      </c>
+      <c r="D52" t="str">
+        <v>0</v>
+      </c>
+      <c r="E52" t="str">
+        <v>2</v>
+      </c>
+      <c r="F52" t="str">
+        <v>2</v>
+      </c>
+      <c r="G52" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="H52" t="str">
+        <v>0</v>
+      </c>
+      <c r="I52" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="J52" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="K52" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="53">
+      <c r="A53" t="str">
+        <v>Inapp009</v>
+      </c>
+      <c r="B53" t="str">
+        <v>2</v>
+      </c>
+      <c r="C53" t="str">
+        <v>0</v>
+      </c>
+      <c r="D53" t="str">
+        <v>0</v>
+      </c>
+      <c r="E53" t="str">
+        <v>2</v>
+      </c>
+      <c r="F53" t="str">
+        <v>2</v>
+      </c>
+      <c r="G53" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="H53" t="str">
+        <v>0</v>
+      </c>
+      <c r="I53" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="K53" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="54">
+      <c r="A54" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B54" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C54" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D54" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E54" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F54" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G54" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="H54" t="str">
         <v>总工资:</v>
       </c>
-      <c r="I34" t="str">
-        <v>369.0300</v>
-      </c>
-      <c r="J34" t="str">
-        <v>73.8060</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="35">
-      <c r="A35" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B35" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C35" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D35" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E35" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F35" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G35" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="H35" t="str">
+      <c r="I54" t="str">
+        <v>406.8400</v>
+      </c>
+      <c r="J54" t="str">
+        <v>81.3680</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="55">
+      <c r="A55" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B55" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C55" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D55" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E55" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F55" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G55" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="H55" t="str">
         <v>平均工资:</v>
       </c>
-      <c r="I35" t="str">
-        <v>11.9042</v>
-      </c>
-      <c r="J35" t="str">
-        <v>2.3808</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="36">
-      <c r="A36" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B36" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C36" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D36" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E36" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F36" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G36" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="H36" t="str">
+      <c r="I55" t="str">
+        <v>7.9773</v>
+      </c>
+      <c r="J55" t="str">
+        <v>1.5955</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="56">
+      <c r="A56" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B56" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C56" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D56" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E56" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F56" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G56" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="H56" t="str">
         <v>大与7个数:</v>
       </c>
-      <c r="I36" t="str">
-        <v>2652</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="37">
-      <c r="A37" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B37" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C37" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D37" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E37" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F37" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G37" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="H37" t="str">
+      <c r="I56" t="str">
+        <v>2850</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="57">
+      <c r="A57" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B57" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C57" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D57" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E57" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F57" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G57" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="H57" t="str">
         <v>高于平均工资人数:</v>
       </c>
-      <c r="I37" t="str">
-        <v>17</v>
+      <c r="I57" t="str">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/陪聊数据统计.xlsx
+++ b/陪聊数据统计.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="20190805 05点-20190806 05点" sheetId="1" r:id="rId1"/>
+    <sheet name="20190820 05点-20190821 05点" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -431,212 +431,212 @@
     </row>
     <row customHeight="true" ht="28" r="3">
       <c r="A3" t="str">
-        <v>Yinni003</v>
+        <v>chatting015</v>
       </c>
       <c r="B3" t="str">
-        <v>3489</v>
+        <v>2348</v>
       </c>
       <c r="C3" t="str">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="D3" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" t="str">
-        <v>837</v>
+        <v>98</v>
       </c>
       <c r="F3" t="str">
-        <v>879</v>
+        <v>273</v>
       </c>
       <c r="G3" t="str">
-        <v>6.9000</v>
+        <v>29.7500</v>
       </c>
       <c r="H3" t="str">
-        <v>1406</v>
+        <v>715</v>
       </c>
       <c r="I3" t="str">
-        <v>6.9000</v>
+        <v>29.7500</v>
       </c>
       <c r="J3" t="str">
-        <v>1.3800</v>
+        <v>5.9500</v>
       </c>
       <c r="K3" t="str">
-        <v>8.2800</v>
+        <v>35.7000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="4">
       <c r="A4" t="str">
-        <v>APP004</v>
+        <v>chatting07</v>
       </c>
       <c r="B4" t="str">
-        <v>2314</v>
+        <v>1652</v>
       </c>
       <c r="C4" t="str">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="D4" t="str">
         <v>0</v>
       </c>
       <c r="E4" t="str">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="F4" t="str">
-        <v>272</v>
+        <v>165</v>
       </c>
       <c r="G4" t="str">
-        <v>28.7300</v>
+        <v>19.0400</v>
       </c>
       <c r="H4" t="str">
-        <v>948</v>
+        <v>877</v>
       </c>
       <c r="I4" t="str">
-        <v>28.7300</v>
+        <v>19.0400</v>
       </c>
       <c r="J4" t="str">
-        <v>5.7460</v>
+        <v>3.8080</v>
       </c>
       <c r="K4" t="str">
-        <v>34.4760</v>
+        <v>22.8480</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="5">
       <c r="A5" t="str">
-        <v>chatting033</v>
+        <v>chatting034</v>
       </c>
       <c r="B5" t="str">
-        <v>2210</v>
+        <v>1589</v>
       </c>
       <c r="C5" t="str">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="D5" t="str">
         <v>0</v>
       </c>
       <c r="E5" t="str">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="F5" t="str">
-        <v>287</v>
+        <v>150</v>
       </c>
       <c r="G5" t="str">
-        <v>24.9900</v>
+        <v>17.5100</v>
       </c>
       <c r="H5" t="str">
-        <v>1299</v>
+        <v>741</v>
       </c>
       <c r="I5" t="str">
-        <v>24.9900</v>
+        <v>17.5100</v>
       </c>
       <c r="J5" t="str">
-        <v>4.9980</v>
+        <v>3.5020</v>
       </c>
       <c r="K5" t="str">
-        <v>29.9880</v>
+        <v>21.0120</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="6">
       <c r="A6" t="str">
-        <v>chatting015</v>
+        <v>APP004</v>
       </c>
       <c r="B6" t="str">
-        <v>1969</v>
+        <v>1438</v>
       </c>
       <c r="C6" t="str">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="D6" t="str">
         <v>0</v>
       </c>
       <c r="E6" t="str">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F6" t="str">
-        <v>228</v>
+        <v>171</v>
       </c>
       <c r="G6" t="str">
-        <v>25.5000</v>
+        <v>19.3800</v>
       </c>
       <c r="H6" t="str">
-        <v>537</v>
+        <v>1293</v>
       </c>
       <c r="I6" t="str">
-        <v>25.5000</v>
+        <v>19.3800</v>
       </c>
       <c r="J6" t="str">
-        <v>5.1000</v>
+        <v>3.8760</v>
       </c>
       <c r="K6" t="str">
-        <v>30.6000</v>
+        <v>23.2560</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="7">
       <c r="A7" t="str">
-        <v>chatting034</v>
+        <v>chatting036</v>
       </c>
       <c r="B7" t="str">
-        <v>1715</v>
+        <v>972</v>
       </c>
       <c r="C7" t="str">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D7" t="str">
         <v>0</v>
       </c>
       <c r="E7" t="str">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="F7" t="str">
-        <v>231</v>
+        <v>159</v>
       </c>
       <c r="G7" t="str">
-        <v>18.0200</v>
+        <v>17.3400</v>
       </c>
       <c r="H7" t="str">
-        <v>796</v>
+        <v>1435</v>
       </c>
       <c r="I7" t="str">
-        <v>18.0200</v>
+        <v>17.3400</v>
       </c>
       <c r="J7" t="str">
-        <v>3.6040</v>
+        <v>3.4680</v>
       </c>
       <c r="K7" t="str">
-        <v>21.6240</v>
+        <v>20.8080</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="8">
       <c r="A8" t="str">
-        <v>chatting032</v>
+        <v>mohammedegypt1</v>
       </c>
       <c r="B8" t="str">
-        <v>1359</v>
+        <v>1163</v>
       </c>
       <c r="C8" t="str">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="D8" t="str">
         <v>0</v>
       </c>
       <c r="E8" t="str">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="F8" t="str">
-        <v>212</v>
+        <v>104</v>
       </c>
       <c r="G8" t="str">
-        <v>20.0600</v>
+        <v>13.2600</v>
       </c>
       <c r="H8" t="str">
-        <v>641</v>
+        <v>658</v>
       </c>
       <c r="I8" t="str">
-        <v>20.0600</v>
+        <v>13.2600</v>
       </c>
       <c r="J8" t="str">
-        <v>4.0120</v>
+        <v>2.6520</v>
       </c>
       <c r="K8" t="str">
-        <v>24.0720</v>
+        <v>15.9120</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="9">
@@ -644,497 +644,497 @@
         <v>APP003</v>
       </c>
       <c r="B9" t="str">
-        <v>1293</v>
+        <v>1043</v>
       </c>
       <c r="C9" t="str">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D9" t="str">
         <v>0</v>
       </c>
       <c r="E9" t="str">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F9" t="str">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="G9" t="str">
-        <v>17.0000</v>
+        <v>15.1300</v>
       </c>
       <c r="H9" t="str">
-        <v>1389</v>
+        <v>439</v>
       </c>
       <c r="I9" t="str">
-        <v>17.0000</v>
+        <v>15.1300</v>
       </c>
       <c r="J9" t="str">
-        <v>3.4000</v>
+        <v>3.0260</v>
       </c>
       <c r="K9" t="str">
-        <v>20.4000</v>
+        <v>18.1560</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="10">
       <c r="A10" t="str">
-        <v>mohammedegypt1</v>
+        <v>chatting033</v>
       </c>
       <c r="B10" t="str">
-        <v>1473</v>
+        <v>995</v>
       </c>
       <c r="C10" t="str">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D10" t="str">
         <v>0</v>
       </c>
       <c r="E10" t="str">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F10" t="str">
         <v>110</v>
       </c>
       <c r="G10" t="str">
-        <v>13.7700</v>
+        <v>15.6400</v>
       </c>
       <c r="H10" t="str">
-        <v>591</v>
+        <v>815</v>
       </c>
       <c r="I10" t="str">
-        <v>13.7700</v>
+        <v>15.6400</v>
       </c>
       <c r="J10" t="str">
-        <v>2.7540</v>
+        <v>3.1280</v>
       </c>
       <c r="K10" t="str">
-        <v>16.5240</v>
+        <v>18.7680</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="11">
       <c r="A11" t="str">
-        <v>chatting016</v>
+        <v>Yindu002</v>
       </c>
       <c r="B11" t="str">
-        <v>1216</v>
+        <v>616</v>
       </c>
       <c r="C11" t="str">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="D11" t="str">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" t="str">
-        <v>61</v>
+        <v>256</v>
       </c>
       <c r="F11" t="str">
-        <v>157</v>
+        <v>296</v>
       </c>
       <c r="G11" t="str">
-        <v>15.8400</v>
+        <v>6.2400</v>
       </c>
       <c r="H11" t="str">
-        <v>1365</v>
+        <v>415</v>
       </c>
       <c r="I11" t="str">
-        <v>15.8400</v>
+        <v>6.2400</v>
       </c>
       <c r="J11" t="str">
-        <v>3.1680</v>
+        <v>1.2480</v>
       </c>
       <c r="K11" t="str">
-        <v>19.0080</v>
+        <v>7.4880</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="12">
       <c r="A12" t="str">
-        <v>chatting03</v>
+        <v>chatting06</v>
       </c>
       <c r="B12" t="str">
-        <v>1094</v>
+        <v>735</v>
       </c>
       <c r="C12" t="str">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="D12" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" t="str">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="F12" t="str">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="G12" t="str">
-        <v>17.5200</v>
+        <v>11.0500</v>
       </c>
       <c r="H12" t="str">
-        <v>1439</v>
+        <v>1133</v>
       </c>
       <c r="I12" t="str">
-        <v>17.5200</v>
+        <v>11.0500</v>
       </c>
       <c r="J12" t="str">
-        <v>3.5040</v>
+        <v>2.2100</v>
       </c>
       <c r="K12" t="str">
-        <v>21.0240</v>
+        <v>13.2600</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="13">
       <c r="A13" t="str">
-        <v>Yindu002</v>
+        <v>abodullaegypt1</v>
       </c>
       <c r="B13" t="str">
-        <v>715</v>
+        <v>683</v>
       </c>
       <c r="C13" t="str">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D13" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13" t="str">
-        <v>460</v>
+        <v>25</v>
       </c>
       <c r="F13" t="str">
-        <v>491</v>
+        <v>92</v>
       </c>
       <c r="G13" t="str">
-        <v>4.9500</v>
+        <v>11.3900</v>
       </c>
       <c r="H13" t="str">
-        <v>598</v>
+        <v>749</v>
       </c>
       <c r="I13" t="str">
-        <v>4.9500</v>
+        <v>11.3900</v>
       </c>
       <c r="J13" t="str">
-        <v>0.9900</v>
+        <v>2.2780</v>
       </c>
       <c r="K13" t="str">
-        <v>5.9400</v>
+        <v>13.6680</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="14">
       <c r="A14" t="str">
-        <v>chatting014</v>
+        <v>chatting038</v>
       </c>
       <c r="B14" t="str">
-        <v>847</v>
+        <v>595</v>
       </c>
       <c r="C14" t="str">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="D14" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14" t="str">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F14" t="str">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="G14" t="str">
-        <v>16.8300</v>
+        <v>11.3200</v>
       </c>
       <c r="H14" t="str">
-        <v>927</v>
+        <v>1370</v>
       </c>
       <c r="I14" t="str">
-        <v>16.8300</v>
+        <v>11.3200</v>
       </c>
       <c r="J14" t="str">
-        <v>3.3660</v>
+        <v>2.2640</v>
       </c>
       <c r="K14" t="str">
-        <v>20.1960</v>
+        <v>13.5840</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="15">
       <c r="A15" t="str">
-        <v>Yindu004</v>
+        <v>chatting03</v>
       </c>
       <c r="B15" t="str">
-        <v>832</v>
+        <v>602</v>
       </c>
       <c r="C15" t="str">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="D15" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="str">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F15" t="str">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="G15" t="str">
-        <v>14.4500</v>
+        <v>10.4600</v>
       </c>
       <c r="H15" t="str">
-        <v>290</v>
+        <v>1379</v>
       </c>
       <c r="I15" t="str">
-        <v>14.4500</v>
+        <v>10.4600</v>
       </c>
       <c r="J15" t="str">
-        <v>2.8900</v>
+        <v>2.0920</v>
       </c>
       <c r="K15" t="str">
-        <v>17.3400</v>
+        <v>12.5520</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="16">
       <c r="A16" t="str">
-        <v>chatting022</v>
+        <v>chatting032</v>
       </c>
       <c r="B16" t="str">
-        <v>826</v>
+        <v>637</v>
       </c>
       <c r="C16" t="str">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="D16" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" t="str">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F16" t="str">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="G16" t="str">
-        <v>14.2900</v>
+        <v>9.6900</v>
       </c>
       <c r="H16" t="str">
-        <v>621</v>
+        <v>180</v>
       </c>
       <c r="I16" t="str">
-        <v>14.2900</v>
+        <v>9.6900</v>
       </c>
       <c r="J16" t="str">
-        <v>2.8580</v>
+        <v>1.9380</v>
       </c>
       <c r="K16" t="str">
-        <v>17.1480</v>
+        <v>11.6280</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="17">
       <c r="A17" t="str">
-        <v>chatting039</v>
+        <v>chatting031</v>
       </c>
       <c r="B17" t="str">
-        <v>724</v>
+        <v>693</v>
       </c>
       <c r="C17" t="str">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="D17" t="str">
         <v>0</v>
       </c>
       <c r="E17" t="str">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F17" t="str">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="G17" t="str">
-        <v>13.2600</v>
+        <v>7.8200</v>
       </c>
       <c r="H17" t="str">
-        <v>677</v>
+        <v>1436</v>
       </c>
       <c r="I17" t="str">
-        <v>13.2600</v>
+        <v>7.8200</v>
       </c>
       <c r="J17" t="str">
-        <v>2.6520</v>
+        <v>1.5640</v>
       </c>
       <c r="K17" t="str">
-        <v>15.9120</v>
+        <v>9.3840</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="18">
       <c r="A18" t="str">
-        <v>chatting031</v>
+        <v>Yinni003</v>
       </c>
       <c r="B18" t="str">
-        <v>820</v>
+        <v>473</v>
       </c>
       <c r="C18" t="str">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D18" t="str">
         <v>0</v>
       </c>
       <c r="E18" t="str">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="F18" t="str">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="G18" t="str">
-        <v>9.3500</v>
+        <v>4.5900</v>
       </c>
       <c r="H18" t="str">
-        <v>465</v>
+        <v>786</v>
       </c>
       <c r="I18" t="str">
-        <v>9.3500</v>
+        <v>4.5900</v>
       </c>
       <c r="J18" t="str">
-        <v>1.8700</v>
+        <v>0.9180</v>
       </c>
       <c r="K18" t="str">
-        <v>11.2200</v>
+        <v>5.5080</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="19">
       <c r="A19" t="str">
-        <v>chatting035</v>
+        <v>Yindu003</v>
       </c>
       <c r="B19" t="str">
-        <v>733</v>
+        <v>478</v>
       </c>
       <c r="C19" t="str">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D19" t="str">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E19" t="str">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="F19" t="str">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="G19" t="str">
-        <v>10.3700</v>
+        <v>5.0500</v>
       </c>
       <c r="H19" t="str">
-        <v>690</v>
+        <v>872</v>
       </c>
       <c r="I19" t="str">
-        <v>10.3700</v>
+        <v>5.0500</v>
       </c>
       <c r="J19" t="str">
-        <v>2.0740</v>
+        <v>1.0100</v>
       </c>
       <c r="K19" t="str">
-        <v>12.4440</v>
+        <v>6.0600</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="20">
       <c r="A20" t="str">
-        <v>Yinni002</v>
+        <v>chatting013</v>
       </c>
       <c r="B20" t="str">
-        <v>420</v>
+        <v>518</v>
       </c>
       <c r="C20" t="str">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="D20" t="str">
         <v>0</v>
       </c>
       <c r="E20" t="str">
-        <v>397</v>
+        <v>12</v>
       </c>
       <c r="F20" t="str">
-        <v>398</v>
+        <v>59</v>
       </c>
       <c r="G20" t="str">
-        <v>0.1700</v>
+        <v>7.9900</v>
       </c>
       <c r="H20" t="str">
-        <v>133</v>
+        <v>1223</v>
       </c>
       <c r="I20" t="str">
-        <v>0.1700</v>
+        <v>7.9900</v>
       </c>
       <c r="J20" t="str">
-        <v>0.0340</v>
+        <v>1.5980</v>
       </c>
       <c r="K20" t="str">
-        <v>0.2040</v>
+        <v>9.5880</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="21">
       <c r="A21" t="str">
-        <v>chatting07</v>
+        <v>chatting035</v>
       </c>
       <c r="B21" t="str">
-        <v>767</v>
+        <v>498</v>
       </c>
       <c r="C21" t="str">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D21" t="str">
         <v>0</v>
       </c>
       <c r="E21" t="str">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F21" t="str">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G21" t="str">
-        <v>8.6700</v>
+        <v>7.9900</v>
       </c>
       <c r="H21" t="str">
-        <v>271</v>
+        <v>1347</v>
       </c>
       <c r="I21" t="str">
-        <v>8.6700</v>
+        <v>7.9900</v>
       </c>
       <c r="J21" t="str">
-        <v>1.7340</v>
+        <v>1.5980</v>
       </c>
       <c r="K21" t="str">
-        <v>10.4040</v>
+        <v>9.5880</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="22">
       <c r="A22" t="str">
-        <v>rashadegypt1</v>
+        <v>APP001</v>
       </c>
       <c r="B22" t="str">
-        <v>581</v>
+        <v>499</v>
       </c>
       <c r="C22" t="str">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D22" t="str">
         <v>0</v>
       </c>
       <c r="E22" t="str">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F22" t="str">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G22" t="str">
-        <v>10.3700</v>
+        <v>7.1400</v>
       </c>
       <c r="H22" t="str">
-        <v>286</v>
+        <v>832</v>
       </c>
       <c r="I22" t="str">
-        <v>10.3700</v>
+        <v>7.1400</v>
       </c>
       <c r="J22" t="str">
-        <v>2.0740</v>
+        <v>1.4280</v>
       </c>
       <c r="K22" t="str">
-        <v>12.4440</v>
+        <v>8.5680</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="23">
       <c r="A23" t="str">
-        <v>abodullaegypt1</v>
+        <v>chatting017</v>
       </c>
       <c r="B23" t="str">
-        <v>620</v>
+        <v>428</v>
       </c>
       <c r="C23" t="str">
         <v>47</v>
@@ -1143,16 +1143,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="str">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F23" t="str">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G23" t="str">
         <v>7.9900</v>
       </c>
       <c r="H23" t="str">
-        <v>1414</v>
+        <v>690</v>
       </c>
       <c r="I23" t="str">
         <v>7.9900</v>
@@ -1166,325 +1166,325 @@
     </row>
     <row customHeight="true" ht="28" r="24">
       <c r="A24" t="str">
-        <v>yousefegypt1</v>
+        <v>chatting021</v>
       </c>
       <c r="B24" t="str">
-        <v>563</v>
+        <v>416</v>
       </c>
       <c r="C24" t="str">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D24" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24" t="str">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F24" t="str">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="G24" t="str">
-        <v>8.3400</v>
+        <v>6.9700</v>
       </c>
       <c r="H24" t="str">
-        <v>936</v>
+        <v>737</v>
       </c>
       <c r="I24" t="str">
-        <v>8.3400</v>
+        <v>6.9700</v>
       </c>
       <c r="J24" t="str">
-        <v>1.6680</v>
+        <v>1.3940</v>
       </c>
       <c r="K24" t="str">
-        <v>10.0080</v>
+        <v>8.3640</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="25">
       <c r="A25" t="str">
-        <v>chatting036</v>
+        <v>rashadegypt1</v>
       </c>
       <c r="B25" t="str">
-        <v>505</v>
+        <v>378</v>
       </c>
       <c r="C25" t="str">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D25" t="str">
         <v>0</v>
       </c>
       <c r="E25" t="str">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F25" t="str">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="G25" t="str">
-        <v>9.3500</v>
+        <v>6.9700</v>
       </c>
       <c r="H25" t="str">
-        <v>273</v>
+        <v>677</v>
       </c>
       <c r="I25" t="str">
-        <v>9.3500</v>
+        <v>6.9700</v>
       </c>
       <c r="J25" t="str">
-        <v>1.8700</v>
+        <v>1.3940</v>
       </c>
       <c r="K25" t="str">
-        <v>11.2200</v>
+        <v>8.3640</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="26">
       <c r="A26" t="str">
-        <v>Inapp001</v>
+        <v>yaseregypt1</v>
       </c>
       <c r="B26" t="str">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="C26" t="str">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D26" t="str">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E26" t="str">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="F26" t="str">
-        <v>209</v>
+        <v>62</v>
       </c>
       <c r="G26" t="str">
-        <v>4.4500</v>
+        <v>6.9700</v>
       </c>
       <c r="H26" t="str">
-        <v>375</v>
+        <v>680</v>
       </c>
       <c r="I26" t="str">
-        <v>4.4500</v>
+        <v>6.9700</v>
       </c>
       <c r="J26" t="str">
-        <v>0.8900</v>
+        <v>1.3940</v>
       </c>
       <c r="K26" t="str">
-        <v>5.3400</v>
+        <v>8.3640</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="27">
       <c r="A27" t="str">
-        <v>chatting10</v>
+        <v>chatting016</v>
       </c>
       <c r="B27" t="str">
-        <v>528</v>
+        <v>340</v>
       </c>
       <c r="C27" t="str">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D27" t="str">
         <v>0</v>
       </c>
       <c r="E27" t="str">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F27" t="str">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="G27" t="str">
-        <v>8.5000</v>
+        <v>4.4200</v>
       </c>
       <c r="H27" t="str">
-        <v>749</v>
+        <v>807</v>
       </c>
       <c r="I27" t="str">
-        <v>8.5000</v>
+        <v>4.4200</v>
       </c>
       <c r="J27" t="str">
-        <v>1.7000</v>
+        <v>0.8840</v>
       </c>
       <c r="K27" t="str">
-        <v>10.2000</v>
+        <v>5.3040</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="28">
       <c r="A28" t="str">
-        <v>Inapp006</v>
+        <v>chatting023</v>
       </c>
       <c r="B28" t="str">
-        <v>393</v>
+        <v>306</v>
       </c>
       <c r="C28" t="str">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D28" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="str">
-        <v>189</v>
+        <v>15</v>
       </c>
       <c r="F28" t="str">
-        <v>212</v>
+        <v>41</v>
       </c>
       <c r="G28" t="str">
-        <v>3.8300</v>
+        <v>4.4200</v>
       </c>
       <c r="H28" t="str">
-        <v>918</v>
+        <v>835</v>
       </c>
       <c r="I28" t="str">
-        <v>3.8300</v>
+        <v>4.4200</v>
       </c>
       <c r="J28" t="str">
-        <v>0.7660</v>
+        <v>0.8840</v>
       </c>
       <c r="K28" t="str">
-        <v>4.5960</v>
+        <v>5.3040</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="29">
       <c r="A29" t="str">
-        <v>chatting013</v>
+        <v>Yindu004</v>
       </c>
       <c r="B29" t="str">
-        <v>503</v>
+        <v>155</v>
       </c>
       <c r="C29" t="str">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D29" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E29" t="str">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F29" t="str">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="G29" t="str">
-        <v>7.6500</v>
+        <v>1.7200</v>
       </c>
       <c r="H29" t="str">
-        <v>791</v>
+        <v>339</v>
       </c>
       <c r="I29" t="str">
-        <v>7.6500</v>
+        <v>1.7200</v>
       </c>
       <c r="J29" t="str">
-        <v>1.5300</v>
+        <v>0.3440</v>
       </c>
       <c r="K29" t="str">
-        <v>9.1800</v>
+        <v>2.0640</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="30">
       <c r="A30" t="str">
-        <v>yaseregypt1</v>
+        <v>chatting039</v>
       </c>
       <c r="B30" t="str">
-        <v>470</v>
+        <v>121</v>
       </c>
       <c r="C30" t="str">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D30" t="str">
         <v>0</v>
       </c>
       <c r="E30" t="str">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F30" t="str">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="G30" t="str">
-        <v>7.3100</v>
+        <v>2.5500</v>
       </c>
       <c r="H30" t="str">
-        <v>544</v>
+        <v>179</v>
       </c>
       <c r="I30" t="str">
-        <v>7.3100</v>
+        <v>2.5500</v>
       </c>
       <c r="J30" t="str">
-        <v>1.4620</v>
+        <v>0.5100</v>
       </c>
       <c r="K30" t="str">
-        <v>8.7720</v>
+        <v>3.0600</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="31">
       <c r="A31" t="str">
-        <v>chatting05</v>
+        <v>chatting040</v>
       </c>
       <c r="B31" t="str">
-        <v>413</v>
+        <v>105</v>
       </c>
       <c r="C31" t="str">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D31" t="str">
         <v>0</v>
       </c>
       <c r="E31" t="str">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F31" t="str">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="G31" t="str">
-        <v>6.1200</v>
+        <v>1.5300</v>
       </c>
       <c r="H31" t="str">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I31" t="str">
-        <v>6.1200</v>
+        <v>1.5300</v>
       </c>
       <c r="J31" t="str">
-        <v>1.2240</v>
+        <v>0.3060</v>
       </c>
       <c r="K31" t="str">
-        <v>7.3440</v>
+        <v>1.8360</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="32">
       <c r="A32" t="str">
-        <v>chatting02</v>
+        <v>chatting014</v>
       </c>
       <c r="B32" t="str">
-        <v>453</v>
+        <v>71</v>
       </c>
       <c r="C32" t="str">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D32" t="str">
         <v>0</v>
       </c>
       <c r="E32" t="str">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F32" t="str">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="G32" t="str">
-        <v>6.4600</v>
+        <v>1.3600</v>
       </c>
       <c r="H32" t="str">
-        <v>323</v>
+        <v>726</v>
       </c>
       <c r="I32" t="str">
-        <v>6.4600</v>
+        <v>1.3600</v>
       </c>
       <c r="J32" t="str">
-        <v>1.2920</v>
+        <v>0.2720</v>
       </c>
       <c r="K32" t="str">
-        <v>7.7520</v>
+        <v>1.6320</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="33">
       <c r="A33" t="str">
-        <v>aihaf</v>
+        <v>Yindu001</v>
       </c>
       <c r="B33" t="str">
-        <v>282</v>
+        <v>24</v>
       </c>
       <c r="C33" t="str">
         <v>0</v>
@@ -1493,16 +1493,16 @@
         <v>1</v>
       </c>
       <c r="E33" t="str">
-        <v>237</v>
+        <v>4</v>
       </c>
       <c r="F33" t="str">
-        <v>238</v>
+        <v>5</v>
       </c>
       <c r="G33" t="str">
         <v>0.0900</v>
       </c>
       <c r="H33" t="str">
-        <v>480</v>
+        <v>81</v>
       </c>
       <c r="I33" t="str">
         <v>0.0900</v>
@@ -1516,824 +1516,229 @@
     </row>
     <row customHeight="true" ht="28" r="34">
       <c r="A34" t="str">
-        <v>chatting017</v>
+        <v>chatting020</v>
       </c>
       <c r="B34" t="str">
-        <v>378</v>
+        <v>5</v>
       </c>
       <c r="C34" t="str">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D34" t="str">
         <v>0</v>
       </c>
       <c r="E34" t="str">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F34" t="str">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="G34" t="str">
-        <v>7.6500</v>
+        <v>0.0000</v>
       </c>
       <c r="H34" t="str">
-        <v>589</v>
+        <v>7</v>
       </c>
       <c r="I34" t="str">
-        <v>7.6500</v>
+        <v>0.0000</v>
       </c>
       <c r="J34" t="str">
-        <v>1.5300</v>
+        <v>0.0000</v>
       </c>
       <c r="K34" t="str">
-        <v>9.1800</v>
+        <v>0.0000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="35">
       <c r="A35" t="str">
-        <v>APP005</v>
+        <v>chatting05</v>
       </c>
       <c r="B35" t="str">
-        <v>416</v>
+        <v>2</v>
       </c>
       <c r="C35" t="str">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D35" t="str">
+        <v>0</v>
+      </c>
+      <c r="E35" t="str">
         <v>2</v>
       </c>
-      <c r="E35" t="str">
-        <v>18</v>
-      </c>
       <c r="F35" t="str">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="G35" t="str">
-        <v>6.4700</v>
+        <v>0.0000</v>
       </c>
       <c r="H35" t="str">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="I35" t="str">
-        <v>6.4700</v>
+        <v>0.0000</v>
       </c>
       <c r="J35" t="str">
-        <v>1.2940</v>
+        <v>0.0000</v>
       </c>
       <c r="K35" t="str">
-        <v>7.7640</v>
+        <v>0.0000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="36">
       <c r="A36" t="str">
-        <v>chatting040</v>
+        <v>APP005</v>
       </c>
       <c r="B36" t="str">
-        <v>332</v>
+        <v>1</v>
       </c>
       <c r="C36" t="str">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D36" t="str">
         <v>0</v>
       </c>
       <c r="E36" t="str">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="F36" t="str">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="G36" t="str">
-        <v>4.9300</v>
+        <v>0.0000</v>
       </c>
       <c r="H36" t="str">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="I36" t="str">
-        <v>4.9300</v>
+        <v>0.0000</v>
       </c>
       <c r="J36" t="str">
-        <v>0.9860</v>
+        <v>0.0000</v>
       </c>
       <c r="K36" t="str">
-        <v>5.9160</v>
+        <v>0.0000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="37">
-      <c r="A37" t="str">
-        <v>Inapp003</v>
-      </c>
-      <c r="B37" t="str">
-        <v>308</v>
-      </c>
-      <c r="C37" t="str">
-        <v>19</v>
-      </c>
-      <c r="D37" t="str">
-        <v>4</v>
-      </c>
-      <c r="E37" t="str">
-        <v>119</v>
-      </c>
-      <c r="F37" t="str">
-        <v>142</v>
-      </c>
-      <c r="G37" t="str">
-        <v>3.5900</v>
+      <c r="A37" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B37" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C37" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D37" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E37" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F37" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G37" t="str" xml:space="preserve">
+        <v> </v>
       </c>
       <c r="H37" t="str">
-        <v>628</v>
+        <v>总工资:</v>
       </c>
       <c r="I37" t="str">
-        <v>3.5900</v>
+        <v>292.7700</v>
       </c>
       <c r="J37" t="str">
-        <v>0.7180</v>
-      </c>
-      <c r="K37" t="str">
-        <v>4.3080</v>
+        <v>58.5540</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="38">
-      <c r="A38" t="str">
-        <v>Yindu003</v>
-      </c>
-      <c r="B38" t="str">
-        <v>354</v>
-      </c>
-      <c r="C38" t="str">
-        <v>21</v>
-      </c>
-      <c r="D38" t="str">
-        <v>1</v>
-      </c>
-      <c r="E38" t="str">
-        <v>75</v>
-      </c>
-      <c r="F38" t="str">
-        <v>97</v>
-      </c>
-      <c r="G38" t="str">
-        <v>3.6600</v>
+      <c r="A38" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B38" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C38" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D38" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E38" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F38" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G38" t="str" xml:space="preserve">
+        <v> </v>
       </c>
       <c r="H38" t="str">
-        <v>829</v>
+        <v>平均工资:</v>
       </c>
       <c r="I38" t="str">
-        <v>3.6600</v>
+        <v>8.6109</v>
       </c>
       <c r="J38" t="str">
-        <v>0.7320</v>
-      </c>
-      <c r="K38" t="str">
-        <v>4.3920</v>
+        <v>1.7222</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="39">
-      <c r="A39" t="str">
-        <v>jiefu</v>
-      </c>
-      <c r="B39" t="str">
-        <v>304</v>
-      </c>
-      <c r="C39" t="str">
-        <v>23</v>
-      </c>
-      <c r="D39" t="str">
-        <v>3</v>
-      </c>
-      <c r="E39" t="str">
-        <v>90</v>
-      </c>
-      <c r="F39" t="str">
-        <v>116</v>
-      </c>
-      <c r="G39" t="str">
-        <v>4.1800</v>
+      <c r="A39" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B39" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C39" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D39" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E39" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F39" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G39" t="str" xml:space="preserve">
+        <v> </v>
       </c>
       <c r="H39" t="str">
-        <v>425</v>
+        <v>大与7个数:</v>
       </c>
       <c r="I39" t="str">
-        <v>4.1800</v>
-      </c>
-      <c r="J39" t="str">
-        <v>0.8360</v>
-      </c>
-      <c r="K39" t="str">
-        <v>5.0160</v>
+        <v>2035</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="40">
-      <c r="A40" t="str">
-        <v>chatting020</v>
-      </c>
-      <c r="B40" t="str">
-        <v>325</v>
-      </c>
-      <c r="C40" t="str">
-        <v>20</v>
-      </c>
-      <c r="D40" t="str">
-        <v>0</v>
-      </c>
-      <c r="E40" t="str">
-        <v>11</v>
-      </c>
-      <c r="F40" t="str">
-        <v>31</v>
-      </c>
-      <c r="G40" t="str">
-        <v>3.4000</v>
+      <c r="A40" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B40" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C40" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D40" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E40" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F40" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G40" t="str" xml:space="preserve">
+        <v> </v>
       </c>
       <c r="H40" t="str">
-        <v>451</v>
+        <v>高于平均工资人数:</v>
       </c>
       <c r="I40" t="str">
-        <v>3.4000</v>
-      </c>
-      <c r="J40" t="str">
-        <v>0.6800</v>
-      </c>
-      <c r="K40" t="str">
-        <v>4.0800</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="41">
-      <c r="A41" t="str">
-        <v>ahmedegypt1</v>
-      </c>
-      <c r="B41" t="str">
-        <v>166</v>
-      </c>
-      <c r="C41" t="str">
-        <v>17</v>
-      </c>
-      <c r="D41" t="str">
-        <v>0</v>
-      </c>
-      <c r="E41" t="str">
-        <v>14</v>
-      </c>
-      <c r="F41" t="str">
-        <v>31</v>
-      </c>
-      <c r="G41" t="str">
-        <v>2.8900</v>
-      </c>
-      <c r="H41" t="str">
-        <v>727</v>
-      </c>
-      <c r="I41" t="str">
-        <v>2.8900</v>
-      </c>
-      <c r="J41" t="str">
-        <v>0.5780</v>
-      </c>
-      <c r="K41" t="str">
-        <v>3.4680</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="42">
-      <c r="A42" t="str">
-        <v>Yinni004</v>
-      </c>
-      <c r="B42" t="str">
-        <v>101</v>
-      </c>
-      <c r="C42" t="str">
-        <v>0</v>
-      </c>
-      <c r="D42" t="str">
-        <v>0</v>
-      </c>
-      <c r="E42" t="str">
-        <v>100</v>
-      </c>
-      <c r="F42" t="str">
-        <v>100</v>
-      </c>
-      <c r="G42" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="H42" t="str">
-        <v>61</v>
-      </c>
-      <c r="I42" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="J42" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="K42" t="str">
-        <v>0.0000</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="43">
-      <c r="A43" t="str">
-        <v>APP001</v>
-      </c>
-      <c r="B43" t="str">
-        <v>161</v>
-      </c>
-      <c r="C43" t="str">
-        <v>15</v>
-      </c>
-      <c r="D43" t="str">
-        <v>0</v>
-      </c>
-      <c r="E43" t="str">
-        <v>10</v>
-      </c>
-      <c r="F43" t="str">
-        <v>25</v>
-      </c>
-      <c r="G43" t="str">
-        <v>2.5500</v>
-      </c>
-      <c r="H43" t="str">
-        <v>58</v>
-      </c>
-      <c r="I43" t="str">
-        <v>2.5500</v>
-      </c>
-      <c r="J43" t="str">
-        <v>0.5100</v>
-      </c>
-      <c r="K43" t="str">
-        <v>3.0600</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="44">
-      <c r="A44" t="str">
-        <v>jieying</v>
-      </c>
-      <c r="B44" t="str">
-        <v>141</v>
-      </c>
-      <c r="C44" t="str">
-        <v>15</v>
-      </c>
-      <c r="D44" t="str">
-        <v>0</v>
-      </c>
-      <c r="E44" t="str">
-        <v>17</v>
-      </c>
-      <c r="F44" t="str">
-        <v>32</v>
-      </c>
-      <c r="G44" t="str">
-        <v>2.5500</v>
-      </c>
-      <c r="H44" t="str">
-        <v>445</v>
-      </c>
-      <c r="I44" t="str">
-        <v>2.5500</v>
-      </c>
-      <c r="J44" t="str">
-        <v>0.5100</v>
-      </c>
-      <c r="K44" t="str">
-        <v>3.0600</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="45">
-      <c r="A45" t="str">
-        <v>Yinni001</v>
-      </c>
-      <c r="B45" t="str">
-        <v>111</v>
-      </c>
-      <c r="C45" t="str">
-        <v>2</v>
-      </c>
-      <c r="D45" t="str">
-        <v>0</v>
-      </c>
-      <c r="E45" t="str">
-        <v>79</v>
-      </c>
-      <c r="F45" t="str">
-        <v>81</v>
-      </c>
-      <c r="G45" t="str">
-        <v>0.3400</v>
-      </c>
-      <c r="H45" t="str">
-        <v>44</v>
-      </c>
-      <c r="I45" t="str">
-        <v>0.3400</v>
-      </c>
-      <c r="J45" t="str">
-        <v>0.0680</v>
-      </c>
-      <c r="K45" t="str">
-        <v>0.4080</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="46">
-      <c r="A46" t="str">
-        <v>Inapp008</v>
-      </c>
-      <c r="B46" t="str">
-        <v>113</v>
-      </c>
-      <c r="C46" t="str">
-        <v>10</v>
-      </c>
-      <c r="D46" t="str">
-        <v>0</v>
-      </c>
-      <c r="E46" t="str">
-        <v>23</v>
-      </c>
-      <c r="F46" t="str">
-        <v>33</v>
-      </c>
-      <c r="G46" t="str">
-        <v>1.7000</v>
-      </c>
-      <c r="H46" t="str">
-        <v>124</v>
-      </c>
-      <c r="I46" t="str">
-        <v>1.7000</v>
-      </c>
-      <c r="J46" t="str">
-        <v>0.3400</v>
-      </c>
-      <c r="K46" t="str">
-        <v>2.0400</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="47">
-      <c r="A47" t="str">
-        <v>ID001</v>
-      </c>
-      <c r="B47" t="str">
-        <v>100</v>
-      </c>
-      <c r="C47" t="str">
-        <v>1</v>
-      </c>
-      <c r="D47" t="str">
-        <v>3</v>
-      </c>
-      <c r="E47" t="str">
-        <v>24</v>
-      </c>
-      <c r="F47" t="str">
-        <v>28</v>
-      </c>
-      <c r="G47" t="str">
-        <v>0.4400</v>
-      </c>
-      <c r="H47" t="str">
-        <v>144</v>
-      </c>
-      <c r="I47" t="str">
-        <v>0.4400</v>
-      </c>
-      <c r="J47" t="str">
-        <v>0.0880</v>
-      </c>
-      <c r="K47" t="str">
-        <v>0.5280</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="48">
-      <c r="A48" t="str">
-        <v>Yindu001</v>
-      </c>
-      <c r="B48" t="str">
-        <v>69</v>
-      </c>
-      <c r="C48" t="str">
-        <v>1</v>
-      </c>
-      <c r="D48" t="str">
-        <v>0</v>
-      </c>
-      <c r="E48" t="str">
-        <v>40</v>
-      </c>
-      <c r="F48" t="str">
-        <v>41</v>
-      </c>
-      <c r="G48" t="str">
-        <v>0.1700</v>
-      </c>
-      <c r="H48" t="str">
-        <v>261</v>
-      </c>
-      <c r="I48" t="str">
-        <v>0.1700</v>
-      </c>
-      <c r="J48" t="str">
-        <v>0.0340</v>
-      </c>
-      <c r="K48" t="str">
-        <v>0.2040</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="49">
-      <c r="A49" t="str">
-        <v>chatting023</v>
-      </c>
-      <c r="B49" t="str">
-        <v>49</v>
-      </c>
-      <c r="C49" t="str">
-        <v>7</v>
-      </c>
-      <c r="D49" t="str">
-        <v>0</v>
-      </c>
-      <c r="E49" t="str">
-        <v>6</v>
-      </c>
-      <c r="F49" t="str">
         <v>13</v>
-      </c>
-      <c r="G49" t="str">
-        <v>1.1900</v>
-      </c>
-      <c r="H49" t="str">
-        <v>723</v>
-      </c>
-      <c r="I49" t="str">
-        <v>1.1900</v>
-      </c>
-      <c r="J49" t="str">
-        <v>0.2380</v>
-      </c>
-      <c r="K49" t="str">
-        <v>1.4280</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="50">
-      <c r="A50" t="str">
-        <v>jinshuo</v>
-      </c>
-      <c r="B50" t="str">
-        <v>7</v>
-      </c>
-      <c r="C50" t="str">
-        <v>0</v>
-      </c>
-      <c r="D50" t="str">
-        <v>0</v>
-      </c>
-      <c r="E50" t="str">
-        <v>5</v>
-      </c>
-      <c r="F50" t="str">
-        <v>5</v>
-      </c>
-      <c r="G50" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="H50" t="str">
-        <v>3</v>
-      </c>
-      <c r="I50" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="J50" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="K50" t="str">
-        <v>0.0000</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="51">
-      <c r="A51" t="str">
-        <v>Mazagan001</v>
-      </c>
-      <c r="B51" t="str">
-        <v>3</v>
-      </c>
-      <c r="C51" t="str">
-        <v>0</v>
-      </c>
-      <c r="D51" t="str">
-        <v>0</v>
-      </c>
-      <c r="E51" t="str">
-        <v>2</v>
-      </c>
-      <c r="F51" t="str">
-        <v>2</v>
-      </c>
-      <c r="G51" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="H51" t="str">
-        <v>573</v>
-      </c>
-      <c r="I51" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="J51" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="K51" t="str">
-        <v>0.0000</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="52">
-      <c r="A52" t="str">
-        <v>chatting038</v>
-      </c>
-      <c r="B52" t="str">
-        <v>3</v>
-      </c>
-      <c r="C52" t="str">
-        <v>0</v>
-      </c>
-      <c r="D52" t="str">
-        <v>0</v>
-      </c>
-      <c r="E52" t="str">
-        <v>2</v>
-      </c>
-      <c r="F52" t="str">
-        <v>2</v>
-      </c>
-      <c r="G52" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="H52" t="str">
-        <v>0</v>
-      </c>
-      <c r="I52" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="J52" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="K52" t="str">
-        <v>0.0000</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="53">
-      <c r="A53" t="str">
-        <v>Inapp009</v>
-      </c>
-      <c r="B53" t="str">
-        <v>2</v>
-      </c>
-      <c r="C53" t="str">
-        <v>0</v>
-      </c>
-      <c r="D53" t="str">
-        <v>0</v>
-      </c>
-      <c r="E53" t="str">
-        <v>2</v>
-      </c>
-      <c r="F53" t="str">
-        <v>2</v>
-      </c>
-      <c r="G53" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="H53" t="str">
-        <v>0</v>
-      </c>
-      <c r="I53" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="J53" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="K53" t="str">
-        <v>0.0000</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="54">
-      <c r="A54" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B54" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C54" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D54" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E54" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F54" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G54" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="H54" t="str">
-        <v>总工资:</v>
-      </c>
-      <c r="I54" t="str">
-        <v>406.8400</v>
-      </c>
-      <c r="J54" t="str">
-        <v>81.3680</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="55">
-      <c r="A55" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B55" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C55" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D55" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E55" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F55" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G55" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="H55" t="str">
-        <v>平均工资:</v>
-      </c>
-      <c r="I55" t="str">
-        <v>7.9773</v>
-      </c>
-      <c r="J55" t="str">
-        <v>1.5955</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="56">
-      <c r="A56" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B56" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C56" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D56" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E56" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F56" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G56" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="H56" t="str">
-        <v>大与7个数:</v>
-      </c>
-      <c r="I56" t="str">
-        <v>2850</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="57">
-      <c r="A57" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B57" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C57" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D57" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E57" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F57" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G57" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="H57" t="str">
-        <v>高于平均工资人数:</v>
-      </c>
-      <c r="I57" t="str">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/陪聊数据统计.xlsx
+++ b/陪聊数据统计.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="20190820 05点-20190821 05点" sheetId="1" r:id="rId1"/>
+    <sheet name="20190825 05点-20190826 05点" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -434,384 +434,384 @@
         <v>chatting015</v>
       </c>
       <c r="B3" t="str">
-        <v>2348</v>
+        <v>2132</v>
       </c>
       <c r="C3" t="str">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D3" t="str">
         <v>0</v>
       </c>
       <c r="E3" t="str">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="F3" t="str">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="G3" t="str">
-        <v>29.7500</v>
+        <v>27.5400</v>
       </c>
       <c r="H3" t="str">
-        <v>715</v>
+        <v>830</v>
       </c>
       <c r="I3" t="str">
-        <v>29.7500</v>
+        <v>27.5400</v>
       </c>
       <c r="J3" t="str">
-        <v>5.9500</v>
+        <v>5.5080</v>
       </c>
       <c r="K3" t="str">
-        <v>35.7000</v>
+        <v>33.0480</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="4">
       <c r="A4" t="str">
-        <v>chatting07</v>
+        <v>chatting033</v>
       </c>
       <c r="B4" t="str">
-        <v>1652</v>
+        <v>1802</v>
       </c>
       <c r="C4" t="str">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="D4" t="str">
         <v>0</v>
       </c>
       <c r="E4" t="str">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="F4" t="str">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="G4" t="str">
-        <v>19.0400</v>
+        <v>23.1200</v>
       </c>
       <c r="H4" t="str">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="I4" t="str">
-        <v>19.0400</v>
+        <v>23.1200</v>
       </c>
       <c r="J4" t="str">
-        <v>3.8080</v>
+        <v>4.6240</v>
       </c>
       <c r="K4" t="str">
-        <v>22.8480</v>
+        <v>27.7440</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="5">
       <c r="A5" t="str">
-        <v>chatting034</v>
+        <v>APP004</v>
       </c>
       <c r="B5" t="str">
-        <v>1589</v>
+        <v>1700</v>
       </c>
       <c r="C5" t="str">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="D5" t="str">
         <v>0</v>
       </c>
       <c r="E5" t="str">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F5" t="str">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="G5" t="str">
-        <v>17.5100</v>
+        <v>22.4400</v>
       </c>
       <c r="H5" t="str">
-        <v>741</v>
+        <v>291</v>
       </c>
       <c r="I5" t="str">
-        <v>17.5100</v>
+        <v>22.4400</v>
       </c>
       <c r="J5" t="str">
-        <v>3.5020</v>
+        <v>4.4880</v>
       </c>
       <c r="K5" t="str">
-        <v>21.0120</v>
+        <v>26.9280</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="6">
       <c r="A6" t="str">
-        <v>APP004</v>
+        <v>APP003</v>
       </c>
       <c r="B6" t="str">
-        <v>1438</v>
+        <v>1647</v>
       </c>
       <c r="C6" t="str">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6" t="str">
         <v>0</v>
       </c>
       <c r="E6" t="str">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F6" t="str">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G6" t="str">
-        <v>19.3800</v>
+        <v>19.2100</v>
       </c>
       <c r="H6" t="str">
-        <v>1293</v>
+        <v>516</v>
       </c>
       <c r="I6" t="str">
-        <v>19.3800</v>
+        <v>19.2100</v>
       </c>
       <c r="J6" t="str">
-        <v>3.8760</v>
+        <v>3.8420</v>
       </c>
       <c r="K6" t="str">
-        <v>23.2560</v>
+        <v>23.0520</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="7">
       <c r="A7" t="str">
-        <v>chatting036</v>
+        <v>mohammedegypt1</v>
       </c>
       <c r="B7" t="str">
-        <v>972</v>
+        <v>1444</v>
       </c>
       <c r="C7" t="str">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D7" t="str">
         <v>0</v>
       </c>
       <c r="E7" t="str">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="F7" t="str">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="G7" t="str">
-        <v>17.3400</v>
+        <v>16.1500</v>
       </c>
       <c r="H7" t="str">
-        <v>1435</v>
+        <v>586</v>
       </c>
       <c r="I7" t="str">
-        <v>17.3400</v>
+        <v>16.1500</v>
       </c>
       <c r="J7" t="str">
-        <v>3.4680</v>
+        <v>3.2300</v>
       </c>
       <c r="K7" t="str">
-        <v>20.8080</v>
+        <v>19.3800</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="8">
       <c r="A8" t="str">
-        <v>mohammedegypt1</v>
+        <v>rashadegypt1</v>
       </c>
       <c r="B8" t="str">
-        <v>1163</v>
+        <v>1130</v>
       </c>
       <c r="C8" t="str">
+        <v>112</v>
+      </c>
+      <c r="D8" t="str">
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
         <v>78</v>
       </c>
-      <c r="D8" t="str">
-        <v>0</v>
-      </c>
-      <c r="E8" t="str">
-        <v>26</v>
-      </c>
       <c r="F8" t="str">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="G8" t="str">
-        <v>13.2600</v>
+        <v>19.0400</v>
       </c>
       <c r="H8" t="str">
-        <v>658</v>
+        <v>951</v>
       </c>
       <c r="I8" t="str">
-        <v>13.2600</v>
+        <v>19.0400</v>
       </c>
       <c r="J8" t="str">
-        <v>2.6520</v>
+        <v>3.8080</v>
       </c>
       <c r="K8" t="str">
-        <v>15.9120</v>
+        <v>22.8480</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="9">
       <c r="A9" t="str">
-        <v>APP003</v>
+        <v>chatting034</v>
       </c>
       <c r="B9" t="str">
-        <v>1043</v>
+        <v>1156</v>
       </c>
       <c r="C9" t="str">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D9" t="str">
         <v>0</v>
       </c>
       <c r="E9" t="str">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F9" t="str">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G9" t="str">
-        <v>15.1300</v>
+        <v>15.3000</v>
       </c>
       <c r="H9" t="str">
-        <v>439</v>
+        <v>619</v>
       </c>
       <c r="I9" t="str">
-        <v>15.1300</v>
+        <v>15.3000</v>
       </c>
       <c r="J9" t="str">
-        <v>3.0260</v>
+        <v>3.0600</v>
       </c>
       <c r="K9" t="str">
-        <v>18.1560</v>
+        <v>18.3600</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="10">
       <c r="A10" t="str">
-        <v>chatting033</v>
+        <v>chatting031</v>
       </c>
       <c r="B10" t="str">
-        <v>995</v>
+        <v>935</v>
       </c>
       <c r="C10" t="str">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="D10" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="str">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F10" t="str">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G10" t="str">
-        <v>15.6400</v>
+        <v>10.2900</v>
       </c>
       <c r="H10" t="str">
-        <v>815</v>
+        <v>1416</v>
       </c>
       <c r="I10" t="str">
-        <v>15.6400</v>
+        <v>10.2900</v>
       </c>
       <c r="J10" t="str">
-        <v>3.1280</v>
+        <v>2.0580</v>
       </c>
       <c r="K10" t="str">
-        <v>18.7680</v>
+        <v>12.3480</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="11">
       <c r="A11" t="str">
-        <v>Yindu002</v>
+        <v>APP005</v>
       </c>
       <c r="B11" t="str">
-        <v>616</v>
+        <v>900</v>
       </c>
       <c r="C11" t="str">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D11" t="str">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E11" t="str">
-        <v>256</v>
+        <v>25</v>
       </c>
       <c r="F11" t="str">
-        <v>296</v>
+        <v>92</v>
       </c>
       <c r="G11" t="str">
-        <v>6.2400</v>
+        <v>11.0700</v>
       </c>
       <c r="H11" t="str">
-        <v>415</v>
+        <v>841</v>
       </c>
       <c r="I11" t="str">
-        <v>6.2400</v>
+        <v>11.0700</v>
       </c>
       <c r="J11" t="str">
-        <v>1.2480</v>
+        <v>2.2140</v>
       </c>
       <c r="K11" t="str">
-        <v>7.4880</v>
+        <v>13.2840</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="12">
       <c r="A12" t="str">
-        <v>chatting06</v>
+        <v>chatting013</v>
       </c>
       <c r="B12" t="str">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="C12" t="str">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D12" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="str">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F12" t="str">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G12" t="str">
-        <v>11.0500</v>
+        <v>10.4600</v>
       </c>
       <c r="H12" t="str">
-        <v>1133</v>
+        <v>1199</v>
       </c>
       <c r="I12" t="str">
-        <v>11.0500</v>
+        <v>10.4600</v>
       </c>
       <c r="J12" t="str">
-        <v>2.2100</v>
+        <v>2.0920</v>
       </c>
       <c r="K12" t="str">
-        <v>13.2600</v>
+        <v>12.5520</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="13">
       <c r="A13" t="str">
-        <v>abodullaegypt1</v>
+        <v>yaseregypt1</v>
       </c>
       <c r="B13" t="str">
-        <v>683</v>
+        <v>593</v>
       </c>
       <c r="C13" t="str">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D13" t="str">
         <v>0</v>
       </c>
       <c r="E13" t="str">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F13" t="str">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G13" t="str">
-        <v>11.3900</v>
+        <v>10.8800</v>
       </c>
       <c r="H13" t="str">
-        <v>749</v>
+        <v>947</v>
       </c>
       <c r="I13" t="str">
-        <v>11.3900</v>
+        <v>10.8800</v>
       </c>
       <c r="J13" t="str">
-        <v>2.2780</v>
+        <v>2.1760</v>
       </c>
       <c r="K13" t="str">
-        <v>13.6680</v>
+        <v>13.0560</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="14">
@@ -819,926 +819,716 @@
         <v>chatting038</v>
       </c>
       <c r="B14" t="str">
-        <v>595</v>
+        <v>491</v>
       </c>
       <c r="C14" t="str">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D14" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" t="str">
         <v>35</v>
       </c>
       <c r="F14" t="str">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="G14" t="str">
-        <v>11.3200</v>
+        <v>9.6100</v>
       </c>
       <c r="H14" t="str">
-        <v>1370</v>
+        <v>1396</v>
       </c>
       <c r="I14" t="str">
-        <v>11.3200</v>
+        <v>9.6100</v>
       </c>
       <c r="J14" t="str">
-        <v>2.2640</v>
+        <v>1.9220</v>
       </c>
       <c r="K14" t="str">
-        <v>13.5840</v>
+        <v>11.5320</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="15">
       <c r="A15" t="str">
-        <v>chatting03</v>
+        <v>chatting021</v>
       </c>
       <c r="B15" t="str">
-        <v>602</v>
+        <v>480</v>
       </c>
       <c r="C15" t="str">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D15" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="str">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F15" t="str">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="G15" t="str">
-        <v>10.4600</v>
+        <v>8.1600</v>
       </c>
       <c r="H15" t="str">
-        <v>1379</v>
+        <v>695</v>
       </c>
       <c r="I15" t="str">
-        <v>10.4600</v>
+        <v>8.1600</v>
       </c>
       <c r="J15" t="str">
-        <v>2.0920</v>
+        <v>1.6320</v>
       </c>
       <c r="K15" t="str">
-        <v>12.5520</v>
+        <v>9.7920</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="16">
       <c r="A16" t="str">
-        <v>chatting032</v>
+        <v>chatting06</v>
       </c>
       <c r="B16" t="str">
-        <v>637</v>
+        <v>491</v>
       </c>
       <c r="C16" t="str">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D16" t="str">
         <v>0</v>
       </c>
       <c r="E16" t="str">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" t="str">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G16" t="str">
-        <v>9.6900</v>
+        <v>6.9700</v>
       </c>
       <c r="H16" t="str">
-        <v>180</v>
+        <v>647</v>
       </c>
       <c r="I16" t="str">
-        <v>9.6900</v>
+        <v>6.9700</v>
       </c>
       <c r="J16" t="str">
-        <v>1.9380</v>
+        <v>1.3940</v>
       </c>
       <c r="K16" t="str">
-        <v>11.6280</v>
+        <v>8.3640</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="17">
       <c r="A17" t="str">
-        <v>chatting031</v>
+        <v>chatting036</v>
       </c>
       <c r="B17" t="str">
-        <v>693</v>
+        <v>411</v>
       </c>
       <c r="C17" t="str">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" t="str">
         <v>0</v>
       </c>
       <c r="E17" t="str">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F17" t="str">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G17" t="str">
-        <v>7.8200</v>
+        <v>7.6500</v>
       </c>
       <c r="H17" t="str">
-        <v>1436</v>
+        <v>412</v>
       </c>
       <c r="I17" t="str">
-        <v>7.8200</v>
+        <v>7.6500</v>
       </c>
       <c r="J17" t="str">
-        <v>1.5640</v>
+        <v>1.5300</v>
       </c>
       <c r="K17" t="str">
-        <v>9.3840</v>
+        <v>9.1800</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="18">
       <c r="A18" t="str">
-        <v>Yinni003</v>
+        <v>chatting023</v>
       </c>
       <c r="B18" t="str">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="C18" t="str">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D18" t="str">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E18" t="str">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="F18" t="str">
-        <v>179</v>
+        <v>72</v>
       </c>
       <c r="G18" t="str">
-        <v>4.5900</v>
+        <v>6.4900</v>
       </c>
       <c r="H18" t="str">
-        <v>786</v>
+        <v>1430</v>
       </c>
       <c r="I18" t="str">
-        <v>4.5900</v>
+        <v>6.4900</v>
       </c>
       <c r="J18" t="str">
-        <v>0.9180</v>
+        <v>1.2980</v>
       </c>
       <c r="K18" t="str">
-        <v>5.5080</v>
+        <v>7.7880</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="19">
       <c r="A19" t="str">
-        <v>Yindu003</v>
+        <v>chatting035</v>
       </c>
       <c r="B19" t="str">
-        <v>478</v>
+        <v>352</v>
       </c>
       <c r="C19" t="str">
+        <v>33</v>
+      </c>
+      <c r="D19" t="str">
+        <v>0</v>
+      </c>
+      <c r="E19" t="str">
         <v>26</v>
       </c>
-      <c r="D19" t="str">
-        <v>7</v>
-      </c>
-      <c r="E19" t="str">
-        <v>138</v>
-      </c>
       <c r="F19" t="str">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="G19" t="str">
-        <v>5.0500</v>
+        <v>5.6100</v>
       </c>
       <c r="H19" t="str">
-        <v>872</v>
+        <v>126</v>
       </c>
       <c r="I19" t="str">
-        <v>5.0500</v>
+        <v>5.6100</v>
       </c>
       <c r="J19" t="str">
-        <v>1.0100</v>
+        <v>1.1220</v>
       </c>
       <c r="K19" t="str">
-        <v>6.0600</v>
+        <v>6.7320</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="20">
       <c r="A20" t="str">
-        <v>chatting013</v>
+        <v>APP001</v>
       </c>
       <c r="B20" t="str">
-        <v>518</v>
+        <v>245</v>
       </c>
       <c r="C20" t="str">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D20" t="str">
         <v>0</v>
       </c>
       <c r="E20" t="str">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F20" t="str">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="G20" t="str">
-        <v>7.9900</v>
+        <v>3.0600</v>
       </c>
       <c r="H20" t="str">
-        <v>1223</v>
+        <v>96</v>
       </c>
       <c r="I20" t="str">
-        <v>7.9900</v>
+        <v>3.0600</v>
       </c>
       <c r="J20" t="str">
-        <v>1.5980</v>
+        <v>0.6120</v>
       </c>
       <c r="K20" t="str">
-        <v>9.5880</v>
+        <v>3.6720</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="21">
       <c r="A21" t="str">
-        <v>chatting035</v>
+        <v>chatting016</v>
       </c>
       <c r="B21" t="str">
-        <v>498</v>
+        <v>209</v>
       </c>
       <c r="C21" t="str">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D21" t="str">
         <v>0</v>
       </c>
       <c r="E21" t="str">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F21" t="str">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="G21" t="str">
-        <v>7.9900</v>
+        <v>2.8900</v>
       </c>
       <c r="H21" t="str">
-        <v>1347</v>
+        <v>1133</v>
       </c>
       <c r="I21" t="str">
-        <v>7.9900</v>
+        <v>2.8900</v>
       </c>
       <c r="J21" t="str">
-        <v>1.5980</v>
+        <v>0.5780</v>
       </c>
       <c r="K21" t="str">
-        <v>9.5880</v>
+        <v>3.4680</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="22">
       <c r="A22" t="str">
-        <v>APP001</v>
+        <v>chatting014</v>
       </c>
       <c r="B22" t="str">
-        <v>499</v>
+        <v>109</v>
       </c>
       <c r="C22" t="str">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D22" t="str">
         <v>0</v>
       </c>
       <c r="E22" t="str">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F22" t="str">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="G22" t="str">
-        <v>7.1400</v>
+        <v>1.8700</v>
       </c>
       <c r="H22" t="str">
-        <v>832</v>
+        <v>64</v>
       </c>
       <c r="I22" t="str">
-        <v>7.1400</v>
+        <v>1.8700</v>
       </c>
       <c r="J22" t="str">
-        <v>1.4280</v>
+        <v>0.3740</v>
       </c>
       <c r="K22" t="str">
-        <v>8.5680</v>
+        <v>2.2440</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="23">
       <c r="A23" t="str">
-        <v>chatting017</v>
+        <v>chatting05</v>
       </c>
       <c r="B23" t="str">
-        <v>428</v>
+        <v>69</v>
       </c>
       <c r="C23" t="str">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D23" t="str">
         <v>0</v>
       </c>
       <c r="E23" t="str">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="F23" t="str">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="G23" t="str">
-        <v>7.9900</v>
+        <v>1.1900</v>
       </c>
       <c r="H23" t="str">
-        <v>690</v>
+        <v>12</v>
       </c>
       <c r="I23" t="str">
-        <v>7.9900</v>
+        <v>1.1900</v>
       </c>
       <c r="J23" t="str">
-        <v>1.5980</v>
+        <v>0.2380</v>
       </c>
       <c r="K23" t="str">
-        <v>9.5880</v>
+        <v>1.4280</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="24">
       <c r="A24" t="str">
-        <v>chatting021</v>
+        <v>APP002</v>
       </c>
       <c r="B24" t="str">
-        <v>416</v>
+        <v>84</v>
       </c>
       <c r="C24" t="str">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="D24" t="str">
         <v>0</v>
       </c>
       <c r="E24" t="str">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F24" t="str">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="G24" t="str">
-        <v>6.9700</v>
+        <v>0.6800</v>
       </c>
       <c r="H24" t="str">
-        <v>737</v>
+        <v>133</v>
       </c>
       <c r="I24" t="str">
-        <v>6.9700</v>
+        <v>0.6800</v>
       </c>
       <c r="J24" t="str">
-        <v>1.3940</v>
+        <v>0.1360</v>
       </c>
       <c r="K24" t="str">
-        <v>8.3640</v>
+        <v>0.8160</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="25">
       <c r="A25" t="str">
-        <v>rashadegypt1</v>
+        <v>chatting03</v>
       </c>
       <c r="B25" t="str">
-        <v>378</v>
+        <v>42</v>
       </c>
       <c r="C25" t="str">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="D25" t="str">
         <v>0</v>
       </c>
       <c r="E25" t="str">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F25" t="str">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="G25" t="str">
-        <v>6.9700</v>
+        <v>0.6800</v>
       </c>
       <c r="H25" t="str">
-        <v>677</v>
+        <v>758</v>
       </c>
       <c r="I25" t="str">
-        <v>6.9700</v>
+        <v>0.6800</v>
       </c>
       <c r="J25" t="str">
-        <v>1.3940</v>
+        <v>0.1360</v>
       </c>
       <c r="K25" t="str">
-        <v>8.3640</v>
+        <v>0.8160</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="26">
       <c r="A26" t="str">
-        <v>yaseregypt1</v>
+        <v>yousefegypt1</v>
       </c>
       <c r="B26" t="str">
-        <v>378</v>
+        <v>5</v>
       </c>
       <c r="C26" t="str">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D26" t="str">
         <v>0</v>
       </c>
       <c r="E26" t="str">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F26" t="str">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="G26" t="str">
-        <v>6.9700</v>
+        <v>0.0000</v>
       </c>
       <c r="H26" t="str">
-        <v>680</v>
+        <v>16</v>
       </c>
       <c r="I26" t="str">
-        <v>6.9700</v>
+        <v>0.0000</v>
       </c>
       <c r="J26" t="str">
-        <v>1.3940</v>
+        <v>0.0000</v>
       </c>
       <c r="K26" t="str">
-        <v>8.3640</v>
+        <v>0.0000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="27">
       <c r="A27" t="str">
-        <v>chatting016</v>
+        <v>abodullaegypt1</v>
       </c>
       <c r="B27" t="str">
-        <v>340</v>
+        <v>4</v>
       </c>
       <c r="C27" t="str">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D27" t="str">
         <v>0</v>
       </c>
       <c r="E27" t="str">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27" t="str">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="G27" t="str">
-        <v>4.4200</v>
+        <v>0.0000</v>
       </c>
       <c r="H27" t="str">
-        <v>807</v>
+        <v>637</v>
       </c>
       <c r="I27" t="str">
-        <v>4.4200</v>
+        <v>0.0000</v>
       </c>
       <c r="J27" t="str">
-        <v>0.8840</v>
+        <v>0.0000</v>
       </c>
       <c r="K27" t="str">
-        <v>5.3040</v>
+        <v>0.0000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="28">
       <c r="A28" t="str">
-        <v>chatting023</v>
+        <v>chatting02</v>
       </c>
       <c r="B28" t="str">
-        <v>306</v>
+        <v>5</v>
       </c>
       <c r="C28" t="str">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D28" t="str">
         <v>0</v>
       </c>
       <c r="E28" t="str">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F28" t="str">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="G28" t="str">
-        <v>4.4200</v>
+        <v>0.0000</v>
       </c>
       <c r="H28" t="str">
-        <v>835</v>
+        <v>340</v>
       </c>
       <c r="I28" t="str">
-        <v>4.4200</v>
+        <v>0.0000</v>
       </c>
       <c r="J28" t="str">
-        <v>0.8840</v>
+        <v>0.0000</v>
       </c>
       <c r="K28" t="str">
-        <v>5.3040</v>
+        <v>0.0000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="29">
       <c r="A29" t="str">
-        <v>Yindu004</v>
+        <v>chatting040</v>
       </c>
       <c r="B29" t="str">
-        <v>155</v>
+        <v>3</v>
       </c>
       <c r="C29" t="str">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D29" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E29" t="str">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F29" t="str">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="G29" t="str">
-        <v>1.7200</v>
+        <v>0.0000</v>
       </c>
       <c r="H29" t="str">
-        <v>339</v>
+        <v>0</v>
       </c>
       <c r="I29" t="str">
-        <v>1.7200</v>
+        <v>0.0000</v>
       </c>
       <c r="J29" t="str">
-        <v>0.3440</v>
+        <v>0.0000</v>
       </c>
       <c r="K29" t="str">
-        <v>2.0640</v>
+        <v>0.0000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="30">
       <c r="A30" t="str">
-        <v>chatting039</v>
+        <v>chatting017</v>
       </c>
       <c r="B30" t="str">
-        <v>121</v>
+        <v>4</v>
       </c>
       <c r="C30" t="str">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D30" t="str">
         <v>0</v>
       </c>
       <c r="E30" t="str">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F30" t="str">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G30" t="str">
-        <v>2.5500</v>
+        <v>0.0000</v>
       </c>
       <c r="H30" t="str">
-        <v>179</v>
+        <v>3</v>
       </c>
       <c r="I30" t="str">
-        <v>2.5500</v>
+        <v>0.0000</v>
       </c>
       <c r="J30" t="str">
-        <v>0.5100</v>
+        <v>0.0000</v>
       </c>
       <c r="K30" t="str">
-        <v>3.0600</v>
+        <v>0.0000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="31">
-      <c r="A31" t="str">
-        <v>chatting040</v>
-      </c>
-      <c r="B31" t="str">
-        <v>105</v>
-      </c>
-      <c r="C31" t="str">
-        <v>9</v>
-      </c>
-      <c r="D31" t="str">
-        <v>0</v>
-      </c>
-      <c r="E31" t="str">
-        <v>18</v>
-      </c>
-      <c r="F31" t="str">
-        <v>27</v>
-      </c>
-      <c r="G31" t="str">
-        <v>1.5300</v>
+      <c r="A31" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B31" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C31" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D31" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E31" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F31" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G31" t="str" xml:space="preserve">
+        <v> </v>
       </c>
       <c r="H31" t="str">
-        <v>63</v>
+        <v>总工资:</v>
       </c>
       <c r="I31" t="str">
-        <v>1.5300</v>
+        <v>240.3600</v>
       </c>
       <c r="J31" t="str">
-        <v>0.3060</v>
-      </c>
-      <c r="K31" t="str">
-        <v>1.8360</v>
+        <v>48.0720</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="32">
-      <c r="A32" t="str">
-        <v>chatting014</v>
-      </c>
-      <c r="B32" t="str">
-        <v>71</v>
-      </c>
-      <c r="C32" t="str">
-        <v>8</v>
-      </c>
-      <c r="D32" t="str">
-        <v>0</v>
-      </c>
-      <c r="E32" t="str">
-        <v>4</v>
-      </c>
-      <c r="F32" t="str">
+      <c r="A32" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B32" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C32" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D32" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E32" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F32" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G32" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="H32" t="str">
+        <v>平均工资:</v>
+      </c>
+      <c r="I32" t="str">
+        <v>8.5843</v>
+      </c>
+      <c r="J32" t="str">
+        <v>1.7169</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="33">
+      <c r="A33" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B33" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C33" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D33" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E33" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F33" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G33" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="H33" t="str">
+        <v>大与7个数:</v>
+      </c>
+      <c r="I33" t="str">
+        <v>1713</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="34">
+      <c r="A34" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B34" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C34" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D34" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E34" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F34" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G34" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="H34" t="str">
+        <v>高于平均工资人数:</v>
+      </c>
+      <c r="I34" t="str">
         <v>12</v>
-      </c>
-      <c r="G32" t="str">
-        <v>1.3600</v>
-      </c>
-      <c r="H32" t="str">
-        <v>726</v>
-      </c>
-      <c r="I32" t="str">
-        <v>1.3600</v>
-      </c>
-      <c r="J32" t="str">
-        <v>0.2720</v>
-      </c>
-      <c r="K32" t="str">
-        <v>1.6320</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="33">
-      <c r="A33" t="str">
-        <v>Yindu001</v>
-      </c>
-      <c r="B33" t="str">
-        <v>24</v>
-      </c>
-      <c r="C33" t="str">
-        <v>0</v>
-      </c>
-      <c r="D33" t="str">
-        <v>1</v>
-      </c>
-      <c r="E33" t="str">
-        <v>4</v>
-      </c>
-      <c r="F33" t="str">
-        <v>5</v>
-      </c>
-      <c r="G33" t="str">
-        <v>0.0900</v>
-      </c>
-      <c r="H33" t="str">
-        <v>81</v>
-      </c>
-      <c r="I33" t="str">
-        <v>0.0900</v>
-      </c>
-      <c r="J33" t="str">
-        <v>0.0180</v>
-      </c>
-      <c r="K33" t="str">
-        <v>0.1080</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="34">
-      <c r="A34" t="str">
-        <v>chatting020</v>
-      </c>
-      <c r="B34" t="str">
-        <v>5</v>
-      </c>
-      <c r="C34" t="str">
-        <v>0</v>
-      </c>
-      <c r="D34" t="str">
-        <v>0</v>
-      </c>
-      <c r="E34" t="str">
-        <v>2</v>
-      </c>
-      <c r="F34" t="str">
-        <v>2</v>
-      </c>
-      <c r="G34" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="H34" t="str">
-        <v>7</v>
-      </c>
-      <c r="I34" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="J34" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="K34" t="str">
-        <v>0.0000</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="35">
-      <c r="A35" t="str">
-        <v>chatting05</v>
-      </c>
-      <c r="B35" t="str">
-        <v>2</v>
-      </c>
-      <c r="C35" t="str">
-        <v>0</v>
-      </c>
-      <c r="D35" t="str">
-        <v>0</v>
-      </c>
-      <c r="E35" t="str">
-        <v>2</v>
-      </c>
-      <c r="F35" t="str">
-        <v>2</v>
-      </c>
-      <c r="G35" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="H35" t="str">
-        <v>0</v>
-      </c>
-      <c r="I35" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="J35" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="K35" t="str">
-        <v>0.0000</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="36">
-      <c r="A36" t="str">
-        <v>APP005</v>
-      </c>
-      <c r="B36" t="str">
-        <v>1</v>
-      </c>
-      <c r="C36" t="str">
-        <v>0</v>
-      </c>
-      <c r="D36" t="str">
-        <v>0</v>
-      </c>
-      <c r="E36" t="str">
-        <v>1</v>
-      </c>
-      <c r="F36" t="str">
-        <v>1</v>
-      </c>
-      <c r="G36" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="H36" t="str">
-        <v>0</v>
-      </c>
-      <c r="I36" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="J36" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="K36" t="str">
-        <v>0.0000</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="37">
-      <c r="A37" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B37" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C37" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D37" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E37" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F37" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G37" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="H37" t="str">
-        <v>总工资:</v>
-      </c>
-      <c r="I37" t="str">
-        <v>292.7700</v>
-      </c>
-      <c r="J37" t="str">
-        <v>58.5540</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="38">
-      <c r="A38" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B38" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C38" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D38" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E38" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F38" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G38" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="H38" t="str">
-        <v>平均工资:</v>
-      </c>
-      <c r="I38" t="str">
-        <v>8.6109</v>
-      </c>
-      <c r="J38" t="str">
-        <v>1.7222</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="39">
-      <c r="A39" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B39" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C39" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D39" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E39" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F39" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G39" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="H39" t="str">
-        <v>大与7个数:</v>
-      </c>
-      <c r="I39" t="str">
-        <v>2035</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="40">
-      <c r="A40" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B40" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C40" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D40" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E40" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F40" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G40" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="H40" t="str">
-        <v>高于平均工资人数:</v>
-      </c>
-      <c r="I40" t="str">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/陪聊数据统计.xlsx
+++ b/陪聊数据统计.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="20190825 05点-20190826 05点" sheetId="1" r:id="rId1"/>
+    <sheet name="20190919 05点-20190920 05点" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -358,9 +358,6 @@
     <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="12"/>
   </cols>
   <sheetData>
     <row customHeight="true" ht="28" r="1">
@@ -388,9 +385,6 @@
         <v>最终工资</v>
       </c>
       <c r="J1" s="1" t="str">
-        <v>经济公司工资</v>
-      </c>
-      <c r="K1" s="1" t="str">
         <v>总计</v>
       </c>
     </row>
@@ -425,194 +419,176 @@
       <c r="J2" s="1" t="str">
         <v>1</v>
       </c>
-      <c r="K2" s="1" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row customHeight="true" ht="28" r="3">
       <c r="A3" t="str">
-        <v>chatting015</v>
+        <v>chatting032</v>
       </c>
       <c r="B3" t="str">
-        <v>2132</v>
+        <v>2658</v>
       </c>
       <c r="C3" t="str">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D3" t="str">
         <v>0</v>
       </c>
       <c r="E3" t="str">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="F3" t="str">
-        <v>243</v>
+        <v>317</v>
       </c>
       <c r="G3" t="str">
-        <v>27.5400</v>
+        <v>28.3900</v>
       </c>
       <c r="H3" t="str">
-        <v>830</v>
+        <v>1435</v>
       </c>
       <c r="I3" t="str">
-        <v>27.5400</v>
+        <v>28.3900</v>
       </c>
       <c r="J3" t="str">
-        <v>5.5080</v>
-      </c>
-      <c r="K3" t="str">
-        <v>33.0480</v>
+        <v>28.3900</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="4">
       <c r="A4" t="str">
-        <v>chatting033</v>
+        <v>chatting015</v>
       </c>
       <c r="B4" t="str">
-        <v>1802</v>
+        <v>2573</v>
       </c>
       <c r="C4" t="str">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="D4" t="str">
         <v>0</v>
       </c>
       <c r="E4" t="str">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="F4" t="str">
-        <v>211</v>
+        <v>288</v>
       </c>
       <c r="G4" t="str">
-        <v>23.1200</v>
+        <v>30.0900</v>
       </c>
       <c r="H4" t="str">
-        <v>872</v>
+        <v>427</v>
       </c>
       <c r="I4" t="str">
-        <v>23.1200</v>
+        <v>30.0900</v>
       </c>
       <c r="J4" t="str">
-        <v>4.6240</v>
-      </c>
-      <c r="K4" t="str">
-        <v>27.7440</v>
+        <v>30.0900</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="5">
       <c r="A5" t="str">
-        <v>APP004</v>
+        <v>rashadegypt1</v>
       </c>
       <c r="B5" t="str">
-        <v>1700</v>
+        <v>1252</v>
       </c>
       <c r="C5" t="str">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="D5" t="str">
         <v>0</v>
       </c>
       <c r="E5" t="str">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="F5" t="str">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="G5" t="str">
-        <v>22.4400</v>
+        <v>17.5100</v>
       </c>
       <c r="H5" t="str">
-        <v>291</v>
+        <v>1324</v>
       </c>
       <c r="I5" t="str">
-        <v>22.4400</v>
+        <v>17.5100</v>
       </c>
       <c r="J5" t="str">
-        <v>4.4880</v>
-      </c>
-      <c r="K5" t="str">
-        <v>26.9280</v>
+        <v>17.5100</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="6">
       <c r="A6" t="str">
-        <v>APP003</v>
+        <v>mohammedegypt1</v>
       </c>
       <c r="B6" t="str">
-        <v>1647</v>
+        <v>1552</v>
       </c>
       <c r="C6" t="str">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="D6" t="str">
         <v>0</v>
       </c>
       <c r="E6" t="str">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F6" t="str">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="G6" t="str">
-        <v>19.2100</v>
+        <v>13.6000</v>
       </c>
       <c r="H6" t="str">
-        <v>516</v>
+        <v>662</v>
       </c>
       <c r="I6" t="str">
-        <v>19.2100</v>
+        <v>13.6000</v>
       </c>
       <c r="J6" t="str">
-        <v>3.8420</v>
-      </c>
-      <c r="K6" t="str">
-        <v>23.0520</v>
+        <v>13.6000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="7">
       <c r="A7" t="str">
-        <v>mohammedegypt1</v>
+        <v>yaseregypt1</v>
       </c>
       <c r="B7" t="str">
-        <v>1444</v>
+        <v>956</v>
       </c>
       <c r="C7" t="str">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D7" t="str">
         <v>0</v>
       </c>
       <c r="E7" t="str">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F7" t="str">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G7" t="str">
-        <v>16.1500</v>
+        <v>14.9600</v>
       </c>
       <c r="H7" t="str">
-        <v>586</v>
+        <v>1319</v>
       </c>
       <c r="I7" t="str">
-        <v>16.1500</v>
+        <v>14.9600</v>
       </c>
       <c r="J7" t="str">
-        <v>3.2300</v>
-      </c>
-      <c r="K7" t="str">
-        <v>19.3800</v>
+        <v>14.9600</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="8">
       <c r="A8" t="str">
-        <v>rashadegypt1</v>
+        <v>chatting10</v>
       </c>
       <c r="B8" t="str">
-        <v>1130</v>
+        <v>808</v>
       </c>
       <c r="C8" t="str">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="D8" t="str">
         <v>0</v>
@@ -621,523 +597,478 @@
         <v>78</v>
       </c>
       <c r="F8" t="str">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="G8" t="str">
-        <v>19.0400</v>
+        <v>10.8800</v>
       </c>
       <c r="H8" t="str">
-        <v>951</v>
+        <v>1425</v>
       </c>
       <c r="I8" t="str">
-        <v>19.0400</v>
+        <v>10.8800</v>
       </c>
       <c r="J8" t="str">
-        <v>3.8080</v>
-      </c>
-      <c r="K8" t="str">
-        <v>22.8480</v>
+        <v>10.8800</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="9">
       <c r="A9" t="str">
-        <v>chatting034</v>
+        <v>chatting035</v>
       </c>
       <c r="B9" t="str">
-        <v>1156</v>
+        <v>529</v>
       </c>
       <c r="C9" t="str">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="D9" t="str">
         <v>0</v>
       </c>
       <c r="E9" t="str">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F9" t="str">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="G9" t="str">
-        <v>15.3000</v>
+        <v>7.4800</v>
       </c>
       <c r="H9" t="str">
-        <v>619</v>
+        <v>201</v>
       </c>
       <c r="I9" t="str">
-        <v>15.3000</v>
+        <v>7.4800</v>
       </c>
       <c r="J9" t="str">
-        <v>3.0600</v>
-      </c>
-      <c r="K9" t="str">
-        <v>18.3600</v>
+        <v>7.4800</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="10">
       <c r="A10" t="str">
-        <v>chatting031</v>
+        <v>chatting033</v>
       </c>
       <c r="B10" t="str">
-        <v>935</v>
+        <v>485</v>
       </c>
       <c r="C10" t="str">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D10" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="str">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F10" t="str">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="G10" t="str">
-        <v>10.2900</v>
+        <v>7.1400</v>
       </c>
       <c r="H10" t="str">
-        <v>1416</v>
+        <v>124</v>
       </c>
       <c r="I10" t="str">
-        <v>10.2900</v>
+        <v>7.1400</v>
       </c>
       <c r="J10" t="str">
-        <v>2.0580</v>
-      </c>
-      <c r="K10" t="str">
-        <v>12.3480</v>
+        <v>7.1400</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="11">
       <c r="A11" t="str">
-        <v>APP005</v>
+        <v>chatting031</v>
       </c>
       <c r="B11" t="str">
-        <v>900</v>
+        <v>469</v>
       </c>
       <c r="C11" t="str">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="D11" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E11" t="str">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F11" t="str">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="G11" t="str">
-        <v>11.0700</v>
+        <v>5.6100</v>
       </c>
       <c r="H11" t="str">
-        <v>841</v>
+        <v>1437</v>
       </c>
       <c r="I11" t="str">
-        <v>11.0700</v>
+        <v>5.6100</v>
       </c>
       <c r="J11" t="str">
-        <v>2.2140</v>
-      </c>
-      <c r="K11" t="str">
-        <v>13.2840</v>
+        <v>5.6100</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="12">
       <c r="A12" t="str">
-        <v>chatting013</v>
+        <v>jiefu</v>
       </c>
       <c r="B12" t="str">
-        <v>727</v>
+        <v>234</v>
       </c>
       <c r="C12" t="str">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D12" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="str">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="F12" t="str">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="G12" t="str">
-        <v>10.4600</v>
+        <v>0.0000</v>
       </c>
       <c r="H12" t="str">
-        <v>1199</v>
+        <v>516</v>
       </c>
       <c r="I12" t="str">
-        <v>10.4600</v>
+        <v>0.0000</v>
       </c>
       <c r="J12" t="str">
-        <v>2.0920</v>
-      </c>
-      <c r="K12" t="str">
-        <v>12.5520</v>
+        <v>0.0000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="13">
       <c r="A13" t="str">
-        <v>yaseregypt1</v>
+        <v>chatting02</v>
       </c>
       <c r="B13" t="str">
-        <v>593</v>
+        <v>357</v>
       </c>
       <c r="C13" t="str">
+        <v>35</v>
+      </c>
+      <c r="D13" t="str">
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <v>29</v>
+      </c>
+      <c r="F13" t="str">
         <v>64</v>
       </c>
-      <c r="D13" t="str">
-        <v>0</v>
-      </c>
-      <c r="E13" t="str">
-        <v>42</v>
-      </c>
-      <c r="F13" t="str">
-        <v>106</v>
-      </c>
       <c r="G13" t="str">
-        <v>10.8800</v>
+        <v>5.9500</v>
       </c>
       <c r="H13" t="str">
-        <v>947</v>
+        <v>1425</v>
       </c>
       <c r="I13" t="str">
-        <v>10.8800</v>
+        <v>5.9500</v>
       </c>
       <c r="J13" t="str">
-        <v>2.1760</v>
-      </c>
-      <c r="K13" t="str">
-        <v>13.0560</v>
+        <v>5.9500</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="14">
       <c r="A14" t="str">
-        <v>chatting038</v>
+        <v>edison</v>
       </c>
       <c r="B14" t="str">
-        <v>491</v>
+        <v>228</v>
       </c>
       <c r="C14" t="str">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D14" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="str">
-        <v>35</v>
+        <v>218</v>
       </c>
       <c r="F14" t="str">
-        <v>92</v>
+        <v>218</v>
       </c>
       <c r="G14" t="str">
-        <v>9.6100</v>
+        <v>0.0000</v>
       </c>
       <c r="H14" t="str">
-        <v>1396</v>
+        <v>505</v>
       </c>
       <c r="I14" t="str">
-        <v>9.6100</v>
+        <v>0.0000</v>
       </c>
       <c r="J14" t="str">
-        <v>1.9220</v>
-      </c>
-      <c r="K14" t="str">
-        <v>11.5320</v>
+        <v>0.0000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="15">
       <c r="A15" t="str">
-        <v>chatting021</v>
+        <v>chatting07</v>
       </c>
       <c r="B15" t="str">
-        <v>480</v>
+        <v>376</v>
       </c>
       <c r="C15" t="str">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D15" t="str">
         <v>0</v>
       </c>
       <c r="E15" t="str">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F15" t="str">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G15" t="str">
-        <v>8.1600</v>
+        <v>4.5900</v>
       </c>
       <c r="H15" t="str">
-        <v>695</v>
+        <v>98</v>
       </c>
       <c r="I15" t="str">
-        <v>8.1600</v>
+        <v>4.5900</v>
       </c>
       <c r="J15" t="str">
-        <v>1.6320</v>
-      </c>
-      <c r="K15" t="str">
-        <v>9.7920</v>
+        <v>4.5900</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="16">
       <c r="A16" t="str">
-        <v>chatting06</v>
+        <v>chatting013</v>
       </c>
       <c r="B16" t="str">
-        <v>491</v>
+        <v>249</v>
       </c>
       <c r="C16" t="str">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D16" t="str">
         <v>0</v>
       </c>
       <c r="E16" t="str">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F16" t="str">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="G16" t="str">
-        <v>6.9700</v>
+        <v>3.0600</v>
       </c>
       <c r="H16" t="str">
-        <v>647</v>
+        <v>129</v>
       </c>
       <c r="I16" t="str">
-        <v>6.9700</v>
+        <v>3.0600</v>
       </c>
       <c r="J16" t="str">
-        <v>1.3940</v>
-      </c>
-      <c r="K16" t="str">
-        <v>8.3640</v>
+        <v>3.0600</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="17">
       <c r="A17" t="str">
-        <v>chatting036</v>
+        <v>APP005</v>
       </c>
       <c r="B17" t="str">
-        <v>411</v>
+        <v>244</v>
       </c>
       <c r="C17" t="str">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D17" t="str">
         <v>0</v>
       </c>
       <c r="E17" t="str">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F17" t="str">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="G17" t="str">
-        <v>7.6500</v>
+        <v>2.2100</v>
       </c>
       <c r="H17" t="str">
-        <v>412</v>
+        <v>836</v>
       </c>
       <c r="I17" t="str">
-        <v>7.6500</v>
+        <v>2.2100</v>
       </c>
       <c r="J17" t="str">
-        <v>1.5300</v>
-      </c>
-      <c r="K17" t="str">
-        <v>9.1800</v>
+        <v>2.2100</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="18">
       <c r="A18" t="str">
-        <v>chatting023</v>
+        <v>APP001</v>
       </c>
       <c r="B18" t="str">
-        <v>450</v>
+        <v>44</v>
       </c>
       <c r="C18" t="str">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D18" t="str">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E18" t="str">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F18" t="str">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="G18" t="str">
-        <v>6.4900</v>
+        <v>0.5100</v>
       </c>
       <c r="H18" t="str">
-        <v>1430</v>
+        <v>19</v>
       </c>
       <c r="I18" t="str">
-        <v>6.4900</v>
+        <v>0.5100</v>
       </c>
       <c r="J18" t="str">
-        <v>1.2980</v>
-      </c>
-      <c r="K18" t="str">
-        <v>7.7880</v>
+        <v>0.5100</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="19">
       <c r="A19" t="str">
-        <v>chatting035</v>
+        <v>chatting038</v>
       </c>
       <c r="B19" t="str">
-        <v>352</v>
+        <v>42</v>
       </c>
       <c r="C19" t="str">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D19" t="str">
         <v>0</v>
       </c>
       <c r="E19" t="str">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F19" t="str">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="G19" t="str">
-        <v>5.6100</v>
+        <v>0.3400</v>
       </c>
       <c r="H19" t="str">
-        <v>126</v>
+        <v>929</v>
       </c>
       <c r="I19" t="str">
-        <v>5.6100</v>
+        <v>0.3400</v>
       </c>
       <c r="J19" t="str">
-        <v>1.1220</v>
-      </c>
-      <c r="K19" t="str">
-        <v>6.7320</v>
+        <v>0.3400</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="20">
       <c r="A20" t="str">
-        <v>APP001</v>
+        <v>chatting021</v>
       </c>
       <c r="B20" t="str">
-        <v>245</v>
+        <v>7</v>
       </c>
       <c r="C20" t="str">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D20" t="str">
         <v>0</v>
       </c>
       <c r="E20" t="str">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F20" t="str">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G20" t="str">
-        <v>3.0600</v>
+        <v>0.0000</v>
       </c>
       <c r="H20" t="str">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="I20" t="str">
-        <v>3.0600</v>
+        <v>0.0000</v>
       </c>
       <c r="J20" t="str">
-        <v>0.6120</v>
-      </c>
-      <c r="K20" t="str">
-        <v>3.6720</v>
+        <v>0.0000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="21">
       <c r="A21" t="str">
-        <v>chatting016</v>
+        <v>chatting06</v>
       </c>
       <c r="B21" t="str">
-        <v>209</v>
+        <v>3</v>
       </c>
       <c r="C21" t="str">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D21" t="str">
         <v>0</v>
       </c>
       <c r="E21" t="str">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F21" t="str">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G21" t="str">
-        <v>2.8900</v>
+        <v>0.0000</v>
       </c>
       <c r="H21" t="str">
-        <v>1133</v>
+        <v>7</v>
       </c>
       <c r="I21" t="str">
-        <v>2.8900</v>
+        <v>0.0000</v>
       </c>
       <c r="J21" t="str">
-        <v>0.5780</v>
-      </c>
-      <c r="K21" t="str">
-        <v>3.4680</v>
+        <v>0.0000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="22">
       <c r="A22" t="str">
-        <v>chatting014</v>
+        <v>chatting016</v>
       </c>
       <c r="B22" t="str">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="C22" t="str">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D22" t="str">
         <v>0</v>
       </c>
       <c r="E22" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F22" t="str">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G22" t="str">
-        <v>1.8700</v>
+        <v>0.0000</v>
       </c>
       <c r="H22" t="str">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="I22" t="str">
-        <v>1.8700</v>
+        <v>0.0000</v>
       </c>
       <c r="J22" t="str">
-        <v>0.3740</v>
-      </c>
-      <c r="K22" t="str">
-        <v>2.2440</v>
+        <v>0.0000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="23">
       <c r="A23" t="str">
-        <v>chatting05</v>
+        <v>chatting014</v>
       </c>
       <c r="B23" t="str">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="C23" t="str">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D23" t="str">
         <v>0</v>
@@ -1146,389 +1077,135 @@
         <v>1</v>
       </c>
       <c r="F23" t="str">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G23" t="str">
-        <v>1.1900</v>
+        <v>0.0000</v>
       </c>
       <c r="H23" t="str">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="str">
-        <v>1.1900</v>
+        <v>0.0000</v>
       </c>
       <c r="J23" t="str">
-        <v>0.2380</v>
-      </c>
-      <c r="K23" t="str">
-        <v>1.4280</v>
+        <v>0.0000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="24">
-      <c r="A24" t="str">
-        <v>APP002</v>
-      </c>
-      <c r="B24" t="str">
-        <v>84</v>
-      </c>
-      <c r="C24" t="str">
-        <v>4</v>
-      </c>
-      <c r="D24" t="str">
-        <v>0</v>
-      </c>
-      <c r="E24" t="str">
-        <v>1</v>
-      </c>
-      <c r="F24" t="str">
-        <v>5</v>
-      </c>
-      <c r="G24" t="str">
-        <v>0.6800</v>
+      <c r="A24" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B24" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C24" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D24" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E24" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F24" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G24" t="str" xml:space="preserve">
+        <v> </v>
       </c>
       <c r="H24" t="str">
-        <v>133</v>
+        <v>总工资:</v>
       </c>
       <c r="I24" t="str">
-        <v>0.6800</v>
-      </c>
-      <c r="J24" t="str">
-        <v>0.1360</v>
-      </c>
-      <c r="K24" t="str">
-        <v>0.8160</v>
+        <v>152.3200</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="25">
-      <c r="A25" t="str">
-        <v>chatting03</v>
-      </c>
-      <c r="B25" t="str">
-        <v>42</v>
-      </c>
-      <c r="C25" t="str">
-        <v>4</v>
-      </c>
-      <c r="D25" t="str">
-        <v>0</v>
-      </c>
-      <c r="E25" t="str">
-        <v>4</v>
-      </c>
-      <c r="F25" t="str">
-        <v>8</v>
-      </c>
-      <c r="G25" t="str">
-        <v>0.6800</v>
+      <c r="A25" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B25" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C25" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D25" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E25" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F25" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G25" t="str" xml:space="preserve">
+        <v> </v>
       </c>
       <c r="H25" t="str">
-        <v>758</v>
+        <v>平均工资:</v>
       </c>
       <c r="I25" t="str">
-        <v>0.6800</v>
-      </c>
-      <c r="J25" t="str">
-        <v>0.1360</v>
-      </c>
-      <c r="K25" t="str">
-        <v>0.8160</v>
+        <v>7.2533</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="26">
-      <c r="A26" t="str">
-        <v>yousefegypt1</v>
-      </c>
-      <c r="B26" t="str">
-        <v>5</v>
-      </c>
-      <c r="C26" t="str">
-        <v>0</v>
-      </c>
-      <c r="D26" t="str">
-        <v>0</v>
-      </c>
-      <c r="E26" t="str">
-        <v>3</v>
-      </c>
-      <c r="F26" t="str">
-        <v>3</v>
-      </c>
-      <c r="G26" t="str">
-        <v>0.0000</v>
+      <c r="A26" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B26" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C26" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D26" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E26" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F26" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G26" t="str" xml:space="preserve">
+        <v> </v>
       </c>
       <c r="H26" t="str">
-        <v>16</v>
+        <v>大与7	个数:</v>
       </c>
       <c r="I26" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="J26" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="K26" t="str">
-        <v>0.0000</v>
+        <v>1091</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="27">
-      <c r="A27" t="str">
-        <v>abodullaegypt1</v>
-      </c>
-      <c r="B27" t="str">
-        <v>4</v>
-      </c>
-      <c r="C27" t="str">
-        <v>0</v>
-      </c>
-      <c r="D27" t="str">
-        <v>0</v>
-      </c>
-      <c r="E27" t="str">
-        <v>4</v>
-      </c>
-      <c r="F27" t="str">
-        <v>4</v>
-      </c>
-      <c r="G27" t="str">
-        <v>0.0000</v>
+      <c r="A27" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B27" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C27" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D27" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E27" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F27" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G27" t="str" xml:space="preserve">
+        <v> </v>
       </c>
       <c r="H27" t="str">
-        <v>637</v>
+        <v>高于平均工资人数:</v>
       </c>
       <c r="I27" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="J27" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="K27" t="str">
-        <v>0.0000</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="28">
-      <c r="A28" t="str">
-        <v>chatting02</v>
-      </c>
-      <c r="B28" t="str">
-        <v>5</v>
-      </c>
-      <c r="C28" t="str">
-        <v>0</v>
-      </c>
-      <c r="D28" t="str">
-        <v>0</v>
-      </c>
-      <c r="E28" t="str">
-        <v>3</v>
-      </c>
-      <c r="F28" t="str">
-        <v>3</v>
-      </c>
-      <c r="G28" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="H28" t="str">
-        <v>340</v>
-      </c>
-      <c r="I28" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="J28" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="K28" t="str">
-        <v>0.0000</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="29">
-      <c r="A29" t="str">
-        <v>chatting040</v>
-      </c>
-      <c r="B29" t="str">
-        <v>3</v>
-      </c>
-      <c r="C29" t="str">
-        <v>0</v>
-      </c>
-      <c r="D29" t="str">
-        <v>0</v>
-      </c>
-      <c r="E29" t="str">
-        <v>3</v>
-      </c>
-      <c r="F29" t="str">
-        <v>3</v>
-      </c>
-      <c r="G29" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="H29" t="str">
-        <v>0</v>
-      </c>
-      <c r="I29" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="J29" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="K29" t="str">
-        <v>0.0000</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="30">
-      <c r="A30" t="str">
-        <v>chatting017</v>
-      </c>
-      <c r="B30" t="str">
-        <v>4</v>
-      </c>
-      <c r="C30" t="str">
-        <v>0</v>
-      </c>
-      <c r="D30" t="str">
-        <v>0</v>
-      </c>
-      <c r="E30" t="str">
-        <v>2</v>
-      </c>
-      <c r="F30" t="str">
-        <v>2</v>
-      </c>
-      <c r="G30" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="H30" t="str">
-        <v>3</v>
-      </c>
-      <c r="I30" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="J30" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="K30" t="str">
-        <v>0.0000</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="31">
-      <c r="A31" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B31" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C31" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D31" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E31" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F31" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G31" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="H31" t="str">
-        <v>总工资:</v>
-      </c>
-      <c r="I31" t="str">
-        <v>240.3600</v>
-      </c>
-      <c r="J31" t="str">
-        <v>48.0720</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="32">
-      <c r="A32" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B32" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C32" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D32" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E32" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F32" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G32" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="H32" t="str">
-        <v>平均工资:</v>
-      </c>
-      <c r="I32" t="str">
-        <v>8.5843</v>
-      </c>
-      <c r="J32" t="str">
-        <v>1.7169</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="33">
-      <c r="A33" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B33" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C33" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D33" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E33" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F33" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G33" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="H33" t="str">
-        <v>大与7个数:</v>
-      </c>
-      <c r="I33" t="str">
-        <v>1713</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="34">
-      <c r="A34" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B34" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C34" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D34" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E34" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F34" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G34" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="H34" t="str">
-        <v>高于平均工资人数:</v>
-      </c>
-      <c r="I34" t="str">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1541,7 +1218,6 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/陪聊数据统计.xlsx
+++ b/陪聊数据统计.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="20190919 05点-20190920 05点" sheetId="1" r:id="rId1"/>
+    <sheet name="20190926 05点-20190927 05点" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -422,226 +422,226 @@
     </row>
     <row customHeight="true" ht="28" r="3">
       <c r="A3" t="str">
-        <v>chatting032</v>
+        <v>chatting015</v>
       </c>
       <c r="B3" t="str">
-        <v>2658</v>
+        <v>2511</v>
       </c>
       <c r="C3" t="str">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="D3" t="str">
         <v>0</v>
       </c>
       <c r="E3" t="str">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="F3" t="str">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="G3" t="str">
-        <v>28.3900</v>
+        <v>30.4300</v>
       </c>
       <c r="H3" t="str">
-        <v>1435</v>
+        <v>701</v>
       </c>
       <c r="I3" t="str">
-        <v>28.3900</v>
+        <v>30.4300</v>
       </c>
       <c r="J3" t="str">
-        <v>28.3900</v>
+        <v>30.4300</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="4">
       <c r="A4" t="str">
-        <v>chatting015</v>
+        <v>chatting06</v>
       </c>
       <c r="B4" t="str">
-        <v>2573</v>
+        <v>1706</v>
       </c>
       <c r="C4" t="str">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="D4" t="str">
         <v>0</v>
       </c>
       <c r="E4" t="str">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="F4" t="str">
-        <v>288</v>
+        <v>198</v>
       </c>
       <c r="G4" t="str">
-        <v>30.0900</v>
+        <v>19.3800</v>
       </c>
       <c r="H4" t="str">
-        <v>427</v>
+        <v>610</v>
       </c>
       <c r="I4" t="str">
-        <v>30.0900</v>
+        <v>19.3800</v>
       </c>
       <c r="J4" t="str">
-        <v>30.0900</v>
+        <v>19.3800</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="5">
       <c r="A5" t="str">
-        <v>rashadegypt1</v>
+        <v>mohammedegypt1</v>
       </c>
       <c r="B5" t="str">
-        <v>1252</v>
+        <v>1549</v>
       </c>
       <c r="C5" t="str">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="D5" t="str">
         <v>0</v>
       </c>
       <c r="E5" t="str">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="F5" t="str">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="G5" t="str">
-        <v>17.5100</v>
+        <v>13.0900</v>
       </c>
       <c r="H5" t="str">
-        <v>1324</v>
+        <v>678</v>
       </c>
       <c r="I5" t="str">
-        <v>17.5100</v>
+        <v>13.0900</v>
       </c>
       <c r="J5" t="str">
-        <v>17.5100</v>
+        <v>13.0900</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="6">
       <c r="A6" t="str">
-        <v>mohammedegypt1</v>
+        <v>APP004</v>
       </c>
       <c r="B6" t="str">
-        <v>1552</v>
+        <v>1109</v>
       </c>
       <c r="C6" t="str">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D6" t="str">
         <v>0</v>
       </c>
       <c r="E6" t="str">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F6" t="str">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G6" t="str">
-        <v>13.6000</v>
+        <v>15.3000</v>
       </c>
       <c r="H6" t="str">
-        <v>662</v>
+        <v>348</v>
       </c>
       <c r="I6" t="str">
-        <v>13.6000</v>
+        <v>15.3000</v>
       </c>
       <c r="J6" t="str">
-        <v>13.6000</v>
+        <v>15.3000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="7">
       <c r="A7" t="str">
-        <v>yaseregypt1</v>
+        <v>chatting036</v>
       </c>
       <c r="B7" t="str">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="C7" t="str">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D7" t="str">
         <v>0</v>
       </c>
       <c r="E7" t="str">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F7" t="str">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G7" t="str">
-        <v>14.9600</v>
+        <v>16.8300</v>
       </c>
       <c r="H7" t="str">
-        <v>1319</v>
+        <v>790</v>
       </c>
       <c r="I7" t="str">
-        <v>14.9600</v>
+        <v>16.8300</v>
       </c>
       <c r="J7" t="str">
-        <v>14.9600</v>
+        <v>16.8300</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="8">
       <c r="A8" t="str">
-        <v>chatting10</v>
+        <v>rashadegypt1</v>
       </c>
       <c r="B8" t="str">
-        <v>808</v>
+        <v>752</v>
       </c>
       <c r="C8" t="str">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D8" t="str">
         <v>0</v>
       </c>
       <c r="E8" t="str">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="F8" t="str">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="G8" t="str">
-        <v>10.8800</v>
+        <v>12.2400</v>
       </c>
       <c r="H8" t="str">
-        <v>1425</v>
+        <v>846</v>
       </c>
       <c r="I8" t="str">
-        <v>10.8800</v>
+        <v>12.2400</v>
       </c>
       <c r="J8" t="str">
-        <v>10.8800</v>
+        <v>12.2400</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="9">
       <c r="A9" t="str">
-        <v>chatting035</v>
+        <v>yaseregypt1</v>
       </c>
       <c r="B9" t="str">
-        <v>529</v>
+        <v>681</v>
       </c>
       <c r="C9" t="str">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D9" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" t="str">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F9" t="str">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="G9" t="str">
-        <v>7.4800</v>
+        <v>10.5500</v>
       </c>
       <c r="H9" t="str">
-        <v>201</v>
+        <v>846</v>
       </c>
       <c r="I9" t="str">
-        <v>7.4800</v>
+        <v>10.5500</v>
       </c>
       <c r="J9" t="str">
-        <v>7.4800</v>
+        <v>10.5500</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="10">
@@ -649,191 +649,191 @@
         <v>chatting033</v>
       </c>
       <c r="B10" t="str">
-        <v>485</v>
+        <v>597</v>
       </c>
       <c r="C10" t="str">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D10" t="str">
         <v>0</v>
       </c>
       <c r="E10" t="str">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F10" t="str">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G10" t="str">
-        <v>7.1400</v>
+        <v>7.9900</v>
       </c>
       <c r="H10" t="str">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I10" t="str">
-        <v>7.1400</v>
+        <v>7.9900</v>
       </c>
       <c r="J10" t="str">
-        <v>7.1400</v>
+        <v>7.9900</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="11">
       <c r="A11" t="str">
-        <v>chatting031</v>
+        <v>chatting07</v>
       </c>
       <c r="B11" t="str">
-        <v>469</v>
+        <v>314</v>
       </c>
       <c r="C11" t="str">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D11" t="str">
         <v>0</v>
       </c>
       <c r="E11" t="str">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F11" t="str">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G11" t="str">
-        <v>5.6100</v>
+        <v>4.2500</v>
       </c>
       <c r="H11" t="str">
-        <v>1437</v>
+        <v>91</v>
       </c>
       <c r="I11" t="str">
-        <v>5.6100</v>
+        <v>4.2500</v>
       </c>
       <c r="J11" t="str">
-        <v>5.6100</v>
+        <v>4.2500</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="12">
       <c r="A12" t="str">
-        <v>jiefu</v>
+        <v>chatting034</v>
       </c>
       <c r="B12" t="str">
-        <v>234</v>
+        <v>104</v>
       </c>
       <c r="C12" t="str">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D12" t="str">
         <v>0</v>
       </c>
       <c r="E12" t="str">
-        <v>225</v>
+        <v>5</v>
       </c>
       <c r="F12" t="str">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="G12" t="str">
-        <v>0.0000</v>
+        <v>1.1900</v>
       </c>
       <c r="H12" t="str">
-        <v>516</v>
+        <v>47</v>
       </c>
       <c r="I12" t="str">
-        <v>0.0000</v>
+        <v>1.1900</v>
       </c>
       <c r="J12" t="str">
-        <v>0.0000</v>
+        <v>1.1900</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="13">
       <c r="A13" t="str">
-        <v>chatting02</v>
+        <v>chatting032</v>
       </c>
       <c r="B13" t="str">
-        <v>357</v>
+        <v>93</v>
       </c>
       <c r="C13" t="str">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D13" t="str">
         <v>0</v>
       </c>
       <c r="E13" t="str">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="F13" t="str">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="G13" t="str">
-        <v>5.9500</v>
+        <v>1.1900</v>
       </c>
       <c r="H13" t="str">
-        <v>1425</v>
+        <v>836</v>
       </c>
       <c r="I13" t="str">
-        <v>5.9500</v>
+        <v>1.1900</v>
       </c>
       <c r="J13" t="str">
-        <v>5.9500</v>
+        <v>1.1900</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="14">
       <c r="A14" t="str">
-        <v>edison</v>
+        <v>chatting031</v>
       </c>
       <c r="B14" t="str">
-        <v>228</v>
+        <v>48</v>
       </c>
       <c r="C14" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" t="str">
         <v>0</v>
       </c>
       <c r="E14" t="str">
-        <v>218</v>
+        <v>1</v>
       </c>
       <c r="F14" t="str">
-        <v>218</v>
+        <v>4</v>
       </c>
       <c r="G14" t="str">
-        <v>0.0000</v>
+        <v>0.5100</v>
       </c>
       <c r="H14" t="str">
-        <v>505</v>
+        <v>69</v>
       </c>
       <c r="I14" t="str">
-        <v>0.0000</v>
+        <v>0.5100</v>
       </c>
       <c r="J14" t="str">
-        <v>0.0000</v>
+        <v>0.5100</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="15">
       <c r="A15" t="str">
-        <v>chatting07</v>
+        <v>chatting02</v>
       </c>
       <c r="B15" t="str">
-        <v>376</v>
+        <v>32</v>
       </c>
       <c r="C15" t="str">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D15" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="str">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F15" t="str">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="G15" t="str">
-        <v>4.5900</v>
+        <v>0.4300</v>
       </c>
       <c r="H15" t="str">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="I15" t="str">
-        <v>4.5900</v>
+        <v>0.4300</v>
       </c>
       <c r="J15" t="str">
-        <v>4.5900</v>
+        <v>0.4300</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="16">
@@ -841,370 +841,210 @@
         <v>chatting013</v>
       </c>
       <c r="B16" t="str">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C16" t="str">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D16" t="str">
         <v>0</v>
       </c>
       <c r="E16" t="str">
+        <v>1</v>
+      </c>
+      <c r="F16" t="str">
+        <v>2</v>
+      </c>
+      <c r="G16" t="str">
+        <v>0.1700</v>
+      </c>
+      <c r="H16" t="str">
         <v>6</v>
       </c>
-      <c r="F16" t="str">
-        <v>24</v>
-      </c>
-      <c r="G16" t="str">
-        <v>3.0600</v>
-      </c>
-      <c r="H16" t="str">
-        <v>129</v>
-      </c>
       <c r="I16" t="str">
-        <v>3.0600</v>
+        <v>0.1700</v>
       </c>
       <c r="J16" t="str">
-        <v>3.0600</v>
+        <v>0.1700</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="17">
       <c r="A17" t="str">
-        <v>APP005</v>
+        <v>chatting016</v>
       </c>
       <c r="B17" t="str">
-        <v>244</v>
+        <v>24</v>
       </c>
       <c r="C17" t="str">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D17" t="str">
         <v>0</v>
       </c>
       <c r="E17" t="str">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F17" t="str">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="G17" t="str">
-        <v>2.2100</v>
+        <v>0.1700</v>
       </c>
       <c r="H17" t="str">
-        <v>836</v>
+        <v>17</v>
       </c>
       <c r="I17" t="str">
-        <v>2.2100</v>
+        <v>0.1700</v>
       </c>
       <c r="J17" t="str">
-        <v>2.2100</v>
+        <v>0.1700</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="18">
       <c r="A18" t="str">
-        <v>APP001</v>
+        <v>APP003</v>
       </c>
       <c r="B18" t="str">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C18" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" t="str">
         <v>0</v>
       </c>
       <c r="E18" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" t="str">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" t="str">
-        <v>0.5100</v>
+        <v>0.0000</v>
       </c>
       <c r="H18" t="str">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="I18" t="str">
-        <v>0.5100</v>
+        <v>0.0000</v>
       </c>
       <c r="J18" t="str">
-        <v>0.5100</v>
+        <v>0.0000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="19">
-      <c r="A19" t="str">
-        <v>chatting038</v>
-      </c>
-      <c r="B19" t="str">
-        <v>42</v>
-      </c>
-      <c r="C19" t="str">
-        <v>2</v>
-      </c>
-      <c r="D19" t="str">
-        <v>0</v>
-      </c>
-      <c r="E19" t="str">
-        <v>5</v>
-      </c>
-      <c r="F19" t="str">
-        <v>7</v>
-      </c>
-      <c r="G19" t="str">
-        <v>0.3400</v>
+      <c r="A19" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B19" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C19" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D19" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E19" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F19" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G19" t="str" xml:space="preserve">
+        <v> </v>
       </c>
       <c r="H19" t="str">
-        <v>929</v>
+        <v>总工资:</v>
       </c>
       <c r="I19" t="str">
-        <v>0.3400</v>
-      </c>
-      <c r="J19" t="str">
-        <v>0.3400</v>
+        <v>133.7200</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="20">
-      <c r="A20" t="str">
-        <v>chatting021</v>
-      </c>
-      <c r="B20" t="str">
-        <v>7</v>
-      </c>
-      <c r="C20" t="str">
-        <v>0</v>
-      </c>
-      <c r="D20" t="str">
-        <v>0</v>
-      </c>
-      <c r="E20" t="str">
-        <v>2</v>
-      </c>
-      <c r="F20" t="str">
-        <v>2</v>
-      </c>
-      <c r="G20" t="str">
-        <v>0.0000</v>
+      <c r="A20" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B20" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C20" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D20" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E20" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F20" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G20" t="str" xml:space="preserve">
+        <v> </v>
       </c>
       <c r="H20" t="str">
-        <v>38</v>
+        <v>平均工资:</v>
       </c>
       <c r="I20" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="J20" t="str">
-        <v>0.0000</v>
+        <v>8.3575</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="21">
-      <c r="A21" t="str">
-        <v>chatting06</v>
-      </c>
-      <c r="B21" t="str">
-        <v>3</v>
-      </c>
-      <c r="C21" t="str">
-        <v>0</v>
-      </c>
-      <c r="D21" t="str">
-        <v>0</v>
-      </c>
-      <c r="E21" t="str">
-        <v>2</v>
-      </c>
-      <c r="F21" t="str">
-        <v>2</v>
-      </c>
-      <c r="G21" t="str">
-        <v>0.0000</v>
+      <c r="A21" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B21" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C21" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D21" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E21" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F21" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G21" t="str" xml:space="preserve">
+        <v> </v>
       </c>
       <c r="H21" t="str">
-        <v>7</v>
+        <v>大与7	个数:</v>
       </c>
       <c r="I21" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="J21" t="str">
-        <v>0.0000</v>
+        <v>950</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="22">
-      <c r="A22" t="str">
-        <v>chatting016</v>
-      </c>
-      <c r="B22" t="str">
-        <v>4</v>
-      </c>
-      <c r="C22" t="str">
-        <v>0</v>
-      </c>
-      <c r="D22" t="str">
-        <v>0</v>
-      </c>
-      <c r="E22" t="str">
-        <v>1</v>
-      </c>
-      <c r="F22" t="str">
-        <v>1</v>
-      </c>
-      <c r="G22" t="str">
-        <v>0.0000</v>
+      <c r="A22" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B22" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C22" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D22" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E22" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F22" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G22" t="str" xml:space="preserve">
+        <v> </v>
       </c>
       <c r="H22" t="str">
-        <v>1</v>
+        <v>高于平均工资人数:</v>
       </c>
       <c r="I22" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="J22" t="str">
-        <v>0.0000</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="23">
-      <c r="A23" t="str">
-        <v>chatting014</v>
-      </c>
-      <c r="B23" t="str">
-        <v>2</v>
-      </c>
-      <c r="C23" t="str">
-        <v>0</v>
-      </c>
-      <c r="D23" t="str">
-        <v>0</v>
-      </c>
-      <c r="E23" t="str">
-        <v>1</v>
-      </c>
-      <c r="F23" t="str">
-        <v>1</v>
-      </c>
-      <c r="G23" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="H23" t="str">
-        <v>0</v>
-      </c>
-      <c r="I23" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="J23" t="str">
-        <v>0.0000</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="24">
-      <c r="A24" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B24" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C24" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D24" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E24" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F24" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G24" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="H24" t="str">
-        <v>总工资:</v>
-      </c>
-      <c r="I24" t="str">
-        <v>152.3200</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="25">
-      <c r="A25" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B25" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C25" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D25" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E25" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F25" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G25" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="H25" t="str">
-        <v>平均工资:</v>
-      </c>
-      <c r="I25" t="str">
-        <v>7.2533</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="26">
-      <c r="A26" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B26" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C26" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D26" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E26" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F26" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G26" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="H26" t="str">
-        <v>大与7	个数:</v>
-      </c>
-      <c r="I26" t="str">
-        <v>1091</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="27">
-      <c r="A27" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B27" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C27" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D27" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E27" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F27" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G27" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="H27" t="str">
-        <v>高于平均工资人数:</v>
-      </c>
-      <c r="I27" t="str">
         <v>7</v>
       </c>
     </row>

--- a/陪聊数据统计.xlsx
+++ b/陪聊数据统计.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="20190926 05点-20190927 05点" sheetId="1" r:id="rId1"/>
+    <sheet name="20190928 05点-20190929 05点" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -425,31 +425,31 @@
         <v>chatting015</v>
       </c>
       <c r="B3" t="str">
-        <v>2511</v>
+        <v>2632</v>
       </c>
       <c r="C3" t="str">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D3" t="str">
         <v>0</v>
       </c>
       <c r="E3" t="str">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F3" t="str">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="G3" t="str">
-        <v>30.4300</v>
+        <v>31.7900</v>
       </c>
       <c r="H3" t="str">
-        <v>701</v>
+        <v>1428</v>
       </c>
       <c r="I3" t="str">
-        <v>30.4300</v>
+        <v>31.7900</v>
       </c>
       <c r="J3" t="str">
-        <v>30.4300</v>
+        <v>31.7900</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="4">
@@ -457,330 +457,330 @@
         <v>chatting06</v>
       </c>
       <c r="B4" t="str">
-        <v>1706</v>
+        <v>1396</v>
       </c>
       <c r="C4" t="str">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D4" t="str">
         <v>0</v>
       </c>
       <c r="E4" t="str">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="F4" t="str">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="G4" t="str">
-        <v>19.3800</v>
+        <v>18.5300</v>
       </c>
       <c r="H4" t="str">
-        <v>610</v>
+        <v>930</v>
       </c>
       <c r="I4" t="str">
-        <v>19.3800</v>
+        <v>18.5300</v>
       </c>
       <c r="J4" t="str">
-        <v>19.3800</v>
+        <v>18.5300</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="5">
       <c r="A5" t="str">
-        <v>mohammedegypt1</v>
+        <v>chatting033</v>
       </c>
       <c r="B5" t="str">
-        <v>1549</v>
+        <v>1269</v>
       </c>
       <c r="C5" t="str">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D5" t="str">
         <v>0</v>
       </c>
       <c r="E5" t="str">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F5" t="str">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="G5" t="str">
-        <v>13.0900</v>
+        <v>17.1700</v>
       </c>
       <c r="H5" t="str">
-        <v>678</v>
+        <v>551</v>
       </c>
       <c r="I5" t="str">
-        <v>13.0900</v>
+        <v>17.1700</v>
       </c>
       <c r="J5" t="str">
-        <v>13.0900</v>
+        <v>17.1700</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="6">
       <c r="A6" t="str">
-        <v>APP004</v>
+        <v>rashadegypt1</v>
       </c>
       <c r="B6" t="str">
-        <v>1109</v>
+        <v>714</v>
       </c>
       <c r="C6" t="str">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="D6" t="str">
         <v>0</v>
       </c>
       <c r="E6" t="str">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F6" t="str">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G6" t="str">
-        <v>15.3000</v>
+        <v>11.5600</v>
       </c>
       <c r="H6" t="str">
-        <v>348</v>
+        <v>797</v>
       </c>
       <c r="I6" t="str">
-        <v>15.3000</v>
+        <v>11.5600</v>
       </c>
       <c r="J6" t="str">
-        <v>15.3000</v>
+        <v>11.5600</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="7">
       <c r="A7" t="str">
-        <v>chatting036</v>
+        <v>APP004</v>
       </c>
       <c r="B7" t="str">
-        <v>944</v>
+        <v>581</v>
       </c>
       <c r="C7" t="str">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="D7" t="str">
         <v>0</v>
       </c>
       <c r="E7" t="str">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" t="str">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="G7" t="str">
-        <v>16.8300</v>
+        <v>6.8000</v>
       </c>
       <c r="H7" t="str">
-        <v>790</v>
+        <v>811</v>
       </c>
       <c r="I7" t="str">
-        <v>16.8300</v>
+        <v>6.8000</v>
       </c>
       <c r="J7" t="str">
-        <v>16.8300</v>
+        <v>6.8000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="8">
       <c r="A8" t="str">
-        <v>rashadegypt1</v>
+        <v>yaseregypt1</v>
       </c>
       <c r="B8" t="str">
-        <v>752</v>
+        <v>470</v>
       </c>
       <c r="C8" t="str">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="D8" t="str">
         <v>0</v>
       </c>
       <c r="E8" t="str">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F8" t="str">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="G8" t="str">
-        <v>12.2400</v>
+        <v>7.6500</v>
       </c>
       <c r="H8" t="str">
-        <v>846</v>
+        <v>612</v>
       </c>
       <c r="I8" t="str">
-        <v>12.2400</v>
+        <v>7.6500</v>
       </c>
       <c r="J8" t="str">
-        <v>12.2400</v>
+        <v>7.6500</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="9">
       <c r="A9" t="str">
-        <v>yaseregypt1</v>
+        <v>chatting10</v>
       </c>
       <c r="B9" t="str">
-        <v>681</v>
+        <v>256</v>
       </c>
       <c r="C9" t="str">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D9" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" t="str">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F9" t="str">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="G9" t="str">
-        <v>10.5500</v>
+        <v>4.5900</v>
       </c>
       <c r="H9" t="str">
-        <v>846</v>
+        <v>156</v>
       </c>
       <c r="I9" t="str">
-        <v>10.5500</v>
+        <v>4.5900</v>
       </c>
       <c r="J9" t="str">
-        <v>10.5500</v>
+        <v>4.5900</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="10">
       <c r="A10" t="str">
-        <v>chatting033</v>
+        <v>APP003</v>
       </c>
       <c r="B10" t="str">
-        <v>597</v>
+        <v>149</v>
       </c>
       <c r="C10" t="str">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="D10" t="str">
         <v>0</v>
       </c>
       <c r="E10" t="str">
+        <v>11</v>
+      </c>
+      <c r="F10" t="str">
         <v>22</v>
       </c>
-      <c r="F10" t="str">
-        <v>69</v>
-      </c>
       <c r="G10" t="str">
-        <v>7.9900</v>
+        <v>1.8700</v>
       </c>
       <c r="H10" t="str">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="I10" t="str">
-        <v>7.9900</v>
+        <v>1.8700</v>
       </c>
       <c r="J10" t="str">
-        <v>7.9900</v>
+        <v>1.8700</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="11">
       <c r="A11" t="str">
-        <v>chatting07</v>
+        <v>chatting032</v>
       </c>
       <c r="B11" t="str">
-        <v>314</v>
+        <v>86</v>
       </c>
       <c r="C11" t="str">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D11" t="str">
         <v>0</v>
       </c>
       <c r="E11" t="str">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F11" t="str">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G11" t="str">
-        <v>4.2500</v>
+        <v>1.1900</v>
       </c>
       <c r="H11" t="str">
-        <v>91</v>
+        <v>819</v>
       </c>
       <c r="I11" t="str">
-        <v>4.2500</v>
+        <v>1.1900</v>
       </c>
       <c r="J11" t="str">
-        <v>4.2500</v>
+        <v>1.1900</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="12">
       <c r="A12" t="str">
-        <v>chatting034</v>
+        <v>mohammedegypt1</v>
       </c>
       <c r="B12" t="str">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="C12" t="str">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D12" t="str">
         <v>0</v>
       </c>
       <c r="E12" t="str">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F12" t="str">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G12" t="str">
-        <v>1.1900</v>
+        <v>0.3400</v>
       </c>
       <c r="H12" t="str">
-        <v>47</v>
+        <v>614</v>
       </c>
       <c r="I12" t="str">
-        <v>1.1900</v>
+        <v>0.3400</v>
       </c>
       <c r="J12" t="str">
-        <v>1.1900</v>
+        <v>0.3400</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="13">
       <c r="A13" t="str">
-        <v>chatting032</v>
+        <v>yousefegypt1</v>
       </c>
       <c r="B13" t="str">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="C13" t="str">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D13" t="str">
         <v>0</v>
       </c>
       <c r="E13" t="str">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F13" t="str">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G13" t="str">
-        <v>1.1900</v>
+        <v>0.0000</v>
       </c>
       <c r="H13" t="str">
-        <v>836</v>
+        <v>292</v>
       </c>
       <c r="I13" t="str">
-        <v>1.1900</v>
+        <v>0.0000</v>
       </c>
       <c r="J13" t="str">
-        <v>1.1900</v>
+        <v>0.0000</v>
       </c>
     </row>
     <row customHeight="true" ht="28" r="14">
       <c r="A14" t="str">
-        <v>chatting031</v>
+        <v>chatting020</v>
       </c>
       <c r="B14" t="str">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="C14" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14" t="str">
         <v>0</v>
@@ -789,263 +789,135 @@
         <v>1</v>
       </c>
       <c r="F14" t="str">
+        <v>1</v>
+      </c>
+      <c r="G14" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="H14" t="str">
+        <v>7</v>
+      </c>
+      <c r="I14" t="str">
+        <v>0.0000</v>
+      </c>
+      <c r="J14" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="15">
+      <c r="A15" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B15" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C15" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D15" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E15" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F15" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G15" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="H15" t="str">
+        <v>总工资:</v>
+      </c>
+      <c r="I15" t="str">
+        <v>101.4900</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="16">
+      <c r="A16" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B16" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C16" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D16" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E16" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F16" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G16" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="H16" t="str">
+        <v>平均工资:</v>
+      </c>
+      <c r="I16" t="str">
+        <v>8.4575</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="17">
+      <c r="A17" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B17" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C17" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D17" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E17" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F17" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G17" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="H17" t="str">
+        <v>大与7	个数:</v>
+      </c>
+      <c r="I17" t="str">
+        <v>725</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="18">
+      <c r="A18" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B18" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C18" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D18" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E18" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F18" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G18" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="H18" t="str">
+        <v>高于平均工资人数:</v>
+      </c>
+      <c r="I18" t="str">
         <v>4</v>
-      </c>
-      <c r="G14" t="str">
-        <v>0.5100</v>
-      </c>
-      <c r="H14" t="str">
-        <v>69</v>
-      </c>
-      <c r="I14" t="str">
-        <v>0.5100</v>
-      </c>
-      <c r="J14" t="str">
-        <v>0.5100</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="15">
-      <c r="A15" t="str">
-        <v>chatting02</v>
-      </c>
-      <c r="B15" t="str">
-        <v>32</v>
-      </c>
-      <c r="C15" t="str">
-        <v>2</v>
-      </c>
-      <c r="D15" t="str">
-        <v>1</v>
-      </c>
-      <c r="E15" t="str">
-        <v>3</v>
-      </c>
-      <c r="F15" t="str">
-        <v>6</v>
-      </c>
-      <c r="G15" t="str">
-        <v>0.4300</v>
-      </c>
-      <c r="H15" t="str">
-        <v>43</v>
-      </c>
-      <c r="I15" t="str">
-        <v>0.4300</v>
-      </c>
-      <c r="J15" t="str">
-        <v>0.4300</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="16">
-      <c r="A16" t="str">
-        <v>chatting013</v>
-      </c>
-      <c r="B16" t="str">
-        <v>26</v>
-      </c>
-      <c r="C16" t="str">
-        <v>1</v>
-      </c>
-      <c r="D16" t="str">
-        <v>0</v>
-      </c>
-      <c r="E16" t="str">
-        <v>1</v>
-      </c>
-      <c r="F16" t="str">
-        <v>2</v>
-      </c>
-      <c r="G16" t="str">
-        <v>0.1700</v>
-      </c>
-      <c r="H16" t="str">
-        <v>6</v>
-      </c>
-      <c r="I16" t="str">
-        <v>0.1700</v>
-      </c>
-      <c r="J16" t="str">
-        <v>0.1700</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="17">
-      <c r="A17" t="str">
-        <v>chatting016</v>
-      </c>
-      <c r="B17" t="str">
-        <v>24</v>
-      </c>
-      <c r="C17" t="str">
-        <v>1</v>
-      </c>
-      <c r="D17" t="str">
-        <v>0</v>
-      </c>
-      <c r="E17" t="str">
-        <v>1</v>
-      </c>
-      <c r="F17" t="str">
-        <v>2</v>
-      </c>
-      <c r="G17" t="str">
-        <v>0.1700</v>
-      </c>
-      <c r="H17" t="str">
-        <v>17</v>
-      </c>
-      <c r="I17" t="str">
-        <v>0.1700</v>
-      </c>
-      <c r="J17" t="str">
-        <v>0.1700</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="18">
-      <c r="A18" t="str">
-        <v>APP003</v>
-      </c>
-      <c r="B18" t="str">
-        <v>17</v>
-      </c>
-      <c r="C18" t="str">
-        <v>0</v>
-      </c>
-      <c r="D18" t="str">
-        <v>0</v>
-      </c>
-      <c r="E18" t="str">
-        <v>4</v>
-      </c>
-      <c r="F18" t="str">
-        <v>4</v>
-      </c>
-      <c r="G18" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="H18" t="str">
-        <v>132</v>
-      </c>
-      <c r="I18" t="str">
-        <v>0.0000</v>
-      </c>
-      <c r="J18" t="str">
-        <v>0.0000</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="19">
-      <c r="A19" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B19" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C19" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D19" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E19" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F19" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G19" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="H19" t="str">
-        <v>总工资:</v>
-      </c>
-      <c r="I19" t="str">
-        <v>133.7200</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="20">
-      <c r="A20" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B20" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C20" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D20" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E20" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F20" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G20" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="H20" t="str">
-        <v>平均工资:</v>
-      </c>
-      <c r="I20" t="str">
-        <v>8.3575</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="21">
-      <c r="A21" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B21" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C21" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D21" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E21" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F21" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G21" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="H21" t="str">
-        <v>大与7	个数:</v>
-      </c>
-      <c r="I21" t="str">
-        <v>950</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="22">
-      <c r="A22" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B22" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C22" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D22" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E22" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F22" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G22" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="H22" t="str">
-        <v>高于平均工资人数:</v>
-      </c>
-      <c r="I22" t="str">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/陪聊数据统计.xlsx
+++ b/陪聊数据统计.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="20191016 05点-20191017 05点" sheetId="1" r:id="rId1"/>
+    <sheet name="20191029 05点-20191030 05点" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -422,150 +422,470 @@
     </row>
     <row customHeight="true" ht="28" r="3">
       <c r="A3" t="str">
-        <v>yulong</v>
+        <v>APP010</v>
       </c>
       <c r="B3" t="str">
+        <v>1560</v>
+      </c>
+      <c r="C3" t="str">
+        <v>58</v>
+      </c>
+      <c r="D3" t="str">
+        <v>7</v>
+      </c>
+      <c r="E3" t="str">
+        <v>192</v>
+      </c>
+      <c r="F3" t="str">
+        <v>257</v>
+      </c>
+      <c r="G3" t="str">
+        <v>10.4900</v>
+      </c>
+      <c r="H3" t="str">
+        <v>480</v>
+      </c>
+      <c r="I3" t="str">
+        <v>10.4900</v>
+      </c>
+      <c r="J3" t="str">
+        <v>10.4900</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="4">
+      <c r="A4" t="str">
+        <v>APP009</v>
+      </c>
+      <c r="B4" t="str">
+        <v>1035</v>
+      </c>
+      <c r="C4" t="str">
+        <v>30</v>
+      </c>
+      <c r="D4" t="str">
+        <v>4</v>
+      </c>
+      <c r="E4" t="str">
+        <v>318</v>
+      </c>
+      <c r="F4" t="str">
+        <v>352</v>
+      </c>
+      <c r="G4" t="str">
+        <v>5.4600</v>
+      </c>
+      <c r="H4" t="str">
+        <v>470</v>
+      </c>
+      <c r="I4" t="str">
+        <v>5.4600</v>
+      </c>
+      <c r="J4" t="str">
+        <v>5.4600</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="5">
+      <c r="A5" t="str">
+        <v>APP006</v>
+      </c>
+      <c r="B5" t="str">
+        <v>1009</v>
+      </c>
+      <c r="C5" t="str">
+        <v>32</v>
+      </c>
+      <c r="D5" t="str">
         <v>2</v>
       </c>
-      <c r="C3" t="str">
+      <c r="E5" t="str">
+        <v>317</v>
+      </c>
+      <c r="F5" t="str">
+        <v>351</v>
+      </c>
+      <c r="G5" t="str">
+        <v>5.6200</v>
+      </c>
+      <c r="H5" t="str">
+        <v>505</v>
+      </c>
+      <c r="I5" t="str">
+        <v>5.6200</v>
+      </c>
+      <c r="J5" t="str">
+        <v>5.6200</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="6">
+      <c r="A6" t="str">
+        <v>APP005</v>
+      </c>
+      <c r="B6" t="str">
+        <v>762</v>
+      </c>
+      <c r="C6" t="str">
+        <v>21</v>
+      </c>
+      <c r="D6" t="str">
+        <v>2</v>
+      </c>
+      <c r="E6" t="str">
+        <v>233</v>
+      </c>
+      <c r="F6" t="str">
+        <v>256</v>
+      </c>
+      <c r="G6" t="str">
+        <v>3.7500</v>
+      </c>
+      <c r="H6" t="str">
+        <v>487</v>
+      </c>
+      <c r="I6" t="str">
+        <v>3.7500</v>
+      </c>
+      <c r="J6" t="str">
+        <v>3.7500</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="7">
+      <c r="A7" t="str">
+        <v>APP004</v>
+      </c>
+      <c r="B7" t="str">
+        <v>782</v>
+      </c>
+      <c r="C7" t="str">
+        <v>34</v>
+      </c>
+      <c r="D7" t="str">
+        <v>1</v>
+      </c>
+      <c r="E7" t="str">
+        <v>123</v>
+      </c>
+      <c r="F7" t="str">
+        <v>158</v>
+      </c>
+      <c r="G7" t="str">
+        <v>5.8700</v>
+      </c>
+      <c r="H7" t="str">
+        <v>690</v>
+      </c>
+      <c r="I7" t="str">
+        <v>5.8700</v>
+      </c>
+      <c r="J7" t="str">
+        <v>5.8700</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="8">
+      <c r="A8" t="str">
+        <v>APP007</v>
+      </c>
+      <c r="B8" t="str">
+        <v>979</v>
+      </c>
+      <c r="C8" t="str">
+        <v>24</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2</v>
+      </c>
+      <c r="E8" t="str">
+        <v>60</v>
+      </c>
+      <c r="F8" t="str">
+        <v>86</v>
+      </c>
+      <c r="G8" t="str">
+        <v>4.2600</v>
+      </c>
+      <c r="H8" t="str">
+        <v>893</v>
+      </c>
+      <c r="I8" t="str">
+        <v>4.2600</v>
+      </c>
+      <c r="J8" t="str">
+        <v>4.2600</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="9">
+      <c r="A9" t="str">
+        <v>APP012</v>
+      </c>
+      <c r="B9" t="str">
+        <v>644</v>
+      </c>
+      <c r="C9" t="str">
+        <v>35</v>
+      </c>
+      <c r="D9" t="str">
+        <v>1</v>
+      </c>
+      <c r="E9" t="str">
+        <v>157</v>
+      </c>
+      <c r="F9" t="str">
+        <v>193</v>
+      </c>
+      <c r="G9" t="str">
+        <v>6.0400</v>
+      </c>
+      <c r="H9" t="str">
+        <v>783</v>
+      </c>
+      <c r="I9" t="str">
+        <v>6.0400</v>
+      </c>
+      <c r="J9" t="str">
+        <v>6.0400</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="10">
+      <c r="A10" t="str">
+        <v>APP011</v>
+      </c>
+      <c r="B10" t="str">
+        <v>514</v>
+      </c>
+      <c r="C10" t="str">
+        <v>18</v>
+      </c>
+      <c r="D10" t="str">
         <v>0</v>
       </c>
-      <c r="D3" t="str">
+      <c r="E10" t="str">
+        <v>72</v>
+      </c>
+      <c r="F10" t="str">
+        <v>90</v>
+      </c>
+      <c r="G10" t="str">
+        <v>3.0600</v>
+      </c>
+      <c r="H10" t="str">
+        <v>290</v>
+      </c>
+      <c r="I10" t="str">
+        <v>3.0600</v>
+      </c>
+      <c r="J10" t="str">
+        <v>3.0600</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="11">
+      <c r="A11" t="str">
+        <v>APP013</v>
+      </c>
+      <c r="B11" t="str">
+        <v>468</v>
+      </c>
+      <c r="C11" t="str">
+        <v>12</v>
+      </c>
+      <c r="D11" t="str">
+        <v>1</v>
+      </c>
+      <c r="E11" t="str">
+        <v>47</v>
+      </c>
+      <c r="F11" t="str">
+        <v>60</v>
+      </c>
+      <c r="G11" t="str">
+        <v>2.1300</v>
+      </c>
+      <c r="H11" t="str">
+        <v>184</v>
+      </c>
+      <c r="I11" t="str">
+        <v>2.1300</v>
+      </c>
+      <c r="J11" t="str">
+        <v>2.1300</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="12">
+      <c r="A12" t="str">
+        <v>APP008</v>
+      </c>
+      <c r="B12" t="str">
+        <v>90</v>
+      </c>
+      <c r="C12" t="str">
+        <v>3</v>
+      </c>
+      <c r="D12" t="str">
         <v>0</v>
       </c>
-      <c r="E3" t="str">
-        <v>2</v>
-      </c>
-      <c r="F3" t="str">
-        <v>2</v>
-      </c>
-      <c r="G3" t="str">
+      <c r="E12" t="str">
+        <v>11</v>
+      </c>
+      <c r="F12" t="str">
+        <v>14</v>
+      </c>
+      <c r="G12" t="str">
+        <v>0.5100</v>
+      </c>
+      <c r="H12" t="str">
+        <v>14</v>
+      </c>
+      <c r="I12" t="str">
+        <v>0.5100</v>
+      </c>
+      <c r="J12" t="str">
+        <v>0.5100</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="13">
+      <c r="A13" t="str">
+        <v>APP001</v>
+      </c>
+      <c r="B13" t="str">
+        <v>8</v>
+      </c>
+      <c r="C13" t="str">
+        <v>0</v>
+      </c>
+      <c r="D13" t="str">
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <v>8</v>
+      </c>
+      <c r="F13" t="str">
+        <v>8</v>
+      </c>
+      <c r="G13" t="str">
         <v>0.0000</v>
       </c>
-      <c r="H3" t="str">
-        <v>79</v>
-      </c>
-      <c r="I3" t="str">
+      <c r="H13" t="str">
+        <v>55</v>
+      </c>
+      <c r="I13" t="str">
         <v>0.0000</v>
       </c>
-      <c r="J3" t="str">
+      <c r="J13" t="str">
         <v>0.0000</v>
       </c>
     </row>
-    <row customHeight="true" ht="28" r="4">
-      <c r="A4" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B4" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C4" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D4" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E4" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F4" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G4" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="H4" t="str">
+    <row customHeight="true" ht="28" r="14">
+      <c r="A14" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B14" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C14" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D14" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E14" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F14" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G14" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="H14" t="str">
         <v>总工资:</v>
       </c>
-      <c r="I4" t="str">
-        <v>0.0000</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="5">
-      <c r="A5" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B5" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C5" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D5" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E5" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F5" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G5" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="H5" t="str">
+      <c r="I14" t="str">
+        <v>47.1900</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="15">
+      <c r="A15" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B15" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C15" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D15" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E15" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F15" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G15" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="H15" t="str">
         <v>平均工资:</v>
       </c>
-      <c r="I5" t="str">
-        <v>0.0000</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="6">
-      <c r="A6" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B6" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C6" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D6" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E6" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F6" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G6" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="H6" t="str">
+      <c r="I15" t="str">
+        <v>4.2900</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="16">
+      <c r="A16" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B16" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C16" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D16" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E16" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F16" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G16" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="H16" t="str">
         <v>大与7	个数:</v>
       </c>
-      <c r="I6" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="28" r="7">
-      <c r="A7" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="B7" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="C7" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="D7" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="E7" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="F7" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="G7" t="str" xml:space="preserve">
-        <v> </v>
-      </c>
-      <c r="H7" t="str">
+      <c r="I16" t="str">
+        <v>321</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="28" r="17">
+      <c r="A17" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="B17" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="C17" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="D17" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="E17" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="F17" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="G17" t="str" xml:space="preserve">
+        <v> </v>
+      </c>
+      <c r="H17" t="str">
         <v>高于平均工资人数:</v>
       </c>
-      <c r="I7" t="str">
-        <v>1</v>
+      <c r="I17" t="str">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
